--- a/Data/Regression/regression_data_monthly_2.xlsx
+++ b/Data/Regression/regression_data_monthly_2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK230"/>
+  <dimension ref="A1:BR230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,6 +755,41 @@
           <t>German Relative Real Inflation Expectations Gap Quant</t>
         </is>
       </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>German Absolute Real Inflation Expectations Gap Stm Reuter</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>German Absolute Real Inflation Expectations Gap Role Reuter</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>German Absolute Real Inflation Expectations Gap Berk5 Reuter</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>German Relative Real Inflation Expectations Gap Stm Reuter</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>German Relative Real Inflation Expectations Gap Role Reuter</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>German Relative Real Inflation Expectations Gap Berk5 Reuter</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Reuter Poll Forecast</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -924,6 +959,27 @@
       <c r="BK2" t="n">
         <v>-1.54946364719906</v>
       </c>
+      <c r="BL2" t="n">
+        <v>1.069586078947133</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1.73794163802344</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1.069586078947133</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.73794163802344</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1093,6 +1149,27 @@
       <c r="BK3" t="n">
         <v>-1.54761904761906</v>
       </c>
+      <c r="BL3" t="n">
+        <v>1.138292050551889</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1.796938178571904</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.7036238339961938</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>1.138292050551889</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.796938178571904</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.7036238339961938</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1262,6 +1339,27 @@
       <c r="BK4" t="n">
         <v>-1.54761904761906</v>
       </c>
+      <c r="BL4" t="n">
+        <v>1.120930352039129</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1.61166794564451</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.84560974668515</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>1.120930352039129</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.61166794564451</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.84560974668515</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1431,6 +1529,27 @@
       <c r="BK5" t="n">
         <v>-1.06635071090046</v>
       </c>
+      <c r="BL5" t="n">
+        <v>1.155351772808454</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>1.639994181439074</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.8701617646729599</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>1.155351772808454</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.639994181439074</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0.8701617646729599</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1600,6 +1719,27 @@
       <c r="BK6" t="n">
         <v>-0.947867298578197</v>
       </c>
+      <c r="BL6" t="n">
+        <v>1.136792573619089</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1.534088814250939</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.8080173915973642</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>1.136792573619089</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.534088814250939</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.8080173915973642</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1769,6 +1909,27 @@
       <c r="BK7" t="n">
         <v>-1.30177514792901</v>
       </c>
+      <c r="BL7" t="n">
+        <v>1.111171503256298</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>1.503837042614281</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.8347594344287761</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>1.111171503256298</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.503837042614281</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.8347594344287761</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1938,6 +2099,27 @@
       <c r="BK8" t="n">
         <v>-1.29564193168432</v>
       </c>
+      <c r="BL8" t="n">
+        <v>1.285040766725896</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>1.745991923232511</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.00148736879904</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>1.285040766725896</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.745991923232511</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>1.00148736879904</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2107,6 +2289,27 @@
       <c r="BK9" t="n">
         <v>-1.17924528301888</v>
       </c>
+      <c r="BL9" t="n">
+        <v>1.225866043504663</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1.583273482583646</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.922068479591913</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>1.225866043504663</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.583273482583646</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.922068479591913</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2276,6 +2479,27 @@
       <c r="BK10" t="n">
         <v>-1.6548463356974</v>
       </c>
+      <c r="BL10" t="n">
+        <v>1.221925634117544</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1.494394774798931</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.9203724098537324</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>1.221925634117544</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.494394774798931</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.9203724098537324</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -2445,6 +2669,27 @@
       <c r="BK11" t="n">
         <v>-1.65680473372783</v>
       </c>
+      <c r="BL11" t="n">
+        <v>1.357936938036924</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>1.647174152663105</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.056473590110936</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>1.357936938036924</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.647174152663105</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>1.056473590110936</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -2614,6 +2859,27 @@
       <c r="BK12" t="n">
         <v>-1.53482880755606</v>
       </c>
+      <c r="BL12" t="n">
+        <v>1.394507806275155</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1.645500904065876</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.080805468700657</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>1.394507806275155</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.645500904065876</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>1.080805468700657</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -2783,6 +3049,27 @@
       <c r="BK13" t="n">
         <v>-2</v>
       </c>
+      <c r="BL13" t="n">
+        <v>1.416549434044045</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1.705062278786282</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.177578583146022</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>1.416549434044045</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.705062278786282</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>1.177578583146022</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -2952,6 +3239,27 @@
       <c r="BK14" t="n">
         <v>-1.40845070422536</v>
       </c>
+      <c r="BL14" t="n">
+        <v>1.396300327355848</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>1.728358562519931</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.195691186881164</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>1.396300327355848</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.728358562519931</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>1.195691186881164</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -3143,6 +3451,27 @@
       <c r="BK15" t="n">
         <v>-1.87573270808911</v>
       </c>
+      <c r="BL15" t="n">
+        <v>1.314182602016151</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>1.681926379643853</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.203002291075685</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>1.314182602016151</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.681926379643853</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>1.203002291075685</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -3334,6 +3663,27 @@
       <c r="BK16" t="n">
         <v>-1.87573270808911</v>
       </c>
+      <c r="BL16" t="n">
+        <v>1.333662299308913</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1.732402591637927</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.265173732797813</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>1.333662299308913</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.732402591637927</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>1.265173732797813</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -3525,6 +3875,27 @@
       <c r="BK17" t="n">
         <v>-2.34466588511137</v>
       </c>
+      <c r="BL17" t="n">
+        <v>1.343465638617886</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1.692410182850566</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.284245108256136</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>1.343465638617886</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.692410182850566</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>1.284245108256136</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -3716,6 +4087,27 @@
       <c r="BK18" t="n">
         <v>-2.8169014084507</v>
       </c>
+      <c r="BL18" t="n">
+        <v>1.390259229531313</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1.774342406963941</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.405053860125461</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>1.390259229531313</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.774342406963941</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>1.405053860125461</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -3907,6 +4299,27 @@
       <c r="BK19" t="n">
         <v>-2.45327102803738</v>
       </c>
+      <c r="BL19" t="n">
+        <v>1.660801276366254</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>1.937640239510793</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.559365146410035</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>1.660801276366254</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.937640239510793</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>1.559365146410035</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -4098,6 +4511,27 @@
       <c r="BK20" t="n">
         <v>-2.09302325581396</v>
       </c>
+      <c r="BL20" t="n">
+        <v>1.665419653030861</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>2.001290645715041</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.625749603174855</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>1.665419653030861</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>2.001290645715041</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>1.625749603174855</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -4289,6 +4723,27 @@
       <c r="BK21" t="n">
         <v>-2.0979020979021</v>
       </c>
+      <c r="BL21" t="n">
+        <v>1.670274418542903</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>1.874594818132237</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.542433156647752</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>1.670274418542903</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.874594818132237</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>1.542433156647752</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -4480,6 +4935,27 @@
       <c r="BK22" t="n">
         <v>-1.86046511627908</v>
       </c>
+      <c r="BL22" t="n">
+        <v>1.630336031984637</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>1.918806064966405</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.586826067973842</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>1.630336031984637</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.918806064966405</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>1.586826067973842</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -4671,6 +5147,27 @@
       <c r="BK23" t="n">
         <v>-1.86263096623981</v>
       </c>
+      <c r="BL23" t="n">
+        <v>1.51669005829036</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>1.878435584809816</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.565524759607659</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>1.51669005829036</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.878435584809816</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>1.565524759607659</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -4862,6 +5359,27 @@
       <c r="BK24" t="n">
         <v>-1.51162790697675</v>
       </c>
+      <c r="BL24" t="n">
+        <v>1.500364223811943</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>1.991682167798634</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.657701761205859</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>1.500364223811943</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.991682167798634</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>1.657701761205859</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -5053,6 +5571,27 @@
       <c r="BK25" t="n">
         <v>-1.61476355247982</v>
       </c>
+      <c r="BL25" t="n">
+        <v>1.466932831834008</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>1.945014104070393</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.627102984756334</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>1.466932831834008</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.945014104070393</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>1.627102984756334</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -5244,6 +5783,27 @@
       <c r="BK26" t="n">
         <v>-2.08333333333331</v>
       </c>
+      <c r="BL26" t="n">
+        <v>1.475303658148046</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>1.980059446894849</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.680482806579505</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>1.475303658148046</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.980059446894849</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>1.680482806579505</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -5435,6 +5995,27 @@
       <c r="BK27" t="n">
         <v>-1.84119677790562</v>
       </c>
+      <c r="BL27" t="n">
+        <v>1.742045708993753</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>1.652628635096004</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.413253123233067</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>1.742045708993753</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.652628635096004</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>1.413253123233067</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -5626,6 +6207,27 @@
       <c r="BK28" t="n">
         <v>-2.07134637514384</v>
       </c>
+      <c r="BL28" t="n">
+        <v>2.029701901548814</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>1.527536329299237</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.327218474478917</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>2.029701901548814</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.527536329299237</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>1.327218474478917</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -5817,6 +6419,27 @@
       <c r="BK29" t="n">
         <v>-1.48911798396334</v>
       </c>
+      <c r="BL29" t="n">
+        <v>2.03802255317953</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>1.367335808390227</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.193275585545798</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>2.03802255317953</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.367335808390227</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>1.193275585545798</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -6008,6 +6631,27 @@
       <c r="BK30" t="n">
         <v>-1.25570776255708</v>
       </c>
+      <c r="BL30" t="n">
+        <v>2.171514850975041</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>1.358846704285121</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.197005883033497</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>2.171514850975041</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.358846704285121</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>1.197005883033497</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -6199,6 +6843,27 @@
       <c r="BK31" t="n">
         <v>-1.14025085518815</v>
       </c>
+      <c r="BL31" t="n">
+        <v>2.265105807278183</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>1.171454285620103</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.049219410092638</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>2.265105807278183</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.171454285620103</v>
+      </c>
+      <c r="BQ31" t="n">
+        <v>1.049219410092638</v>
+      </c>
+      <c r="BR31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -6390,6 +7055,27 @@
       <c r="BK32" t="n">
         <v>-1.13895216400911</v>
       </c>
+      <c r="BL32" t="n">
+        <v>2.484260026402902</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>1.10215180162336</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.008592210717592</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>2.484260026402902</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.10215180162336</v>
+      </c>
+      <c r="BQ32" t="n">
+        <v>1.008592210717592</v>
+      </c>
+      <c r="BR32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -6581,6 +7267,27 @@
       <c r="BK33" t="n">
         <v>-1.25570776255708</v>
       </c>
+      <c r="BL33" t="n">
+        <v>1.656349121674096</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>0.9565421438781344</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>0.9088940270936701</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>1.656349121674096</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>0.9565421438781344</v>
+      </c>
+      <c r="BQ33" t="n">
+        <v>0.9088940270936701</v>
+      </c>
+      <c r="BR33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -6772,6 +7479,27 @@
       <c r="BK34" t="n">
         <v>-1.25570776255708</v>
       </c>
+      <c r="BL34" t="n">
+        <v>2.315168650488671</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>1.027409087615829</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>0.9888874560415329</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>2.315168650488671</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.027409087615829</v>
+      </c>
+      <c r="BQ34" t="n">
+        <v>0.9888874560415329</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -6963,6 +7691,27 @@
       <c r="BK35" t="n">
         <v>-1.25714285714286</v>
       </c>
+      <c r="BL35" t="n">
+        <v>2.217426000873501</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>0.9538059760529762</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>0.9424813365138037</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>2.217426000873501</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>0.9538059760529762</v>
+      </c>
+      <c r="BQ35" t="n">
+        <v>0.9424813365138037</v>
+      </c>
+      <c r="BR35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -7154,6 +7903,27 @@
       <c r="BK36" t="n">
         <v>-1.14547537227949</v>
       </c>
+      <c r="BL36" t="n">
+        <v>2.178768503701294</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>1.018016034709318</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.025410406827114</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>2.178768503701294</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.018016034709318</v>
+      </c>
+      <c r="BQ36" t="n">
+        <v>1.025410406827114</v>
+      </c>
+      <c r="BR36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -7345,6 +8115,27 @@
       <c r="BK37" t="n">
         <v>-1.13507377979568</v>
       </c>
+      <c r="BL37" t="n">
+        <v>2.152112317269628</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>1.068116082939318</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.098576376467414</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>2.152112317269628</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.068116082939318</v>
+      </c>
+      <c r="BQ37" t="n">
+        <v>1.098576376467414</v>
+      </c>
+      <c r="BR37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -7535,6 +8326,27 @@
       </c>
       <c r="BK38" t="n">
         <v>-1.02040816326531</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>2.197321013935519</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>0.9979093743752908</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.043456708506354</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>2.197321013935519</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>0.9979093743752908</v>
+      </c>
+      <c r="BQ38" t="n">
+        <v>1.043456708506354</v>
+      </c>
+      <c r="BR38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7709,6 +8521,13 @@
       <c r="BI39" t="inlineStr"/>
       <c r="BJ39" t="inlineStr"/>
       <c r="BK39" t="inlineStr"/>
+      <c r="BL39" t="inlineStr"/>
+      <c r="BM39" t="inlineStr"/>
+      <c r="BN39" t="inlineStr"/>
+      <c r="BO39" t="inlineStr"/>
+      <c r="BP39" t="inlineStr"/>
+      <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -7882,6 +8701,13 @@
       <c r="BI40" t="inlineStr"/>
       <c r="BJ40" t="inlineStr"/>
       <c r="BK40" t="inlineStr"/>
+      <c r="BL40" t="inlineStr"/>
+      <c r="BM40" t="inlineStr"/>
+      <c r="BN40" t="inlineStr"/>
+      <c r="BO40" t="inlineStr"/>
+      <c r="BP40" t="inlineStr"/>
+      <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -8055,6 +8881,13 @@
       <c r="BI41" t="inlineStr"/>
       <c r="BJ41" t="inlineStr"/>
       <c r="BK41" t="inlineStr"/>
+      <c r="BL41" t="inlineStr"/>
+      <c r="BM41" t="inlineStr"/>
+      <c r="BN41" t="inlineStr"/>
+      <c r="BO41" t="inlineStr"/>
+      <c r="BP41" t="inlineStr"/>
+      <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -8228,6 +9061,13 @@
       <c r="BI42" t="inlineStr"/>
       <c r="BJ42" t="inlineStr"/>
       <c r="BK42" t="inlineStr"/>
+      <c r="BL42" t="inlineStr"/>
+      <c r="BM42" t="inlineStr"/>
+      <c r="BN42" t="inlineStr"/>
+      <c r="BO42" t="inlineStr"/>
+      <c r="BP42" t="inlineStr"/>
+      <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -8401,6 +9241,13 @@
       <c r="BI43" t="inlineStr"/>
       <c r="BJ43" t="inlineStr"/>
       <c r="BK43" t="inlineStr"/>
+      <c r="BL43" t="inlineStr"/>
+      <c r="BM43" t="inlineStr"/>
+      <c r="BN43" t="inlineStr"/>
+      <c r="BO43" t="inlineStr"/>
+      <c r="BP43" t="inlineStr"/>
+      <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -8574,6 +9421,13 @@
       <c r="BI44" t="inlineStr"/>
       <c r="BJ44" t="inlineStr"/>
       <c r="BK44" t="inlineStr"/>
+      <c r="BL44" t="inlineStr"/>
+      <c r="BM44" t="inlineStr"/>
+      <c r="BN44" t="inlineStr"/>
+      <c r="BO44" t="inlineStr"/>
+      <c r="BP44" t="inlineStr"/>
+      <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -8747,6 +9601,13 @@
       <c r="BI45" t="inlineStr"/>
       <c r="BJ45" t="inlineStr"/>
       <c r="BK45" t="inlineStr"/>
+      <c r="BL45" t="inlineStr"/>
+      <c r="BM45" t="inlineStr"/>
+      <c r="BN45" t="inlineStr"/>
+      <c r="BO45" t="inlineStr"/>
+      <c r="BP45" t="inlineStr"/>
+      <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -8920,6 +9781,13 @@
       <c r="BI46" t="inlineStr"/>
       <c r="BJ46" t="inlineStr"/>
       <c r="BK46" t="inlineStr"/>
+      <c r="BL46" t="inlineStr"/>
+      <c r="BM46" t="inlineStr"/>
+      <c r="BN46" t="inlineStr"/>
+      <c r="BO46" t="inlineStr"/>
+      <c r="BP46" t="inlineStr"/>
+      <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -9093,6 +9961,13 @@
       <c r="BI47" t="inlineStr"/>
       <c r="BJ47" t="inlineStr"/>
       <c r="BK47" t="inlineStr"/>
+      <c r="BL47" t="inlineStr"/>
+      <c r="BM47" t="inlineStr"/>
+      <c r="BN47" t="inlineStr"/>
+      <c r="BO47" t="inlineStr"/>
+      <c r="BP47" t="inlineStr"/>
+      <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -9266,6 +10141,13 @@
       <c r="BI48" t="inlineStr"/>
       <c r="BJ48" t="inlineStr"/>
       <c r="BK48" t="inlineStr"/>
+      <c r="BL48" t="inlineStr"/>
+      <c r="BM48" t="inlineStr"/>
+      <c r="BN48" t="inlineStr"/>
+      <c r="BO48" t="inlineStr"/>
+      <c r="BP48" t="inlineStr"/>
+      <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -9439,6 +10321,13 @@
       <c r="BI49" t="inlineStr"/>
       <c r="BJ49" t="inlineStr"/>
       <c r="BK49" t="inlineStr"/>
+      <c r="BL49" t="inlineStr"/>
+      <c r="BM49" t="inlineStr"/>
+      <c r="BN49" t="inlineStr"/>
+      <c r="BO49" t="inlineStr"/>
+      <c r="BP49" t="inlineStr"/>
+      <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -9612,6 +10501,13 @@
       <c r="BI50" t="inlineStr"/>
       <c r="BJ50" t="inlineStr"/>
       <c r="BK50" t="inlineStr"/>
+      <c r="BL50" t="inlineStr"/>
+      <c r="BM50" t="inlineStr"/>
+      <c r="BN50" t="inlineStr"/>
+      <c r="BO50" t="inlineStr"/>
+      <c r="BP50" t="inlineStr"/>
+      <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -9803,6 +10699,27 @@
       <c r="BK51" t="n">
         <v>4.774655306156519</v>
       </c>
+      <c r="BL51" t="n">
+        <v>0.3446524787257563</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>0.4169377319634293</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>0.3770923473733533</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>0.3446524787257563</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>-0.4169377319634293</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>-0.3770923473733533</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -9994,6 +10911,27 @@
       <c r="BK52" t="n">
         <v>4.436739925388216</v>
       </c>
+      <c r="BL52" t="n">
+        <v>0.2241600151695922</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>0.4455238771533112</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>0.4095282426425036</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>0.2241600151695922</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>-0.4455238771533112</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>-0.4095282426425036</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -10185,6 +11123,27 @@
       <c r="BK53" t="n">
         <v>3.646411158837305</v>
       </c>
+      <c r="BL53" t="n">
+        <v>0.246199092164533</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>0.4491535456173941</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>0.4107818036861364</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>0.246199092164533</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>-0.4491535456173941</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>-0.4107818036861364</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -10376,6 +11335,27 @@
       <c r="BK54" t="n">
         <v>3.078397765618305</v>
       </c>
+      <c r="BL54" t="n">
+        <v>0.1790304378825975</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>0.4952833373846508</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>0.4547850709309104</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>0.1790304378825975</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>-0.4952833373846508</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>-0.4547850709309104</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>1.325</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -10567,6 +11547,27 @@
       <c r="BK55" t="n">
         <v>3.41921240768674</v>
       </c>
+      <c r="BL55" t="n">
+        <v>0.249468146514777</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>0.3878201013744501</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>0.3508216033820859</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>0.249468146514777</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>-0.3878201013744501</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>-0.3508216033820859</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>1.325</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -10758,6 +11759,27 @@
       <c r="BK56" t="n">
         <v>3.421677678265274</v>
       </c>
+      <c r="BL56" t="n">
+        <v>0.2605181324856738</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>0.4088265228927437</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>0.3773214464686657</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>0.2605181324856738</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>-0.4088265228927437</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>-0.3773214464686657</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>1.325</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -10949,6 +11971,27 @@
       <c r="BK57" t="n">
         <v>3.308674254312729</v>
       </c>
+      <c r="BL57" t="n">
+        <v>0.02859534742525027</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>0.685652727094416</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>0.6584849187156864</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>0.02859534742525027</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>-0.685652727094416</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>-0.6584849187156864</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -11140,6 +12183,27 @@
       <c r="BK58" t="n">
         <v>3.337819268179607</v>
       </c>
+      <c r="BL58" t="n">
+        <v>0.06578377562058724</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>0.6181453846839184</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>0.5931215520374084</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>-0.06578377562058724</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>-0.6181453846839184</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>-0.5931215520374084</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -11331,6 +12395,27 @@
       <c r="BK59" t="n">
         <v>3.145865181871314</v>
       </c>
+      <c r="BL59" t="n">
+        <v>0.07198863562926672</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>0.6027466982847024</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>0.5792246370129338</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>-0.07198863562926672</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>-0.6027466982847024</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>-0.5792246370129338</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -11522,6 +12607,27 @@
       <c r="BK60" t="n">
         <v>3.061273671465901</v>
       </c>
+      <c r="BL60" t="n">
+        <v>0.1067088766283444</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>0.6037624501821079</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>0.5833896367017983</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>-0.1067088766283444</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>-0.6037624501821079</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>-0.5833896367017983</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -11713,6 +12819,27 @@
       <c r="BK61" t="n">
         <v>2.719921193059677</v>
       </c>
+      <c r="BL61" t="n">
+        <v>0.1058933912126552</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>0.6524115398205497</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>0.6315283872379557</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>-0.1058933912126552</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>-0.6524115398205497</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>-0.6315283872379557</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -11904,6 +13031,27 @@
       <c r="BK62" t="n">
         <v>3.473673085387462</v>
       </c>
+      <c r="BL62" t="n">
+        <v>0.1508550888811402</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>0.6627004385779245</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>0.6494531740005961</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>-0.1508550888811402</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>-0.6627004385779245</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>-0.6494531740005961</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -12095,6 +13243,27 @@
       <c r="BK63" t="n">
         <v>3.232222157666658</v>
       </c>
+      <c r="BL63" t="n">
+        <v>0.1750875796522053</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>0.5816416875625493</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>0.5643908373517482</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>-0.1750875796522053</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>-0.5816416875625493</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>-0.5643908373517482</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -12286,6 +13455,27 @@
       <c r="BK64" t="n">
         <v>2.992782192236318</v>
       </c>
+      <c r="BL64" t="n">
+        <v>0.102050420716667</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>0.5974333969807331</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>0.5783069909406958</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>-0.102050420716667</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>-0.5974333969807331</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>-0.5783069909406958</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -12477,6 +13667,27 @@
       <c r="BK65" t="n">
         <v>3.414100476620548</v>
       </c>
+      <c r="BL65" t="n">
+        <v>0.1413950098474557</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>0.5988547591342954</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>0.5836028367590628</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>-0.1413950098474557</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>-0.5988547591342954</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>-0.5836028367590628</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -12668,6 +13879,27 @@
       <c r="BK66" t="n">
         <v>3.282192045278458</v>
       </c>
+      <c r="BL66" t="n">
+        <v>0.06229952838490282</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>0.5454062991640288</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>0.5327562900579607</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>-0.06229952838490282</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>-0.5454062991640288</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>-0.5327562900579607</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>1.475</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -12859,6 +14091,27 @@
       <c r="BK67" t="n">
         <v>3.232771598257778</v>
       </c>
+      <c r="BL67" t="n">
+        <v>0.1616721835763277</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>0.5979129687034905</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>0.5880410585600029</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>-0.1616721835763277</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>-0.5979129687034905</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>-0.5880410585600029</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>1.475</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -13050,6 +14303,27 @@
       <c r="BK68" t="n">
         <v>3.07694809163817</v>
       </c>
+      <c r="BL68" t="n">
+        <v>0.1079568380401006</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>0.5226930871018853</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>0.5107857292536346</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>-0.1079568380401006</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>-0.5226930871018853</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>-0.5107857292536346</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>1.475</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -13241,6 +14515,27 @@
       <c r="BK69" t="n">
         <v>3.138974816176511</v>
       </c>
+      <c r="BL69" t="n">
+        <v>0.179417498050978</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>0.5281938919903724</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>0.5163723661517148</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>-0.179417498050978</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>-0.5281938919903724</v>
+      </c>
+      <c r="BQ69" t="n">
+        <v>-0.5163723661517148</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -13432,6 +14727,27 @@
       <c r="BK70" t="n">
         <v>2.822138540218146</v>
       </c>
+      <c r="BL70" t="n">
+        <v>0.1877195905614411</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>0.5620570225677231</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>0.54899814249687</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>-0.1877195905614411</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>-0.5620570225677231</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>-0.54899814249687</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -13623,6 +14939,27 @@
       <c r="BK71" t="n">
         <v>2.839650346232032</v>
       </c>
+      <c r="BL71" t="n">
+        <v>0.07602723989737536</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>0.4972896244781546</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>0.4808742025269566</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>-0.07602723989737536</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>-0.4972896244781546</v>
+      </c>
+      <c r="BQ71" t="n">
+        <v>-0.4808742025269566</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -13814,6 +15151,27 @@
       <c r="BK72" t="n">
         <v>2.960802175708777</v>
       </c>
+      <c r="BL72" t="n">
+        <v>0.2732170979425037</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>0.6865007152206319</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>0.6690837127323856</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>-0.2732170979425037</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>-0.6865007152206319</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>-0.6690837127323856</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>1.775</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -14005,6 +15363,27 @@
       <c r="BK73" t="n">
         <v>3.204211341378239</v>
       </c>
+      <c r="BL73" t="n">
+        <v>0.312843906370188</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>0.5589471841518456</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>0.5427161048012368</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>-0.312843906370188</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>-0.5589471841518456</v>
+      </c>
+      <c r="BQ73" t="n">
+        <v>-0.5427161048012368</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>1.775</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -14196,6 +15575,27 @@
       <c r="BK74" t="n">
         <v>2.65437098358666</v>
       </c>
+      <c r="BL74" t="n">
+        <v>0.3479634452025528</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>0.6234560262427544</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>0.5974899988296645</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>-0.3479634452025528</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>-0.6234560262427544</v>
+      </c>
+      <c r="BQ74" t="n">
+        <v>-0.5974899988296645</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>1.775</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -14387,6 +15787,27 @@
       <c r="BK75" t="n">
         <v>2.561082017492102</v>
       </c>
+      <c r="BL75" t="n">
+        <v>0.3087568891647343</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>0.6465432643353011</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>0.6241265268555223</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>-0.3087568891647343</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>-0.6465432643353011</v>
+      </c>
+      <c r="BQ75" t="n">
+        <v>-0.6241265268555223</v>
+      </c>
+      <c r="BR75" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -14578,6 +15999,27 @@
       <c r="BK76" t="n">
         <v>3.11456214198418</v>
       </c>
+      <c r="BL76" t="n">
+        <v>0.2844066097630416</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>0.5928528836825515</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>0.5698678618859667</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>-0.2844066097630416</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>-0.5928528836825515</v>
+      </c>
+      <c r="BQ76" t="n">
+        <v>-0.5698678618859667</v>
+      </c>
+      <c r="BR76" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -14769,6 +16211,27 @@
       <c r="BK77" t="n">
         <v>2.679625291546059</v>
       </c>
+      <c r="BL77" t="n">
+        <v>0.3249427992502649</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>0.5516892995767193</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>0.5178208566512783</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>-0.3249427992502649</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>-0.5516892995767193</v>
+      </c>
+      <c r="BQ77" t="n">
+        <v>-0.5178208566512783</v>
+      </c>
+      <c r="BR77" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -14960,6 +16423,27 @@
       <c r="BK78" t="n">
         <v>3.012395693772257</v>
       </c>
+      <c r="BL78" t="n">
+        <v>0.4695126028006187</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>0.6550197473571542</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>0.6120934657457393</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>-0.4695126028006187</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>-0.6550197473571542</v>
+      </c>
+      <c r="BQ78" t="n">
+        <v>-0.6120934657457393</v>
+      </c>
+      <c r="BR78" t="n">
+        <v>1.875</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -15151,6 +16635,27 @@
       <c r="BK79" t="n">
         <v>2.971521077382226</v>
       </c>
+      <c r="BL79" t="n">
+        <v>0.4498691038113263</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>0.5373254700808057</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>0.4720321118507584</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>-0.4498691038113263</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>-0.5373254700808057</v>
+      </c>
+      <c r="BQ79" t="n">
+        <v>-0.4720321118507584</v>
+      </c>
+      <c r="BR79" t="n">
+        <v>1.875</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -15342,6 +16847,27 @@
       <c r="BK80" t="n">
         <v>3.045056139121195</v>
       </c>
+      <c r="BL80" t="n">
+        <v>0.4448270867309885</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>0.4104433875257618</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>0.3263951783918129</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>-0.4448270867309885</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>-0.4104433875257618</v>
+      </c>
+      <c r="BQ80" t="n">
+        <v>-0.3263951783918129</v>
+      </c>
+      <c r="BR80" t="n">
+        <v>1.875</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -15533,6 +17059,27 @@
       <c r="BK81" t="n">
         <v>3.435895774843905</v>
       </c>
+      <c r="BL81" t="n">
+        <v>0.6499643146948617</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>0.6111259845451051</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>0.5236595888839861</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>-0.6499643146948617</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>-0.6111259845451051</v>
+      </c>
+      <c r="BQ81" t="n">
+        <v>-0.5236595888839861</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -15724,6 +17271,27 @@
       <c r="BK82" t="n">
         <v>3.953522583416146</v>
       </c>
+      <c r="BL82" t="n">
+        <v>0.6716957427553563</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>0.6713652509662755</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>0.5857728641402833</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>-0.6716957427553563</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>-0.6713652509662755</v>
+      </c>
+      <c r="BQ82" t="n">
+        <v>-0.5857728641402833</v>
+      </c>
+      <c r="BR82" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -15915,6 +17483,27 @@
       <c r="BK83" t="n">
         <v>4.040112414730617</v>
       </c>
+      <c r="BL83" t="n">
+        <v>0.637538172831958</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>0.4769933552732193</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>0.3749187667538079</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>-0.637538172831958</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>-0.4769933552732193</v>
+      </c>
+      <c r="BQ83" t="n">
+        <v>-0.3749187667538079</v>
+      </c>
+      <c r="BR83" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -16106,6 +17695,27 @@
       <c r="BK84" t="n">
         <v>3.798440368619389</v>
       </c>
+      <c r="BL84" t="n">
+        <v>0.6833064589755717</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>0.4819880882572714</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>0.3652490865259099</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>-0.6833064589755717</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>-0.4819880882572714</v>
+      </c>
+      <c r="BQ84" t="n">
+        <v>-0.3652490865259099</v>
+      </c>
+      <c r="BR84" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -16297,6 +17907,27 @@
       <c r="BK85" t="n">
         <v>3.582298328757231</v>
       </c>
+      <c r="BL85" t="n">
+        <v>0.7147053866540101</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>0.4626385583175381</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>0.3454390114405148</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>-0.7147053866540101</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>-0.4626385583175381</v>
+      </c>
+      <c r="BQ85" t="n">
+        <v>-0.3454390114405148</v>
+      </c>
+      <c r="BR85" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -16488,6 +18119,27 @@
       <c r="BK86" t="n">
         <v>3.028926782215884</v>
       </c>
+      <c r="BL86" t="n">
+        <v>0.6541240296901865</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>0.5457798775285962</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>0.4286663296874695</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>-0.6541240296901865</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>-0.5457798775285962</v>
+      </c>
+      <c r="BQ86" t="n">
+        <v>-0.4286663296874695</v>
+      </c>
+      <c r="BR86" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -16679,6 +18331,27 @@
       <c r="BK87" t="n">
         <v>2.809626673538378</v>
       </c>
+      <c r="BL87" t="n">
+        <v>0.6531059077624077</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>0.8597024655646215</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>0.7543237955234237</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>-0.6531059077624077</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>-0.8597024655646215</v>
+      </c>
+      <c r="BQ87" t="n">
+        <v>-0.7543237955234237</v>
+      </c>
+      <c r="BR87" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -16870,6 +18543,27 @@
       <c r="BK88" t="n">
         <v>2.677532398658397</v>
       </c>
+      <c r="BL88" t="n">
+        <v>0.626357790395961</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>1.070378693616266</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>0.9782258603229266</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>-0.626357790395961</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>-1.070378693616266</v>
+      </c>
+      <c r="BQ88" t="n">
+        <v>-0.9782258603229266</v>
+      </c>
+      <c r="BR88" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -17061,6 +18755,27 @@
       <c r="BK89" t="n">
         <v>2.552279394886598</v>
       </c>
+      <c r="BL89" t="n">
+        <v>0.6525079105374216</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>1.143966323657378</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.054943769786292</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>-0.6525079105374216</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>-1.143966323657378</v>
+      </c>
+      <c r="BQ89" t="n">
+        <v>-1.054943769786292</v>
+      </c>
+      <c r="BR89" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -17252,6 +18967,27 @@
       <c r="BK90" t="n">
         <v>2.634088863322138</v>
       </c>
+      <c r="BL90" t="n">
+        <v>0.1228668783702915</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>0.7190775702824512</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>0.6441552324308717</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>-0.1228668783702915</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>-0.7190775702824512</v>
+      </c>
+      <c r="BQ90" t="n">
+        <v>-0.6441552324308717</v>
+      </c>
+      <c r="BR90" t="n">
+        <v>1.725</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -17443,6 +19179,27 @@
       <c r="BK91" t="n">
         <v>3.135719125512201</v>
       </c>
+      <c r="BL91" t="n">
+        <v>0.07555039191765567</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>0.6414786546839584</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>0.5802319120630901</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>-0.07555039191765567</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>-0.6414786546839584</v>
+      </c>
+      <c r="BQ91" t="n">
+        <v>-0.5802319120630901</v>
+      </c>
+      <c r="BR91" t="n">
+        <v>1.725</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -17634,6 +19391,27 @@
       <c r="BK92" t="n">
         <v>3.322228595291135</v>
       </c>
+      <c r="BL92" t="n">
+        <v>0.09459997239929741</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>0.6261990526313177</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>0.5845594595491836</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>-0.09459997239929741</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>-0.6261990526313177</v>
+      </c>
+      <c r="BQ92" t="n">
+        <v>-0.5845594595491836</v>
+      </c>
+      <c r="BR92" t="n">
+        <v>1.725</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -17825,6 +19603,27 @@
       <c r="BK93" t="n">
         <v>3.496125926331528</v>
       </c>
+      <c r="BL93" t="n">
+        <v>0.1722231685725684</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>0.7144972970053722</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>0.7000272085033838</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>-0.1722231685725684</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>-0.7144972970053722</v>
+      </c>
+      <c r="BQ93" t="n">
+        <v>-0.7000272085033838</v>
+      </c>
+      <c r="BR93" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -18016,6 +19815,27 @@
       <c r="BK94" t="n">
         <v>3.397730026096146</v>
       </c>
+      <c r="BL94" t="n">
+        <v>0.04940485349585821</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>0.2617331755690679</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>0.2473613965151125</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>0.04940485349585821</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>-0.2617331755690679</v>
+      </c>
+      <c r="BQ94" t="n">
+        <v>-0.2473613965151125</v>
+      </c>
+      <c r="BR94" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -18207,6 +20027,27 @@
       <c r="BK95" t="n">
         <v>3.735048060044393</v>
       </c>
+      <c r="BL95" t="n">
+        <v>0.235890861119664</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>0.2422402147406673</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>0.2600099330294321</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>0.235890861119664</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>-0.2422402147406673</v>
+      </c>
+      <c r="BQ95" t="n">
+        <v>-0.2600099330294321</v>
+      </c>
+      <c r="BR95" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -18398,6 +20239,27 @@
       <c r="BK96" t="n">
         <v>3.644001831422661</v>
       </c>
+      <c r="BL96" t="n">
+        <v>0.09870872282092225</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>0.2482506036643681</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>0.2893077598603906</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>0.09870872282092225</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>-0.2482506036643681</v>
+      </c>
+      <c r="BQ96" t="n">
+        <v>-0.2893077598603906</v>
+      </c>
+      <c r="BR96" t="n">
+        <v>1.775</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -18589,6 +20451,27 @@
       <c r="BK97" t="n">
         <v>3.851948019661052</v>
       </c>
+      <c r="BL97" t="n">
+        <v>0.1066573776479491</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>0.08450440345808707</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>0.16993620712216</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>0.1066573776479491</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>-0.08450440345808707</v>
+      </c>
+      <c r="BQ97" t="n">
+        <v>-0.16993620712216</v>
+      </c>
+      <c r="BR97" t="n">
+        <v>1.775</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -18780,6 +20663,27 @@
       <c r="BK98" t="n">
         <v>4.246710357442234</v>
       </c>
+      <c r="BL98" t="n">
+        <v>0.7202279291567311</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>0.3102878652874712</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>0.4180562222999278</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>0.7202279291567311</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>-0.3102878652874712</v>
+      </c>
+      <c r="BQ98" t="n">
+        <v>-0.4180562222999278</v>
+      </c>
+      <c r="BR98" t="n">
+        <v>1.775</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -18971,6 +20875,27 @@
       <c r="BK99" t="n">
         <v>4.336674877775645</v>
       </c>
+      <c r="BL99" t="n">
+        <v>0.2151097333138958</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>0.6520471643929193</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>0.7927658245582458</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>0.2151097333138958</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>-0.6520471643929193</v>
+      </c>
+      <c r="BQ99" t="n">
+        <v>-0.7927658245582458</v>
+      </c>
+      <c r="BR99" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -19162,6 +21087,27 @@
       <c r="BK100" t="n">
         <v>4.437887116113404</v>
       </c>
+      <c r="BL100" t="n">
+        <v>0.1326077100639216</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>0.6755496641022631</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>0.8317074360447991</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>0.1326077100639216</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>-0.6755496641022631</v>
+      </c>
+      <c r="BQ100" t="n">
+        <v>-0.8317074360447991</v>
+      </c>
+      <c r="BR100" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -19353,6 +21299,27 @@
       <c r="BK101" t="n">
         <v>5.595055222160332</v>
       </c>
+      <c r="BL101" t="n">
+        <v>0.3069645664649063</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>0.6004211708093328</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>0.7929188133382694</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>-0.3069645664649063</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>-0.6004211708093328</v>
+      </c>
+      <c r="BQ101" t="n">
+        <v>-0.7929188133382694</v>
+      </c>
+      <c r="BR101" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -19544,6 +21511,27 @@
       <c r="BK102" t="n">
         <v>5.378799769595512</v>
       </c>
+      <c r="BL102" t="n">
+        <v>0.4313380035908503</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>0.7295897640796825</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>0.9396014410524818</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>-0.4313380035908503</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>-0.7295897640796825</v>
+      </c>
+      <c r="BQ102" t="n">
+        <v>-0.9396014410524818</v>
+      </c>
+      <c r="BR102" t="n">
+        <v>2.325</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -19735,6 +21723,27 @@
       <c r="BK103" t="n">
         <v>5.192741121954437</v>
       </c>
+      <c r="BL103" t="n">
+        <v>0.4305553458740301</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>0.5673390910592766</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>0.8299078378078069</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>-0.4305553458740301</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>-0.5673390910592766</v>
+      </c>
+      <c r="BQ103" t="n">
+        <v>-0.8299078378078069</v>
+      </c>
+      <c r="BR103" t="n">
+        <v>2.325</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -19926,6 +21935,27 @@
       <c r="BK104" t="n">
         <v>5.128409766157532</v>
       </c>
+      <c r="BL104" t="n">
+        <v>0.4299580287399716</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>0.3235788487098654</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>0.649268716288252</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>-0.4299580287399716</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>-0.3235788487098654</v>
+      </c>
+      <c r="BQ104" t="n">
+        <v>-0.649268716288252</v>
+      </c>
+      <c r="BR104" t="n">
+        <v>2.325</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -20117,6 +22147,27 @@
       <c r="BK105" t="n">
         <v>5.355565384578359</v>
       </c>
+      <c r="BL105" t="n">
+        <v>0.1494100054544121</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>0.5473281559976395</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>0.897704640200468</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>0.1494100054544121</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>-0.5473281559976395</v>
+      </c>
+      <c r="BQ105" t="n">
+        <v>-0.897704640200468</v>
+      </c>
+      <c r="BR105" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -20308,6 +22359,27 @@
       <c r="BK106" t="n">
         <v>5.105322100209646</v>
       </c>
+      <c r="BL106" t="n">
+        <v>0.1125167273004055</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>0.6988126078182479</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.029792648533052</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>0.1125167273004055</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>-0.6988126078182479</v>
+      </c>
+      <c r="BQ106" t="n">
+        <v>-1.029792648533052</v>
+      </c>
+      <c r="BR106" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -20499,6 +22571,27 @@
       <c r="BK107" t="n">
         <v>4.957283067422724</v>
       </c>
+      <c r="BL107" t="n">
+        <v>0.08849377273253056</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>0.7667715770265648</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.092680297755599</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>-0.08849377273253056</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>-0.7667715770265648</v>
+      </c>
+      <c r="BQ107" t="n">
+        <v>-1.092680297755599</v>
+      </c>
+      <c r="BR107" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -20690,6 +22783,27 @@
       <c r="BK108" t="n">
         <v>5.431492968395762</v>
       </c>
+      <c r="BL108" t="n">
+        <v>0.2835831421703183</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>0.2602548194008265</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>0.6088838816673401</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>0.2835831421703183</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>-0.2602548194008265</v>
+      </c>
+      <c r="BQ108" t="n">
+        <v>-0.6088838816673401</v>
+      </c>
+      <c r="BR108" t="n">
+        <v>2.125</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -20881,6 +22995,27 @@
       <c r="BK109" t="n">
         <v>4.883381190274463</v>
       </c>
+      <c r="BL109" t="n">
+        <v>0.1065514719342593</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>0.6379341439440587</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>0.9098876139779313</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>0.1065514719342593</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>-0.6379341439440587</v>
+      </c>
+      <c r="BQ109" t="n">
+        <v>-0.9098876139779313</v>
+      </c>
+      <c r="BR109" t="n">
+        <v>2.125</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -21072,6 +23207,27 @@
       <c r="BK110" t="n">
         <v>4.324210016413389</v>
       </c>
+      <c r="BL110" t="n">
+        <v>0.2152182761912893</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>0.8020789608863717</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.040655901745803</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>-0.2152182761912893</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>-0.8020789608863717</v>
+      </c>
+      <c r="BQ110" t="n">
+        <v>-1.040655901745803</v>
+      </c>
+      <c r="BR110" t="n">
+        <v>2.125</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -21263,6 +23419,27 @@
       <c r="BK111" t="n">
         <v>3.362448148816594</v>
       </c>
+      <c r="BL111" t="n">
+        <v>1.047778748638951</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>0.5796142810416407</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>0.3317794386270241</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>1.047778748638951</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>0.5796142810416407</v>
+      </c>
+      <c r="BQ111" t="n">
+        <v>0.3317794386270241</v>
+      </c>
+      <c r="BR111" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -21454,6 +23631,27 @@
       <c r="BK112" t="n">
         <v>3.702503619697749</v>
       </c>
+      <c r="BL112" t="n">
+        <v>0.8309973430678808</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>0.3229161409421817</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>0.1126386067979185</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>0.8309973430678808</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>0.3229161409421817</v>
+      </c>
+      <c r="BQ112" t="n">
+        <v>0.1126386067979185</v>
+      </c>
+      <c r="BR112" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -21645,6 +23843,27 @@
       <c r="BK113" t="n">
         <v>3.018092318381604</v>
       </c>
+      <c r="BL113" t="n">
+        <v>0.6441854010532626</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>0.3420397326592799</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>0.1269849129107302</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>0.6441854010532626</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>0.3420397326592799</v>
+      </c>
+      <c r="BQ113" t="n">
+        <v>0.1269849129107302</v>
+      </c>
+      <c r="BR113" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -21836,6 +24055,27 @@
       <c r="BK114" t="n">
         <v>3.353878606462343</v>
       </c>
+      <c r="BL114" t="n">
+        <v>0.722944334268564</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>0.6088831242256783</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>0.3864800292424573</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>0.722944334268564</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>0.6088831242256783</v>
+      </c>
+      <c r="BQ114" t="n">
+        <v>0.3864800292424573</v>
+      </c>
+      <c r="BR114" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -22027,6 +24267,27 @@
       <c r="BK115" t="n">
         <v>3.12440477661558</v>
       </c>
+      <c r="BL115" t="n">
+        <v>0.622254588134338</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>0.4502227387266875</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>0.2606334030967925</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>0.622254588134338</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>0.4502227387266875</v>
+      </c>
+      <c r="BQ115" t="n">
+        <v>0.2606334030967925</v>
+      </c>
+      <c r="BR115" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -22218,6 +24479,27 @@
       <c r="BK116" t="n">
         <v>3.599667978743638</v>
       </c>
+      <c r="BL116" t="n">
+        <v>0.566274437540689</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>0.5073051431126181</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>0.3024534848085052</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>0.566274437540689</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>0.5073051431126181</v>
+      </c>
+      <c r="BQ116" t="n">
+        <v>0.3024534848085052</v>
+      </c>
+      <c r="BR116" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -22409,6 +24691,27 @@
       <c r="BK117" t="n">
         <v>2.968793820663183</v>
       </c>
+      <c r="BL117" t="n">
+        <v>0.169940158325296</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>0.2489962847057179</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>0.05570934161483787</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>0.169940158325296</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>0.2489962847057179</v>
+      </c>
+      <c r="BQ117" t="n">
+        <v>0.05570934161483787</v>
+      </c>
+      <c r="BR117" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -22600,6 +24903,27 @@
       <c r="BK118" t="n">
         <v>3.190406397910634</v>
       </c>
+      <c r="BL118" t="n">
+        <v>0.1184772839061273</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>0.05702173352854478</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>0.1019100697473245</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>-0.1184772839061273</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>0.05702173352854478</v>
+      </c>
+      <c r="BQ118" t="n">
+        <v>-0.1019100697473245</v>
+      </c>
+      <c r="BR118" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -22791,6 +25115,27 @@
       <c r="BK119" t="n">
         <v>3.008386280909882</v>
       </c>
+      <c r="BL119" t="n">
+        <v>0.09365363254396231</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>0.1271405260245888</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>0.04900060066864909</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>-0.09365363254396231</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>0.1271405260245888</v>
+      </c>
+      <c r="BQ119" t="n">
+        <v>-0.04900060066864909</v>
+      </c>
+      <c r="BR119" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -22982,6 +25327,27 @@
       <c r="BK120" t="n">
         <v>2.6216784459926</v>
       </c>
+      <c r="BL120" t="n">
+        <v>0.2566200535836649</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>0.07942636193457264</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>0.1036241909008236</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>-0.2566200535836649</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>0.07942636193457264</v>
+      </c>
+      <c r="BQ120" t="n">
+        <v>-0.1036241909008236</v>
+      </c>
+      <c r="BR120" t="n">
+        <v>0.825</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -23173,6 +25539,27 @@
       <c r="BK121" t="n">
         <v>2.243507541279787</v>
       </c>
+      <c r="BL121" t="n">
+        <v>0.1385739058227677</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>0.2164823042146353</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>0.004723898188808473</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>-0.1385739058227677</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>0.2164823042146353</v>
+      </c>
+      <c r="BQ121" t="n">
+        <v>0.004723898188808473</v>
+      </c>
+      <c r="BR121" t="n">
+        <v>0.825</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -23364,6 +25751,27 @@
       <c r="BK122" t="n">
         <v>2.366159971331114</v>
       </c>
+      <c r="BL122" t="n">
+        <v>0.01047861287929541</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>0.3075553733946677</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>0.07745131922660298</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>-0.01047861287929541</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>0.3075553733946677</v>
+      </c>
+      <c r="BQ122" t="n">
+        <v>0.07745131922660298</v>
+      </c>
+      <c r="BR122" t="n">
+        <v>0.825</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -23555,6 +25963,27 @@
       <c r="BK123" t="n">
         <v>2.597746226441828</v>
       </c>
+      <c r="BL123" t="n">
+        <v>0.1882562290648451</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>0.2021583558030162</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>0.04762159738228922</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>-0.1882562290648451</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>0.2021583558030162</v>
+      </c>
+      <c r="BQ123" t="n">
+        <v>-0.04762159738228922</v>
+      </c>
+      <c r="BR123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -23746,6 +26175,27 @@
       <c r="BK124" t="n">
         <v>2.000304886435393</v>
       </c>
+      <c r="BL124" t="n">
+        <v>0.1615013821669484</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>0.1748478273896794</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>0.06805768557000891</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>-0.1615013821669484</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>0.1748478273896794</v>
+      </c>
+      <c r="BQ124" t="n">
+        <v>-0.06805768557000891</v>
+      </c>
+      <c r="BR124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -23937,6 +26387,27 @@
       <c r="BK125" t="n">
         <v>2.114338416990828</v>
       </c>
+      <c r="BL125" t="n">
+        <v>0.03282151483747631</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>0.1854122613787603</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>0.06114120730546679</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>-0.03282151483747631</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>0.1854122613787603</v>
+      </c>
+      <c r="BQ125" t="n">
+        <v>-0.06114120730546679</v>
+      </c>
+      <c r="BR125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -24128,6 +26599,27 @@
       <c r="BK126" t="n">
         <v>2.225910802867903</v>
       </c>
+      <c r="BL126" t="n">
+        <v>0.01442673121511762</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>0.1446194807676053</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>0.1194809512570816</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>-0.01442673121511762</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>0.1446194807676053</v>
+      </c>
+      <c r="BQ126" t="n">
+        <v>-0.1194809512570816</v>
+      </c>
+      <c r="BR126" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -24319,6 +26811,27 @@
       <c r="BK127" t="n">
         <v>2.555405482641997</v>
       </c>
+      <c r="BL127" t="n">
+        <v>0.006026933325793404</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>0.3045966431268536</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>0.001268909224958925</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>0.006026933325793404</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>0.3045966431268536</v>
+      </c>
+      <c r="BQ127" t="n">
+        <v>-0.001268909224958925</v>
+      </c>
+      <c r="BR127" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -24510,6 +27023,27 @@
       <c r="BK128" t="n">
         <v>2.376165398362204</v>
       </c>
+      <c r="BL128" t="n">
+        <v>0.01163442614375487</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>0.4382369741332766</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>0.100897213856791</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>0.01163442614375487</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>0.4382369741332766</v>
+      </c>
+      <c r="BQ128" t="n">
+        <v>0.100897213856791</v>
+      </c>
+      <c r="BR128" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -24701,6 +27235,27 @@
       <c r="BK129" t="n">
         <v>2.50199211108468</v>
       </c>
+      <c r="BL129" t="n">
+        <v>0.09346311810311847</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>0.1140335016102454</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>0.1877597470144752</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>-0.09346311810311847</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>0.1140335016102454</v>
+      </c>
+      <c r="BQ129" t="n">
+        <v>-0.1877597470144752</v>
+      </c>
+      <c r="BR129" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -24892,6 +27447,27 @@
       <c r="BK130" t="n">
         <v>2.367814886642944</v>
       </c>
+      <c r="BL130" t="n">
+        <v>0.1564604973755266</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>0.1029084424448168</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>0.1974454780893271</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>-0.1564604973755266</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>0.1029084424448168</v>
+      </c>
+      <c r="BQ130" t="n">
+        <v>-0.1974454780893271</v>
+      </c>
+      <c r="BR130" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -25083,6 +27659,27 @@
       <c r="BK131" t="n">
         <v>2.337807726456389</v>
       </c>
+      <c r="BL131" t="n">
+        <v>0.1429772447957309</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>0.1230048037904172</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>0.1810072256326949</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>-0.1429772447957309</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>0.1230048037904172</v>
+      </c>
+      <c r="BQ131" t="n">
+        <v>-0.1810072256326949</v>
+      </c>
+      <c r="BR131" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -25274,6 +27871,27 @@
       <c r="BK132" t="n">
         <v>2.205153226913433</v>
       </c>
+      <c r="BL132" t="n">
+        <v>0.2540439549882825</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>0.0597380950084565</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>0.3564052604501249</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>-0.2540439549882825</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>-0.0597380950084565</v>
+      </c>
+      <c r="BQ132" t="n">
+        <v>-0.3564052604501249</v>
+      </c>
+      <c r="BR132" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -25465,6 +28083,27 @@
       <c r="BK133" t="n">
         <v>2.649866169752237</v>
       </c>
+      <c r="BL133" t="n">
+        <v>0.2688586522137568</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>0.02576358034596415</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>0.3330235500940661</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>-0.2688586522137568</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>-0.02576358034596415</v>
+      </c>
+      <c r="BQ133" t="n">
+        <v>-0.3330235500940661</v>
+      </c>
+      <c r="BR133" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -25656,6 +28295,27 @@
       <c r="BK134" t="n">
         <v>2.469630539005873</v>
       </c>
+      <c r="BL134" t="n">
+        <v>0.1113075403294577</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>0.03926511870978011</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>0.2851572006693479</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>-0.1113075403294577</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>0.03926511870978011</v>
+      </c>
+      <c r="BQ134" t="n">
+        <v>-0.2851572006693479</v>
+      </c>
+      <c r="BR134" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -25847,6 +28507,27 @@
       <c r="BK135" t="n">
         <v>2.507048646191548</v>
       </c>
+      <c r="BL135" t="n">
+        <v>0.4464370120913321</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>0.1654880289887981</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>0.5324072189173705</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>-0.4464370120913321</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>-0.1654880289887981</v>
+      </c>
+      <c r="BQ135" t="n">
+        <v>-0.5324072189173705</v>
+      </c>
+      <c r="BR135" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -26038,6 +28719,27 @@
       <c r="BK136" t="n">
         <v>2.667699497851197</v>
       </c>
+      <c r="BL136" t="n">
+        <v>0.3524054175479425</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>0.09381751609693945</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>0.4759003749149771</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>-0.3524054175479425</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>-0.09381751609693945</v>
+      </c>
+      <c r="BQ136" t="n">
+        <v>-0.4759003749149771</v>
+      </c>
+      <c r="BR136" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -26229,6 +28931,27 @@
       <c r="BK137" t="n">
         <v>3.020885540637595</v>
       </c>
+      <c r="BL137" t="n">
+        <v>0.1648951475275178</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>0.06015989566481883</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>0.4556545135849475</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>-0.1648951475275178</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>-0.06015989566481883</v>
+      </c>
+      <c r="BQ137" t="n">
+        <v>-0.4556545135849475</v>
+      </c>
+      <c r="BR137" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -26420,6 +29143,27 @@
       <c r="BK138" t="n">
         <v>3.170067579420014</v>
       </c>
+      <c r="BL138" t="n">
+        <v>0.5650707113117668</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>0.411333364244916</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>0.8177394220463223</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>-0.5650707113117668</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>-0.411333364244916</v>
+      </c>
+      <c r="BQ138" t="n">
+        <v>-0.8177394220463223</v>
+      </c>
+      <c r="BR138" t="n">
+        <v>2.225</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -26611,6 +29355,27 @@
       <c r="BK139" t="n">
         <v>3.0226030009812</v>
       </c>
+      <c r="BL139" t="n">
+        <v>0.4080249362946133</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>0.409740157525796</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>0.8142275551052931</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>-0.4080249362946133</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>-0.409740157525796</v>
+      </c>
+      <c r="BQ139" t="n">
+        <v>-0.8142275551052931</v>
+      </c>
+      <c r="BR139" t="n">
+        <v>2.225</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -26802,6 +29567,27 @@
       <c r="BK140" t="n">
         <v>2.979438526842485</v>
       </c>
+      <c r="BL140" t="n">
+        <v>0.4516599927973428</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>0.4836535145862386</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>0.8675906880609117</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>-0.4516599927973428</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>-0.4836535145862386</v>
+      </c>
+      <c r="BQ140" t="n">
+        <v>-0.8675906880609117</v>
+      </c>
+      <c r="BR140" t="n">
+        <v>2.225</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -26993,6 +29779,27 @@
       <c r="BK141" t="n">
         <v>2.934167763172341</v>
       </c>
+      <c r="BL141" t="n">
+        <v>0.435773665243246</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>0.4042590186328083</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>0.7858210733345989</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>-0.435773665243246</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>-0.4042590186328083</v>
+      </c>
+      <c r="BQ141" t="n">
+        <v>-0.7858210733345989</v>
+      </c>
+      <c r="BR141" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -27184,6 +29991,27 @@
       <c r="BK142" t="n">
         <v>2.647938616135124</v>
       </c>
+      <c r="BL142" t="n">
+        <v>0.4519656759070934</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>0.4036274097488532</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>0.7852278273605193</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>-0.4519656759070934</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>-0.4036274097488532</v>
+      </c>
+      <c r="BQ142" t="n">
+        <v>-0.7852278273605193</v>
+      </c>
+      <c r="BR142" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -27375,6 +30203,27 @@
       <c r="BK143" t="n">
         <v>2.765696699432437</v>
       </c>
+      <c r="BL143" t="n">
+        <v>0.4930146856420363</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>0.4102939484931858</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>0.8001375205887784</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>-0.4930146856420363</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>-0.4102939484931858</v>
+      </c>
+      <c r="BQ143" t="n">
+        <v>-0.8001375205887784</v>
+      </c>
+      <c r="BR143" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -27566,6 +30415,27 @@
       <c r="BK144" t="n">
         <v>2.68384921300696</v>
       </c>
+      <c r="BL144" t="n">
+        <v>0.1291099948210981</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>0.1215006514689898</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>0.3472654145796628</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>-0.1291099948210981</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>0.1215006514689898</v>
+      </c>
+      <c r="BQ144" t="n">
+        <v>-0.3472654145796628</v>
+      </c>
+      <c r="BR144" t="n">
+        <v>1.925</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -27757,6 +30627,27 @@
       <c r="BK145" t="n">
         <v>3.114488266755033</v>
       </c>
+      <c r="BL145" t="n">
+        <v>0.2854683899752604</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>0.09740237110345262</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>0.5228337009104218</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>-0.2854683899752604</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>-0.09740237110345262</v>
+      </c>
+      <c r="BQ145" t="n">
+        <v>-0.5228337009104218</v>
+      </c>
+      <c r="BR145" t="n">
+        <v>1.925</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -27948,6 +30839,27 @@
       <c r="BK146" t="n">
         <v>3.031224710412144</v>
       </c>
+      <c r="BL146" t="n">
+        <v>0.2747513485179733</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>0.1238451845964523</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>0.5449836979017044</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>-0.2747513485179733</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>-0.1238451845964523</v>
+      </c>
+      <c r="BQ146" t="n">
+        <v>-0.5449836979017044</v>
+      </c>
+      <c r="BR146" t="n">
+        <v>1.925</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -28139,6 +31051,27 @@
       <c r="BK147" t="n">
         <v>2.964837939850527</v>
       </c>
+      <c r="BL147" t="n">
+        <v>0.2694338232752869</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>0.05528973143884319</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>0.4625689333558616</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>-0.2694338232752869</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>-0.05528973143884319</v>
+      </c>
+      <c r="BQ147" t="n">
+        <v>-0.4625689333558616</v>
+      </c>
+      <c r="BR147" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -28330,6 +31263,27 @@
       <c r="BK148" t="n">
         <v>3.031167301280903</v>
       </c>
+      <c r="BL148" t="n">
+        <v>0.05688922660713214</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>0.00131289818439706</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>0.4239447869577497</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>-0.05688922660713214</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>-0.00131289818439706</v>
+      </c>
+      <c r="BQ148" t="n">
+        <v>-0.4239447869577497</v>
+      </c>
+      <c r="BR148" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -28521,6 +31475,27 @@
       <c r="BK149" t="n">
         <v>3.280979879421971</v>
       </c>
+      <c r="BL149" t="n">
+        <v>0.1636363879556428</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>0.01980358912172897</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>0.4059595854375235</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>-0.1636363879556428</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>0.01980358912172897</v>
+      </c>
+      <c r="BQ149" t="n">
+        <v>-0.4059595854375235</v>
+      </c>
+      <c r="BR149" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -28712,6 +31687,27 @@
       <c r="BK150" t="n">
         <v>3.334521603784838</v>
       </c>
+      <c r="BL150" t="n">
+        <v>0.3278052892543084</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>0.1942035703352234</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>0.6222183159863433</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>-0.3278052892543084</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>-0.1942035703352234</v>
+      </c>
+      <c r="BQ150" t="n">
+        <v>-0.6222183159863433</v>
+      </c>
+      <c r="BR150" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -28903,6 +31899,27 @@
       <c r="BK151" t="n">
         <v>3.48913517427597</v>
       </c>
+      <c r="BL151" t="n">
+        <v>0.4292678602682831</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>0.3902510743761161</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>0.7679629009474711</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>-0.4292678602682831</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>-0.3902510743761161</v>
+      </c>
+      <c r="BQ151" t="n">
+        <v>-0.7679629009474711</v>
+      </c>
+      <c r="BR151" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -29094,6 +32111,27 @@
       <c r="BK152" t="n">
         <v>3.155273736013042</v>
       </c>
+      <c r="BL152" t="n">
+        <v>0.5362500958074337</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>0.3652887431296621</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>0.7430973265951271</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>-0.5362500958074337</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>-0.3652887431296621</v>
+      </c>
+      <c r="BQ152" t="n">
+        <v>-0.7430973265951271</v>
+      </c>
+      <c r="BR152" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -29285,6 +32323,27 @@
       <c r="BK153" t="n">
         <v>2.722407605285394</v>
       </c>
+      <c r="BL153" t="n">
+        <v>0.4415533521534871</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>0.1700027485504925</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>0.5529768508892028</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>-0.4415533521534871</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>-0.1700027485504925</v>
+      </c>
+      <c r="BQ153" t="n">
+        <v>-0.5529768508892028</v>
+      </c>
+      <c r="BR153" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -29476,6 +32535,27 @@
       <c r="BK154" t="n">
         <v>2.859164021611197</v>
       </c>
+      <c r="BL154" t="n">
+        <v>0.433442902618004</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>0.157652163131131</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>0.5416151789041772</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>-0.433442902618004</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>-0.157652163131131</v>
+      </c>
+      <c r="BQ154" t="n">
+        <v>-0.5416151789041772</v>
+      </c>
+      <c r="BR154" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -29667,6 +32747,27 @@
       <c r="BK155" t="n">
         <v>2.894163291333299</v>
       </c>
+      <c r="BL155" t="n">
+        <v>0.3429601439633387</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>0.09123899071352071</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>0.4816365581882973</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>-0.3429601439633387</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>-0.09123899071352071</v>
+      </c>
+      <c r="BQ155" t="n">
+        <v>-0.4816365581882973</v>
+      </c>
+      <c r="BR155" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -29858,6 +32959,27 @@
       <c r="BK156" t="n">
         <v>3.030523379921641</v>
       </c>
+      <c r="BL156" t="n">
+        <v>0.3581843738819008</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>0.07533253043249633</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>0.4658545500537912</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>-0.3581843738819008</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>-0.07533253043249633</v>
+      </c>
+      <c r="BQ156" t="n">
+        <v>-0.4658545500537912</v>
+      </c>
+      <c r="BR156" t="n">
+        <v>1.925</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -30049,6 +33171,27 @@
       <c r="BK157" t="n">
         <v>2.707168210075573</v>
       </c>
+      <c r="BL157" t="n">
+        <v>0.4017250670158026</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>0.1386517117627359</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>0.4951504346026536</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>-0.4017250670158026</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>-0.1386517117627359</v>
+      </c>
+      <c r="BQ157" t="n">
+        <v>-0.4951504346026536</v>
+      </c>
+      <c r="BR157" t="n">
+        <v>1.925</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -30240,6 +33383,27 @@
       <c r="BK158" t="n">
         <v>2.864329526297583</v>
       </c>
+      <c r="BL158" t="n">
+        <v>0.2358912078214805</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>0.1260952543823326</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>0.4700837741979687</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>-0.2358912078214805</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>-0.1260952543823326</v>
+      </c>
+      <c r="BQ158" t="n">
+        <v>-0.4700837741979687</v>
+      </c>
+      <c r="BR158" t="n">
+        <v>1.925</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -30431,6 +33595,27 @@
       <c r="BK159" t="n">
         <v>2.742173792291154</v>
       </c>
+      <c r="BL159" t="n">
+        <v>0.4808072139092745</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>0.2567291785037926</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>0.5808349581640149</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>-0.4808072139092745</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>-0.2567291785037926</v>
+      </c>
+      <c r="BQ159" t="n">
+        <v>-0.5808349581640149</v>
+      </c>
+      <c r="BR159" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -30622,6 +33807,27 @@
       <c r="BK160" t="n">
         <v>2.697028416079542</v>
       </c>
+      <c r="BL160" t="n">
+        <v>0.4603894480371906</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>0.3204221430257057</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>0.6243759399779463</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>-0.4603894480371906</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>-0.3204221430257057</v>
+      </c>
+      <c r="BQ160" t="n">
+        <v>-0.6243759399779463</v>
+      </c>
+      <c r="BR160" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -30813,6 +34019,27 @@
       <c r="BK161" t="n">
         <v>2.832877011340491</v>
       </c>
+      <c r="BL161" t="n">
+        <v>0.4900724698079115</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>0.3419555438174537</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>0.6256637222604373</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>-0.4900724698079115</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>-0.3419555438174537</v>
+      </c>
+      <c r="BQ161" t="n">
+        <v>-0.6256637222604373</v>
+      </c>
+      <c r="BR161" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -31004,6 +34231,27 @@
       <c r="BK162" t="n">
         <v>2.29777454248246</v>
       </c>
+      <c r="BL162" t="n">
+        <v>0.09133130744987228</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>0.01005555628775978</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>0.2589206270511089</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>-0.09133130744987228</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>0.01005555628775978</v>
+      </c>
+      <c r="BQ162" t="n">
+        <v>-0.2589206270511089</v>
+      </c>
+      <c r="BR162" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -31195,6 +34443,27 @@
       <c r="BK163" t="n">
         <v>2.00017047604871</v>
       </c>
+      <c r="BL163" t="n">
+        <v>0.1509160431017593</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>0.1500842555845665</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>0.3727255348944871</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>-0.1509160431017593</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>-0.1500842555845665</v>
+      </c>
+      <c r="BQ163" t="n">
+        <v>-0.3727255348944871</v>
+      </c>
+      <c r="BR163" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -31386,6 +34655,27 @@
       <c r="BK164" t="n">
         <v>1.905811156820409</v>
       </c>
+      <c r="BL164" t="n">
+        <v>0.1499165113942731</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>0.1251380750654536</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>0.331465953606203</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>-0.1499165113942731</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>-0.1251380750654536</v>
+      </c>
+      <c r="BQ164" t="n">
+        <v>-0.331465953606203</v>
+      </c>
+      <c r="BR164" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -31577,6 +34867,27 @@
       <c r="BK165" t="n">
         <v>2.290602239841168</v>
       </c>
+      <c r="BL165" t="n">
+        <v>0.1291394826863517</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>0.1166918063633311</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>0.3053605914188806</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>-0.1291394826863517</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>-0.1166918063633311</v>
+      </c>
+      <c r="BQ165" t="n">
+        <v>-0.3053605914188806</v>
+      </c>
+      <c r="BR165" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -31768,6 +35079,27 @@
       <c r="BK166" t="n">
         <v>2.379877998283418</v>
       </c>
+      <c r="BL166" t="n">
+        <v>0.08110042347740265</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>0.06389529494149704</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>0.2468819560303273</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>0.08110042347740265</v>
+      </c>
+      <c r="BP166" t="n">
+        <v>-0.06389529494149704</v>
+      </c>
+      <c r="BQ166" t="n">
+        <v>-0.2468819560303273</v>
+      </c>
+      <c r="BR166" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -31959,6 +35291,27 @@
       <c r="BK167" t="n">
         <v>2.563292283992879</v>
       </c>
+      <c r="BL167" t="n">
+        <v>0.06767925518424356</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>0.07261503660286572</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>0.2449876829421613</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>0.06767925518424356</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>-0.07261503660286572</v>
+      </c>
+      <c r="BQ167" t="n">
+        <v>-0.2449876829421613</v>
+      </c>
+      <c r="BR167" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -32150,6 +35503,27 @@
       <c r="BK168" t="n">
         <v>2.461178036024249</v>
       </c>
+      <c r="BL168" t="n">
+        <v>0.07667812702410393</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>0.2084576843122039</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>0.3696369911022335</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>-0.07667812702410393</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>-0.2084576843122039</v>
+      </c>
+      <c r="BQ168" t="n">
+        <v>-0.3696369911022335</v>
+      </c>
+      <c r="BR168" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -32341,6 +35715,27 @@
       <c r="BK169" t="n">
         <v>2.270650806789729</v>
       </c>
+      <c r="BL169" t="n">
+        <v>0.09579113784434856</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>0.2287212204359916</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>0.4065228311993694</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>-0.09579113784434856</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>-0.2287212204359916</v>
+      </c>
+      <c r="BQ169" t="n">
+        <v>-0.4065228311993694</v>
+      </c>
+      <c r="BR169" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -32532,6 +35927,27 @@
       <c r="BK170" t="n">
         <v>2.260399743353888</v>
       </c>
+      <c r="BL170" t="n">
+        <v>0.05282413100526195</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>0.09464284346760299</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>0.1458335792923049</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>-0.05282413100526195</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>0.09464284346760299</v>
+      </c>
+      <c r="BQ170" t="n">
+        <v>-0.1458335792923049</v>
+      </c>
+      <c r="BR170" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -32723,6 +36139,27 @@
       <c r="BK171" t="n">
         <v>2.264085866973608</v>
       </c>
+      <c r="BL171" t="n">
+        <v>0.019790255494196</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>0.05626318906582517</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>0.2710706298916881</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>-0.019790255494196</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>-0.05626318906582517</v>
+      </c>
+      <c r="BQ171" t="n">
+        <v>-0.2710706298916881</v>
+      </c>
+      <c r="BR171" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -32914,6 +36351,27 @@
       <c r="BK172" t="n">
         <v>2.279089435819631</v>
       </c>
+      <c r="BL172" t="n">
+        <v>0.01277632167074727</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>0.1061776210408851</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>0.3235605754510651</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>0.01277632167074727</v>
+      </c>
+      <c r="BP172" t="n">
+        <v>-0.1061776210408851</v>
+      </c>
+      <c r="BQ172" t="n">
+        <v>-0.3235605754510651</v>
+      </c>
+      <c r="BR172" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -33105,6 +36563,27 @@
       <c r="BK173" t="n">
         <v>1.808444416019914</v>
       </c>
+      <c r="BL173" t="n">
+        <v>0.05069385065260157</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>0.09342411498035763</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>0.3234727479210406</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>-0.05069385065260157</v>
+      </c>
+      <c r="BP173" t="n">
+        <v>-0.09342411498035763</v>
+      </c>
+      <c r="BQ173" t="n">
+        <v>-0.3234727479210406</v>
+      </c>
+      <c r="BR173" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -33296,6 +36775,27 @@
       <c r="BK174" t="n">
         <v>2.107181561404013</v>
       </c>
+      <c r="BL174" t="n">
+        <v>0.004679578994246647</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>0.0226886375960198</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>0.2577672627194576</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>0.004679578994246647</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>-0.0226886375960198</v>
+      </c>
+      <c r="BQ174" t="n">
+        <v>-0.2577672627194576</v>
+      </c>
+      <c r="BR174" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -33487,6 +36987,27 @@
       <c r="BK175" t="n">
         <v>1.891701006841483</v>
       </c>
+      <c r="BL175" t="n">
+        <v>9.597363330993147e-05</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>0.05546143192248287</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>0.2928444980007905</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>-9.597363330993147e-05</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>-0.05546143192248287</v>
+      </c>
+      <c r="BQ175" t="n">
+        <v>-0.2928444980007905</v>
+      </c>
+      <c r="BR175" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -33678,6 +37199,27 @@
       <c r="BK176" t="n">
         <v>2.058216854969182</v>
       </c>
+      <c r="BL176" t="n">
+        <v>0.07213675227362892</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>0.0984476372720835</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>0.3361903204179879</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>-0.07213675227362892</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>-0.0984476372720835</v>
+      </c>
+      <c r="BQ176" t="n">
+        <v>-0.3361903204179879</v>
+      </c>
+      <c r="BR176" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -33869,6 +37411,27 @@
       <c r="BK177" t="n">
         <v>2.031322398352929</v>
       </c>
+      <c r="BL177" t="n">
+        <v>0.06515872208688545</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>0.06538779511686155</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>0.3107605994106288</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>-0.06515872208688545</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>-0.06538779511686155</v>
+      </c>
+      <c r="BQ177" t="n">
+        <v>-0.3107605994106288</v>
+      </c>
+      <c r="BR177" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -34060,6 +37623,27 @@
       <c r="BK178" t="n">
         <v>2.006463193219532</v>
       </c>
+      <c r="BL178" t="n">
+        <v>0.07933610586595696</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>0.07321351414106925</v>
+      </c>
+      <c r="BN178" t="n">
+        <v>0.3205229553234876</v>
+      </c>
+      <c r="BO178" t="n">
+        <v>-0.07933610586595696</v>
+      </c>
+      <c r="BP178" t="n">
+        <v>-0.07321351414106925</v>
+      </c>
+      <c r="BQ178" t="n">
+        <v>-0.3205229553234876</v>
+      </c>
+      <c r="BR178" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -34251,6 +37835,27 @@
       <c r="BK179" t="n">
         <v>2.074430699395078</v>
       </c>
+      <c r="BL179" t="n">
+        <v>0.1409033436083755</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>0.1752747865408804</v>
+      </c>
+      <c r="BN179" t="n">
+        <v>0.4054703564673712</v>
+      </c>
+      <c r="BO179" t="n">
+        <v>-0.1409033436083755</v>
+      </c>
+      <c r="BP179" t="n">
+        <v>-0.1752747865408804</v>
+      </c>
+      <c r="BQ179" t="n">
+        <v>-0.4054703564673712</v>
+      </c>
+      <c r="BR179" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -34442,6 +38047,27 @@
       <c r="BK180" t="n">
         <v>2.239496903593644</v>
       </c>
+      <c r="BL180" t="n">
+        <v>0.1236991267869718</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>0.05557451930096202</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>0.2950908453406891</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>-0.1236991267869718</v>
+      </c>
+      <c r="BP180" t="n">
+        <v>-0.05557451930096202</v>
+      </c>
+      <c r="BQ180" t="n">
+        <v>-0.2950908453406891</v>
+      </c>
+      <c r="BR180" t="n">
+        <v>1.375</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -34633,6 +38259,27 @@
       <c r="BK181" t="n">
         <v>2.406163847691058</v>
       </c>
+      <c r="BL181" t="n">
+        <v>0.2026974954084473</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>0.1243052679005718</v>
+      </c>
+      <c r="BN181" t="n">
+        <v>0.3505394570464713</v>
+      </c>
+      <c r="BO181" t="n">
+        <v>-0.2026974954084473</v>
+      </c>
+      <c r="BP181" t="n">
+        <v>-0.1243052679005718</v>
+      </c>
+      <c r="BQ181" t="n">
+        <v>-0.3505394570464713</v>
+      </c>
+      <c r="BR181" t="n">
+        <v>1.375</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -34824,6 +38471,27 @@
       <c r="BK182" t="n">
         <v>2.666199523946953</v>
       </c>
+      <c r="BL182" t="n">
+        <v>0.2802420725690491</v>
+      </c>
+      <c r="BM182" t="n">
+        <v>0.1935290957325986</v>
+      </c>
+      <c r="BN182" t="n">
+        <v>0.4049032001126134</v>
+      </c>
+      <c r="BO182" t="n">
+        <v>-0.2802420725690491</v>
+      </c>
+      <c r="BP182" t="n">
+        <v>-0.1935290957325986</v>
+      </c>
+      <c r="BQ182" t="n">
+        <v>-0.4049032001126134</v>
+      </c>
+      <c r="BR182" t="n">
+        <v>1.375</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -35015,6 +38683,27 @@
       <c r="BK183" t="n">
         <v>2.218432643290736</v>
       </c>
+      <c r="BL183" t="n">
+        <v>0.5962354997911868</v>
+      </c>
+      <c r="BM183" t="n">
+        <v>0.4748603930201492</v>
+      </c>
+      <c r="BN183" t="n">
+        <v>0.6542181077978271</v>
+      </c>
+      <c r="BO183" t="n">
+        <v>-0.5962354997911868</v>
+      </c>
+      <c r="BP183" t="n">
+        <v>-0.4748603930201492</v>
+      </c>
+      <c r="BQ183" t="n">
+        <v>-0.6542181077978271</v>
+      </c>
+      <c r="BR183" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -35206,6 +38895,27 @@
       <c r="BK184" t="n">
         <v>2.03605497901535</v>
       </c>
+      <c r="BL184" t="n">
+        <v>0.7602770166136325</v>
+      </c>
+      <c r="BM184" t="n">
+        <v>0.4862505042855172</v>
+      </c>
+      <c r="BN184" t="n">
+        <v>0.6637126773789699</v>
+      </c>
+      <c r="BO184" t="n">
+        <v>-0.7602770166136325</v>
+      </c>
+      <c r="BP184" t="n">
+        <v>-0.4862505042855172</v>
+      </c>
+      <c r="BQ184" t="n">
+        <v>-0.6637126773789699</v>
+      </c>
+      <c r="BR184" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -35397,6 +39107,27 @@
       <c r="BK185" t="n">
         <v>1.383580991838059</v>
       </c>
+      <c r="BL185" t="n">
+        <v>0.6729153109277941</v>
+      </c>
+      <c r="BM185" t="n">
+        <v>0.3565730196208787</v>
+      </c>
+      <c r="BN185" t="n">
+        <v>0.553721841854956</v>
+      </c>
+      <c r="BO185" t="n">
+        <v>-0.6729153109277941</v>
+      </c>
+      <c r="BP185" t="n">
+        <v>-0.3565730196208787</v>
+      </c>
+      <c r="BQ185" t="n">
+        <v>-0.553721841854956</v>
+      </c>
+      <c r="BR185" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -35588,6 +39319,27 @@
       <c r="BK186" t="n">
         <v>1.12623506844855</v>
       </c>
+      <c r="BL186" t="n">
+        <v>0.4106864729184813</v>
+      </c>
+      <c r="BM186" t="n">
+        <v>0.2171336499792891</v>
+      </c>
+      <c r="BN186" t="n">
+        <v>0.4163376638951375</v>
+      </c>
+      <c r="BO186" t="n">
+        <v>-0.4106864729184813</v>
+      </c>
+      <c r="BP186" t="n">
+        <v>-0.2171336499792891</v>
+      </c>
+      <c r="BQ186" t="n">
+        <v>-0.4163376638951375</v>
+      </c>
+      <c r="BR186" t="n">
+        <v>1.375</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -35779,6 +39531,27 @@
       <c r="BK187" t="n">
         <v>1.483063947724815</v>
       </c>
+      <c r="BL187" t="n">
+        <v>0.3393186946408193</v>
+      </c>
+      <c r="BM187" t="n">
+        <v>0.05228395116910622</v>
+      </c>
+      <c r="BN187" t="n">
+        <v>0.2823726661393353</v>
+      </c>
+      <c r="BO187" t="n">
+        <v>-0.3393186946408193</v>
+      </c>
+      <c r="BP187" t="n">
+        <v>-0.05228395116910622</v>
+      </c>
+      <c r="BQ187" t="n">
+        <v>-0.2823726661393353</v>
+      </c>
+      <c r="BR187" t="n">
+        <v>1.375</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -35970,6 +39743,27 @@
       <c r="BK188" t="n">
         <v>1.637908875229108</v>
       </c>
+      <c r="BL188" t="n">
+        <v>0.3983217015794563</v>
+      </c>
+      <c r="BM188" t="n">
+        <v>0.1367264417523741</v>
+      </c>
+      <c r="BN188" t="n">
+        <v>0.3545260195467825</v>
+      </c>
+      <c r="BO188" t="n">
+        <v>-0.3983217015794563</v>
+      </c>
+      <c r="BP188" t="n">
+        <v>-0.1367264417523741</v>
+      </c>
+      <c r="BQ188" t="n">
+        <v>-0.3545260195467825</v>
+      </c>
+      <c r="BR188" t="n">
+        <v>1.375</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -36161,6 +39955,27 @@
       <c r="BK189" t="n">
         <v>1.710306964305747</v>
       </c>
+      <c r="BL189" t="n">
+        <v>0.1203727793105765</v>
+      </c>
+      <c r="BM189" t="n">
+        <v>0.1558208938095424</v>
+      </c>
+      <c r="BN189" t="n">
+        <v>0.06576139031299211</v>
+      </c>
+      <c r="BO189" t="n">
+        <v>-0.1203727793105765</v>
+      </c>
+      <c r="BP189" t="n">
+        <v>0.1558208938095424</v>
+      </c>
+      <c r="BQ189" t="n">
+        <v>-0.06576139031299211</v>
+      </c>
+      <c r="BR189" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -36352,6 +40167,27 @@
       <c r="BK190" t="n">
         <v>1.835409294544104</v>
       </c>
+      <c r="BL190" t="n">
+        <v>0.1527743983651569</v>
+      </c>
+      <c r="BM190" t="n">
+        <v>0.04855080552659641</v>
+      </c>
+      <c r="BN190" t="n">
+        <v>0.1564966849930171</v>
+      </c>
+      <c r="BO190" t="n">
+        <v>-0.1527743983651569</v>
+      </c>
+      <c r="BP190" t="n">
+        <v>0.04855080552659641</v>
+      </c>
+      <c r="BQ190" t="n">
+        <v>-0.1564966849930171</v>
+      </c>
+      <c r="BR190" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -36543,6 +40379,27 @@
       <c r="BK191" t="n">
         <v>1.477286760831774</v>
       </c>
+      <c r="BL191" t="n">
+        <v>0.1643675422574621</v>
+      </c>
+      <c r="BM191" t="n">
+        <v>0.1492617525294579</v>
+      </c>
+      <c r="BN191" t="n">
+        <v>0.07171561433865059</v>
+      </c>
+      <c r="BO191" t="n">
+        <v>-0.1643675422574621</v>
+      </c>
+      <c r="BP191" t="n">
+        <v>0.1492617525294579</v>
+      </c>
+      <c r="BQ191" t="n">
+        <v>-0.07171561433865059</v>
+      </c>
+      <c r="BR191" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -36734,6 +40591,27 @@
       <c r="BK192" t="n">
         <v>2.105333586079822</v>
       </c>
+      <c r="BL192" t="n">
+        <v>0.2654950683400648</v>
+      </c>
+      <c r="BM192" t="n">
+        <v>0.5918312446548855</v>
+      </c>
+      <c r="BN192" t="n">
+        <v>0.3836326412724682</v>
+      </c>
+      <c r="BO192" t="n">
+        <v>0.2654950683400648</v>
+      </c>
+      <c r="BP192" t="n">
+        <v>0.5918312446548855</v>
+      </c>
+      <c r="BQ192" t="n">
+        <v>0.3836326412724682</v>
+      </c>
+      <c r="BR192" t="n">
+        <v>0.575</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -36925,6 +40803,27 @@
       <c r="BK193" t="n">
         <v>2.093907671164108</v>
       </c>
+      <c r="BL193" t="n">
+        <v>0.2679326801196444</v>
+      </c>
+      <c r="BM193" t="n">
+        <v>0.6740218892277126</v>
+      </c>
+      <c r="BN193" t="n">
+        <v>0.4549438549946512</v>
+      </c>
+      <c r="BO193" t="n">
+        <v>0.2679326801196444</v>
+      </c>
+      <c r="BP193" t="n">
+        <v>0.6740218892277126</v>
+      </c>
+      <c r="BQ193" t="n">
+        <v>0.4549438549946512</v>
+      </c>
+      <c r="BR193" t="n">
+        <v>0.575</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -37116,6 +41015,27 @@
       <c r="BK194" t="n">
         <v>1.74965429274952</v>
       </c>
+      <c r="BL194" t="n">
+        <v>0.3141122053986659</v>
+      </c>
+      <c r="BM194" t="n">
+        <v>0.6768972928997228</v>
+      </c>
+      <c r="BN194" t="n">
+        <v>0.460759773519023</v>
+      </c>
+      <c r="BO194" t="n">
+        <v>0.3141122053986659</v>
+      </c>
+      <c r="BP194" t="n">
+        <v>0.6768972928997228</v>
+      </c>
+      <c r="BQ194" t="n">
+        <v>0.460759773519023</v>
+      </c>
+      <c r="BR194" t="n">
+        <v>0.575</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -37307,6 +41227,27 @@
       <c r="BK195" t="n">
         <v>2.145036139418884</v>
       </c>
+      <c r="BL195" t="n">
+        <v>0.2622421036754672</v>
+      </c>
+      <c r="BM195" t="n">
+        <v>0.05964749004360037</v>
+      </c>
+      <c r="BN195" t="n">
+        <v>0.137699333819602</v>
+      </c>
+      <c r="BO195" t="n">
+        <v>-0.2622421036754672</v>
+      </c>
+      <c r="BP195" t="n">
+        <v>0.05964749004360037</v>
+      </c>
+      <c r="BQ195" t="n">
+        <v>-0.137699333819602</v>
+      </c>
+      <c r="BR195" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -37498,6 +41439,27 @@
       <c r="BK196" t="n">
         <v>1.952972570414592</v>
       </c>
+      <c r="BL196" t="n">
+        <v>0.2582174746352668</v>
+      </c>
+      <c r="BM196" t="n">
+        <v>0.02419446637214984</v>
+      </c>
+      <c r="BN196" t="n">
+        <v>0.1597975797683733</v>
+      </c>
+      <c r="BO196" t="n">
+        <v>-0.2582174746352668</v>
+      </c>
+      <c r="BP196" t="n">
+        <v>0.02419446637214984</v>
+      </c>
+      <c r="BQ196" t="n">
+        <v>-0.1597975797683733</v>
+      </c>
+      <c r="BR196" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -37689,6 +41651,27 @@
       <c r="BK197" t="n">
         <v>2.361708365247762</v>
       </c>
+      <c r="BL197" t="n">
+        <v>0.2532723037133061</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>0.01468128772854671</v>
+      </c>
+      <c r="BN197" t="n">
+        <v>0.1623030720235764</v>
+      </c>
+      <c r="BO197" t="n">
+        <v>-0.2532723037133061</v>
+      </c>
+      <c r="BP197" t="n">
+        <v>0.01468128772854671</v>
+      </c>
+      <c r="BQ197" t="n">
+        <v>-0.1623030720235764</v>
+      </c>
+      <c r="BR197" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -37880,6 +41863,27 @@
       <c r="BK198" t="n">
         <v>2.070737466302347</v>
       </c>
+      <c r="BL198" t="n">
+        <v>0.1574292594523626</v>
+      </c>
+      <c r="BM198" t="n">
+        <v>0.3927105523664657</v>
+      </c>
+      <c r="BN198" t="n">
+        <v>0.2262259282265151</v>
+      </c>
+      <c r="BO198" t="n">
+        <v>0.1574292594523626</v>
+      </c>
+      <c r="BP198" t="n">
+        <v>0.3927105523664657</v>
+      </c>
+      <c r="BQ198" t="n">
+        <v>0.2262259282265151</v>
+      </c>
+      <c r="BR198" t="n">
+        <v>0.7000000000000001</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -38071,6 +42075,27 @@
       <c r="BK199" t="n">
         <v>1.97485164197079</v>
       </c>
+      <c r="BL199" t="n">
+        <v>0.1402366561894469</v>
+      </c>
+      <c r="BM199" t="n">
+        <v>0.3720556470764954</v>
+      </c>
+      <c r="BN199" t="n">
+        <v>0.215489862989179</v>
+      </c>
+      <c r="BO199" t="n">
+        <v>0.1402366561894469</v>
+      </c>
+      <c r="BP199" t="n">
+        <v>0.3720556470764954</v>
+      </c>
+      <c r="BQ199" t="n">
+        <v>0.215489862989179</v>
+      </c>
+      <c r="BR199" t="n">
+        <v>0.7000000000000001</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -38262,6 +42287,27 @@
       <c r="BK200" t="n">
         <v>1.780354299497123</v>
       </c>
+      <c r="BL200" t="n">
+        <v>0.100563392248693</v>
+      </c>
+      <c r="BM200" t="n">
+        <v>0.3906652003162586</v>
+      </c>
+      <c r="BN200" t="n">
+        <v>0.2383883881609974</v>
+      </c>
+      <c r="BO200" t="n">
+        <v>0.100563392248693</v>
+      </c>
+      <c r="BP200" t="n">
+        <v>0.3906652003162586</v>
+      </c>
+      <c r="BQ200" t="n">
+        <v>0.2383883881609974</v>
+      </c>
+      <c r="BR200" t="n">
+        <v>0.7000000000000001</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -38453,6 +42499,27 @@
       <c r="BK201" t="n">
         <v>1.883473647319892</v>
       </c>
+      <c r="BL201" t="n">
+        <v>0.06865059929202477</v>
+      </c>
+      <c r="BM201" t="n">
+        <v>0.1736385532602385</v>
+      </c>
+      <c r="BN201" t="n">
+        <v>0.02260696598046441</v>
+      </c>
+      <c r="BO201" t="n">
+        <v>-0.06865059929202477</v>
+      </c>
+      <c r="BP201" t="n">
+        <v>0.1736385532602385</v>
+      </c>
+      <c r="BQ201" t="n">
+        <v>0.02260696598046441</v>
+      </c>
+      <c r="BR201" t="n">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -38644,6 +42711,27 @@
       <c r="BK202" t="n">
         <v>1.79391058158257</v>
       </c>
+      <c r="BL202" t="n">
+        <v>0.01990317663423702</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>0.1460785581358945</v>
+      </c>
+      <c r="BN202" t="n">
+        <v>0.007939691246941383</v>
+      </c>
+      <c r="BO202" t="n">
+        <v>-0.01990317663423702</v>
+      </c>
+      <c r="BP202" t="n">
+        <v>0.1460785581358945</v>
+      </c>
+      <c r="BQ202" t="n">
+        <v>0.007939691246941383</v>
+      </c>
+      <c r="BR202" t="n">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -38835,6 +42923,27 @@
       <c r="BK203" t="n">
         <v>1.705139576231933</v>
       </c>
+      <c r="BL203" t="n">
+        <v>0.05690445918198317</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>0.1907075284551412</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>0.06165096583175744</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>-0.05690445918198317</v>
+      </c>
+      <c r="BP203" t="n">
+        <v>0.1907075284551412</v>
+      </c>
+      <c r="BQ203" t="n">
+        <v>0.06165096583175744</v>
+      </c>
+      <c r="BR203" t="n">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -39026,6 +43135,27 @@
       <c r="BK204" t="n">
         <v>1.80997728547127</v>
       </c>
+      <c r="BL204" t="n">
+        <v>0.2180159308484668</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>0.06627863575622728</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>0.1776221724782892</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>-0.2180159308484668</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>-0.06627863575622728</v>
+      </c>
+      <c r="BQ204" t="n">
+        <v>-0.1776221724782892</v>
+      </c>
+      <c r="BR204" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -39217,6 +43347,27 @@
       <c r="BK205" t="n">
         <v>1.220933000183683</v>
       </c>
+      <c r="BL205" t="n">
+        <v>0.1392596493942673</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>0.04772900061614083</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>0.05828619659377399</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>-0.1392596493942673</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>0.04772900061614083</v>
+      </c>
+      <c r="BQ205" t="n">
+        <v>-0.05828619659377399</v>
+      </c>
+      <c r="BR205" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -39408,6 +43559,27 @@
       <c r="BK206" t="n">
         <v>1.222346958313209</v>
       </c>
+      <c r="BL206" t="n">
+        <v>0.128147713505457</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>0.003610662565298961</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>0.1013115379683345</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>-0.128147713505457</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>-0.003610662565298961</v>
+      </c>
+      <c r="BQ206" t="n">
+        <v>-0.1013115379683345</v>
+      </c>
+      <c r="BR206" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -39599,6 +43771,27 @@
       <c r="BK207" t="n">
         <v>1.038176851850045</v>
       </c>
+      <c r="BL207" t="n">
+        <v>0.5849176121194295</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>0.3721717557703592</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>0.471138115803764</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>-0.5849176121194295</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>-0.3721717557703592</v>
+      </c>
+      <c r="BQ207" t="n">
+        <v>-0.471138115803764</v>
+      </c>
+      <c r="BR207" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -39790,6 +43983,27 @@
       <c r="BK208" t="n">
         <v>1.485478667906608</v>
       </c>
+      <c r="BL208" t="n">
+        <v>0.462820428929841</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>0.356406324356783</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>0.4541673142999318</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>-0.462820428929841</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>-0.356406324356783</v>
+      </c>
+      <c r="BQ208" t="n">
+        <v>-0.4541673142999318</v>
+      </c>
+      <c r="BR208" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -39981,6 +44195,27 @@
       <c r="BK209" t="n">
         <v>1.121085029367402</v>
       </c>
+      <c r="BL209" t="n">
+        <v>0.3794804130001836</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>0.3315952760298433</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>0.4215964209657885</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>-0.3794804130001836</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>-0.3315952760298433</v>
+      </c>
+      <c r="BQ209" t="n">
+        <v>-0.4215964209657885</v>
+      </c>
+      <c r="BR209" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -40172,6 +44407,27 @@
       <c r="BK210" t="n">
         <v>1.560451845085685</v>
       </c>
+      <c r="BL210" t="n">
+        <v>0.5617255870057787</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>0.5607676788637181</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>0.6462888397628535</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>-0.5617255870057787</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>-0.5607676788637181</v>
+      </c>
+      <c r="BQ210" t="n">
+        <v>-0.6462888397628535</v>
+      </c>
+      <c r="BR210" t="n">
+        <v>1.775</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -40363,6 +44619,27 @@
       <c r="BK211" t="n">
         <v>1.387727496964833</v>
       </c>
+      <c r="BL211" t="n">
+        <v>0.6205700165049421</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>0.599256724038844</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>0.6737781695544836</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>-0.6205700165049421</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>-0.599256724038844</v>
+      </c>
+      <c r="BQ211" t="n">
+        <v>-0.6737781695544836</v>
+      </c>
+      <c r="BR211" t="n">
+        <v>1.775</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -40554,6 +44831,27 @@
       <c r="BK212" t="n">
         <v>1.417928895899692</v>
       </c>
+      <c r="BL212" t="n">
+        <v>0.6559550034435528</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>0.5970985857000841</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>0.6724072167809088</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>-0.6559550034435528</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>-0.5970985857000841</v>
+      </c>
+      <c r="BQ212" t="n">
+        <v>-0.6724072167809088</v>
+      </c>
+      <c r="BR212" t="n">
+        <v>1.775</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -40745,6 +45043,27 @@
       <c r="BK213" t="n">
         <v>1.24323886960371</v>
       </c>
+      <c r="BL213" t="n">
+        <v>0.5224917555910211</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>0.5354086288098412</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>0.6017497395843738</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>-0.5224917555910211</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>-0.5354086288098412</v>
+      </c>
+      <c r="BQ213" t="n">
+        <v>-0.6017497395843738</v>
+      </c>
+      <c r="BR213" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -40936,6 +45255,27 @@
       <c r="BK214" t="n">
         <v>1.260767724196641</v>
       </c>
+      <c r="BL214" t="n">
+        <v>0.4541149628285905</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>0.4994527168421081</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>0.5590893537421384</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>-0.4541149628285905</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>-0.4994527168421081</v>
+      </c>
+      <c r="BQ214" t="n">
+        <v>-0.5590893537421384</v>
+      </c>
+      <c r="BR214" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -41127,6 +45467,27 @@
       <c r="BK215" t="n">
         <v>1.775889816374241</v>
       </c>
+      <c r="BL215" t="n">
+        <v>0.4272685232464</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>0.4372262412617345</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>0.4954956313824381</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>-0.4272685232464</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>-0.4372262412617345</v>
+      </c>
+      <c r="BQ215" t="n">
+        <v>-0.4954956313824381</v>
+      </c>
+      <c r="BR215" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -41318,6 +45679,27 @@
       <c r="BK216" t="n">
         <v>1.584973751199422</v>
       </c>
+      <c r="BL216" t="n">
+        <v>0.4281650916111785</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>0.5016118960820091</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>0.5438214025122066</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>-0.4281650916111785</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>-0.5016118960820091</v>
+      </c>
+      <c r="BQ216" t="n">
+        <v>-0.5438214025122066</v>
+      </c>
+      <c r="BR216" t="n">
+        <v>1.625</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -41509,6 +45891,27 @@
       <c r="BK217" t="n">
         <v>1.838924923059033</v>
       </c>
+      <c r="BL217" t="n">
+        <v>0.4058090478001535</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>0.4434739157906442</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>0.484321508020866</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>-0.4058090478001535</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>-0.4434739157906442</v>
+      </c>
+      <c r="BQ217" t="n">
+        <v>-0.484321508020866</v>
+      </c>
+      <c r="BR217" t="n">
+        <v>1.625</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -41700,6 +46103,27 @@
       <c r="BK218" t="n">
         <v>1.875984613492404</v>
       </c>
+      <c r="BL218" t="n">
+        <v>0.4652042859220258</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>0.5004079351105537</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>0.5290957744753064</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>-0.4652042859220258</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>-0.5004079351105537</v>
+      </c>
+      <c r="BQ218" t="n">
+        <v>-0.5290957744753064</v>
+      </c>
+      <c r="BR218" t="n">
+        <v>1.625</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -41891,6 +46315,27 @@
       <c r="BK219" t="n">
         <v>2.225988771507645</v>
       </c>
+      <c r="BL219" t="n">
+        <v>0.06652509985815036</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>0.589646450948939</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>0.6208313332824336</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>-0.06652509985815036</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>-0.589646450948939</v>
+      </c>
+      <c r="BQ219" t="n">
+        <v>-0.6208313332824336</v>
+      </c>
+      <c r="BR219" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -42082,6 +46527,27 @@
       <c r="BK220" t="n">
         <v>1.807118271042653</v>
       </c>
+      <c r="BL220" t="n">
+        <v>0.4666037253347159</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>0.5990546260881409</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>0.6153315403389723</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>-0.4666037253347159</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>-0.5990546260881409</v>
+      </c>
+      <c r="BQ220" t="n">
+        <v>-0.6153315403389723</v>
+      </c>
+      <c r="BR220" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -42273,6 +46739,27 @@
       <c r="BK221" t="n">
         <v>1.982857378039571</v>
       </c>
+      <c r="BL221" t="n">
+        <v>0.5638260392851997</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>0.6447668803832014</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>0.6650702088225828</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>-0.5638260392851997</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>-0.6447668803832014</v>
+      </c>
+      <c r="BQ221" t="n">
+        <v>-0.6650702088225828</v>
+      </c>
+      <c r="BR221" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -42464,6 +46951,27 @@
       <c r="BK222" t="n">
         <v>1.170465679767979</v>
       </c>
+      <c r="BL222" t="n">
+        <v>0.4553024544057804</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>0.5115403194352648</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>0.5384674871818271</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>-0.4553024544057804</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>-0.5115403194352648</v>
+      </c>
+      <c r="BQ222" t="n">
+        <v>-0.5384674871818271</v>
+      </c>
+      <c r="BR222" t="n">
+        <v>1.625</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -42655,6 +47163,27 @@
       <c r="BK223" t="n">
         <v>1.367435720127567</v>
       </c>
+      <c r="BL223" t="n">
+        <v>0.4109413429320086</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>0.4712822586155154</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>0.5115419905632155</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>-0.4109413429320086</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>-0.4712822586155154</v>
+      </c>
+      <c r="BQ223" t="n">
+        <v>-0.5115419905632155</v>
+      </c>
+      <c r="BR223" t="n">
+        <v>1.625</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -42846,6 +47375,27 @@
       <c r="BK224" t="n">
         <v>1.369720186577535</v>
       </c>
+      <c r="BL224" t="n">
+        <v>0.3557147030141909</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>0.4096478831189192</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>0.4528117859777443</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>-0.3557147030141909</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>-0.4096478831189192</v>
+      </c>
+      <c r="BQ224" t="n">
+        <v>-0.4528117859777443</v>
+      </c>
+      <c r="BR224" t="n">
+        <v>1.625</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -43037,6 +47587,27 @@
       <c r="BK225" t="n">
         <v>1.366549208332703</v>
       </c>
+      <c r="BL225" t="n">
+        <v>0.4906799456036641</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>0.5764741687765527</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>0.6178179070386021</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>-0.4906799456036641</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>-0.5764741687765527</v>
+      </c>
+      <c r="BQ225" t="n">
+        <v>-0.6178179070386021</v>
+      </c>
+      <c r="BR225" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -43228,6 +47799,27 @@
       <c r="BK226" t="n">
         <v>1.455561996981062</v>
       </c>
+      <c r="BL226" t="n">
+        <v>0.5141339997089553</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>0.5313827971726446</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>0.5806867518163434</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>-0.5141339997089553</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>-0.5313827971726446</v>
+      </c>
+      <c r="BQ226" t="n">
+        <v>-0.5806867518163434</v>
+      </c>
+      <c r="BR226" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -43419,6 +48011,27 @@
       <c r="BK227" t="n">
         <v>1.24609885702073</v>
       </c>
+      <c r="BL227" t="n">
+        <v>0.4898562477694972</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>0.5124199382741523</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>0.5760086818812842</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>-0.4898562477694972</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>-0.5124199382741523</v>
+      </c>
+      <c r="BQ227" t="n">
+        <v>-0.5760086818812842</v>
+      </c>
+      <c r="BR227" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -43610,6 +48223,27 @@
       <c r="BK228" t="n">
         <v>1.715335825480169</v>
       </c>
+      <c r="BL228" t="n">
+        <v>0.1652713781396542</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>0.5009115557777717</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>0.5927138473076281</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>-0.1652713781396542</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>-0.5009115557777717</v>
+      </c>
+      <c r="BQ228" t="n">
+        <v>-0.5927138473076281</v>
+      </c>
+      <c r="BR228" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -43801,6 +48435,27 @@
       <c r="BK229" t="n">
         <v>2.097012870709116</v>
       </c>
+      <c r="BL229" t="n">
+        <v>0.1647438235437944</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>0.4532605445124289</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>0.5637083390125592</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>-0.1647438235437944</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>-0.4532605445124289</v>
+      </c>
+      <c r="BQ229" t="n">
+        <v>-0.5637083390125592</v>
+      </c>
+      <c r="BR229" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -43991,6 +48646,27 @@
       </c>
       <c r="BK230" t="n">
         <v>2.168242226486593</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>0.1638508964848706</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>0.4785559404765598</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>0.5861376274233649</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>-0.1638508964848706</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>-0.4785559404765598</v>
+      </c>
+      <c r="BQ230" t="n">
+        <v>-0.5861376274233649</v>
+      </c>
+      <c r="BR230" t="n">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/regression_data_monthly_2.xlsx
+++ b/Data/Regression/regression_data_monthly_2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR230"/>
+  <dimension ref="A1:BT230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,20 +772,30 @@
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
+          <t>German Absolute Real Inflation Expectations Gap Quant Reuter</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
           <t>German Relative Real Inflation Expectations Gap Stm Reuter</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>German Relative Real Inflation Expectations Gap Role Reuter</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>German Relative Real Inflation Expectations Gap Berk5 Reuter</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>German Relative Real Inflation Expectations Gap Quant Reuter</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>Reuter Poll Forecast</t>
         </is>
@@ -969,15 +979,21 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
         <v>1.069586078947133</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>1.73794163802344</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>0</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1159,15 +1175,21 @@
         <v>0.7036238339961938</v>
       </c>
       <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
         <v>1.138292050551889</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>1.796938178571904</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>0.7036238339961938</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1349,15 +1371,21 @@
         <v>0.84560974668515</v>
       </c>
       <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
         <v>1.120930352039129</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BQ4" t="n">
         <v>1.61166794564451</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>0.84560974668515</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1539,15 +1567,21 @@
         <v>0.8701617646729599</v>
       </c>
       <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
         <v>1.155351772808454</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BQ5" t="n">
         <v>1.639994181439074</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BR5" t="n">
         <v>0.8701617646729599</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1729,15 +1763,21 @@
         <v>0.8080173915973642</v>
       </c>
       <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
         <v>1.136792573619089</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BQ6" t="n">
         <v>1.534088814250939</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BR6" t="n">
         <v>0.8080173915973642</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,15 +1959,21 @@
         <v>0.8347594344287761</v>
       </c>
       <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
         <v>1.111171503256298</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BQ7" t="n">
         <v>1.503837042614281</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BR7" t="n">
         <v>0.8347594344287761</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2109,15 +2155,21 @@
         <v>1.00148736879904</v>
       </c>
       <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
         <v>1.285040766725896</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BQ8" t="n">
         <v>1.745991923232511</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BR8" t="n">
         <v>1.00148736879904</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2299,15 +2351,21 @@
         <v>0.922068479591913</v>
       </c>
       <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
         <v>1.225866043504663</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BQ9" t="n">
         <v>1.583273482583646</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BR9" t="n">
         <v>0.922068479591913</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2489,15 +2547,21 @@
         <v>0.9203724098537324</v>
       </c>
       <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
         <v>1.221925634117544</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BQ10" t="n">
         <v>1.494394774798931</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BR10" t="n">
         <v>0.9203724098537324</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2679,15 +2743,21 @@
         <v>1.056473590110936</v>
       </c>
       <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
         <v>1.357936938036924</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BQ11" t="n">
         <v>1.647174152663105</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BR11" t="n">
         <v>1.056473590110936</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2869,15 +2939,21 @@
         <v>1.080805468700657</v>
       </c>
       <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
         <v>1.394507806275155</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BQ12" t="n">
         <v>1.645500904065876</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BR12" t="n">
         <v>1.080805468700657</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3059,15 +3135,21 @@
         <v>1.177578583146022</v>
       </c>
       <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
         <v>1.416549434044045</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BQ13" t="n">
         <v>1.705062278786282</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="BR13" t="n">
         <v>1.177578583146022</v>
       </c>
-      <c r="BR13" t="n">
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3249,15 +3331,21 @@
         <v>1.195691186881164</v>
       </c>
       <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
         <v>1.396300327355848</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="BQ14" t="n">
         <v>1.728358562519931</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="BR14" t="n">
         <v>1.195691186881164</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3461,15 +3549,21 @@
         <v>1.203002291075685</v>
       </c>
       <c r="BO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
         <v>1.314182602016151</v>
       </c>
-      <c r="BP15" t="n">
+      <c r="BQ15" t="n">
         <v>1.681926379643853</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="BR15" t="n">
         <v>1.203002291075685</v>
       </c>
-      <c r="BR15" t="n">
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3673,15 +3767,21 @@
         <v>1.265173732797813</v>
       </c>
       <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
         <v>1.333662299308913</v>
       </c>
-      <c r="BP16" t="n">
+      <c r="BQ16" t="n">
         <v>1.732402591637927</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="BR16" t="n">
         <v>1.265173732797813</v>
       </c>
-      <c r="BR16" t="n">
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3885,15 +3985,21 @@
         <v>1.284245108256136</v>
       </c>
       <c r="BO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
         <v>1.343465638617886</v>
       </c>
-      <c r="BP17" t="n">
+      <c r="BQ17" t="n">
         <v>1.692410182850566</v>
       </c>
-      <c r="BQ17" t="n">
+      <c r="BR17" t="n">
         <v>1.284245108256136</v>
       </c>
-      <c r="BR17" t="n">
+      <c r="BS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4097,15 +4203,21 @@
         <v>1.405053860125461</v>
       </c>
       <c r="BO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="n">
         <v>1.390259229531313</v>
       </c>
-      <c r="BP18" t="n">
+      <c r="BQ18" t="n">
         <v>1.774342406963941</v>
       </c>
-      <c r="BQ18" t="n">
+      <c r="BR18" t="n">
         <v>1.405053860125461</v>
       </c>
-      <c r="BR18" t="n">
+      <c r="BS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4309,15 +4421,21 @@
         <v>1.559365146410035</v>
       </c>
       <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
         <v>1.660801276366254</v>
       </c>
-      <c r="BP19" t="n">
+      <c r="BQ19" t="n">
         <v>1.937640239510793</v>
       </c>
-      <c r="BQ19" t="n">
+      <c r="BR19" t="n">
         <v>1.559365146410035</v>
       </c>
-      <c r="BR19" t="n">
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4521,15 +4639,21 @@
         <v>1.625749603174855</v>
       </c>
       <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
         <v>1.665419653030861</v>
       </c>
-      <c r="BP20" t="n">
+      <c r="BQ20" t="n">
         <v>2.001290645715041</v>
       </c>
-      <c r="BQ20" t="n">
+      <c r="BR20" t="n">
         <v>1.625749603174855</v>
       </c>
-      <c r="BR20" t="n">
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4733,15 +4857,21 @@
         <v>1.542433156647752</v>
       </c>
       <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
         <v>1.670274418542903</v>
       </c>
-      <c r="BP21" t="n">
+      <c r="BQ21" t="n">
         <v>1.874594818132237</v>
       </c>
-      <c r="BQ21" t="n">
+      <c r="BR21" t="n">
         <v>1.542433156647752</v>
       </c>
-      <c r="BR21" t="n">
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4945,15 +5075,21 @@
         <v>1.586826067973842</v>
       </c>
       <c r="BO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="n">
         <v>1.630336031984637</v>
       </c>
-      <c r="BP22" t="n">
+      <c r="BQ22" t="n">
         <v>1.918806064966405</v>
       </c>
-      <c r="BQ22" t="n">
+      <c r="BR22" t="n">
         <v>1.586826067973842</v>
       </c>
-      <c r="BR22" t="n">
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5157,15 +5293,21 @@
         <v>1.565524759607659</v>
       </c>
       <c r="BO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="n">
         <v>1.51669005829036</v>
       </c>
-      <c r="BP23" t="n">
+      <c r="BQ23" t="n">
         <v>1.878435584809816</v>
       </c>
-      <c r="BQ23" t="n">
+      <c r="BR23" t="n">
         <v>1.565524759607659</v>
       </c>
-      <c r="BR23" t="n">
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5369,15 +5511,21 @@
         <v>1.657701761205859</v>
       </c>
       <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
         <v>1.500364223811943</v>
       </c>
-      <c r="BP24" t="n">
+      <c r="BQ24" t="n">
         <v>1.991682167798634</v>
       </c>
-      <c r="BQ24" t="n">
+      <c r="BR24" t="n">
         <v>1.657701761205859</v>
       </c>
-      <c r="BR24" t="n">
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5581,15 +5729,21 @@
         <v>1.627102984756334</v>
       </c>
       <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
         <v>1.466932831834008</v>
       </c>
-      <c r="BP25" t="n">
+      <c r="BQ25" t="n">
         <v>1.945014104070393</v>
       </c>
-      <c r="BQ25" t="n">
+      <c r="BR25" t="n">
         <v>1.627102984756334</v>
       </c>
-      <c r="BR25" t="n">
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5793,15 +5947,21 @@
         <v>1.680482806579505</v>
       </c>
       <c r="BO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="n">
         <v>1.475303658148046</v>
       </c>
-      <c r="BP26" t="n">
+      <c r="BQ26" t="n">
         <v>1.980059446894849</v>
       </c>
-      <c r="BQ26" t="n">
+      <c r="BR26" t="n">
         <v>1.680482806579505</v>
       </c>
-      <c r="BR26" t="n">
+      <c r="BS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6005,15 +6165,21 @@
         <v>1.413253123233067</v>
       </c>
       <c r="BO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="n">
         <v>1.742045708993753</v>
       </c>
-      <c r="BP27" t="n">
+      <c r="BQ27" t="n">
         <v>1.652628635096004</v>
       </c>
-      <c r="BQ27" t="n">
+      <c r="BR27" t="n">
         <v>1.413253123233067</v>
       </c>
-      <c r="BR27" t="n">
+      <c r="BS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6217,15 +6383,21 @@
         <v>1.327218474478917</v>
       </c>
       <c r="BO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP28" t="n">
         <v>2.029701901548814</v>
       </c>
-      <c r="BP28" t="n">
+      <c r="BQ28" t="n">
         <v>1.527536329299237</v>
       </c>
-      <c r="BQ28" t="n">
+      <c r="BR28" t="n">
         <v>1.327218474478917</v>
       </c>
-      <c r="BR28" t="n">
+      <c r="BS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6429,15 +6601,21 @@
         <v>1.193275585545798</v>
       </c>
       <c r="BO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP29" t="n">
         <v>2.03802255317953</v>
       </c>
-      <c r="BP29" t="n">
+      <c r="BQ29" t="n">
         <v>1.367335808390227</v>
       </c>
-      <c r="BQ29" t="n">
+      <c r="BR29" t="n">
         <v>1.193275585545798</v>
       </c>
-      <c r="BR29" t="n">
+      <c r="BS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6641,15 +6819,21 @@
         <v>1.197005883033497</v>
       </c>
       <c r="BO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP30" t="n">
         <v>2.171514850975041</v>
       </c>
-      <c r="BP30" t="n">
+      <c r="BQ30" t="n">
         <v>1.358846704285121</v>
       </c>
-      <c r="BQ30" t="n">
+      <c r="BR30" t="n">
         <v>1.197005883033497</v>
       </c>
-      <c r="BR30" t="n">
+      <c r="BS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6853,15 +7037,21 @@
         <v>1.049219410092638</v>
       </c>
       <c r="BO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP31" t="n">
         <v>2.265105807278183</v>
       </c>
-      <c r="BP31" t="n">
+      <c r="BQ31" t="n">
         <v>1.171454285620103</v>
       </c>
-      <c r="BQ31" t="n">
+      <c r="BR31" t="n">
         <v>1.049219410092638</v>
       </c>
-      <c r="BR31" t="n">
+      <c r="BS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7065,15 +7255,21 @@
         <v>1.008592210717592</v>
       </c>
       <c r="BO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP32" t="n">
         <v>2.484260026402902</v>
       </c>
-      <c r="BP32" t="n">
+      <c r="BQ32" t="n">
         <v>1.10215180162336</v>
       </c>
-      <c r="BQ32" t="n">
+      <c r="BR32" t="n">
         <v>1.008592210717592</v>
       </c>
-      <c r="BR32" t="n">
+      <c r="BS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7277,15 +7473,21 @@
         <v>0.9088940270936701</v>
       </c>
       <c r="BO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP33" t="n">
         <v>1.656349121674096</v>
       </c>
-      <c r="BP33" t="n">
+      <c r="BQ33" t="n">
         <v>0.9565421438781344</v>
       </c>
-      <c r="BQ33" t="n">
+      <c r="BR33" t="n">
         <v>0.9088940270936701</v>
       </c>
-      <c r="BR33" t="n">
+      <c r="BS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7489,15 +7691,21 @@
         <v>0.9888874560415329</v>
       </c>
       <c r="BO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP34" t="n">
         <v>2.315168650488671</v>
       </c>
-      <c r="BP34" t="n">
+      <c r="BQ34" t="n">
         <v>1.027409087615829</v>
       </c>
-      <c r="BQ34" t="n">
+      <c r="BR34" t="n">
         <v>0.9888874560415329</v>
       </c>
-      <c r="BR34" t="n">
+      <c r="BS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7701,15 +7909,21 @@
         <v>0.9424813365138037</v>
       </c>
       <c r="BO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP35" t="n">
         <v>2.217426000873501</v>
       </c>
-      <c r="BP35" t="n">
+      <c r="BQ35" t="n">
         <v>0.9538059760529762</v>
       </c>
-      <c r="BQ35" t="n">
+      <c r="BR35" t="n">
         <v>0.9424813365138037</v>
       </c>
-      <c r="BR35" t="n">
+      <c r="BS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7913,15 +8127,21 @@
         <v>1.025410406827114</v>
       </c>
       <c r="BO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP36" t="n">
         <v>2.178768503701294</v>
       </c>
-      <c r="BP36" t="n">
+      <c r="BQ36" t="n">
         <v>1.018016034709318</v>
       </c>
-      <c r="BQ36" t="n">
+      <c r="BR36" t="n">
         <v>1.025410406827114</v>
       </c>
-      <c r="BR36" t="n">
+      <c r="BS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8125,15 +8345,21 @@
         <v>1.098576376467414</v>
       </c>
       <c r="BO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP37" t="n">
         <v>2.152112317269628</v>
       </c>
-      <c r="BP37" t="n">
+      <c r="BQ37" t="n">
         <v>1.068116082939318</v>
       </c>
-      <c r="BQ37" t="n">
+      <c r="BR37" t="n">
         <v>1.098576376467414</v>
       </c>
-      <c r="BR37" t="n">
+      <c r="BS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8337,15 +8563,21 @@
         <v>1.043456708506354</v>
       </c>
       <c r="BO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP38" t="n">
         <v>2.197321013935519</v>
       </c>
-      <c r="BP38" t="n">
+      <c r="BQ38" t="n">
         <v>0.9979093743752908</v>
       </c>
-      <c r="BQ38" t="n">
+      <c r="BR38" t="n">
         <v>1.043456708506354</v>
       </c>
-      <c r="BR38" t="n">
+      <c r="BS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8528,6 +8760,8 @@
       <c r="BP39" t="inlineStr"/>
       <c r="BQ39" t="inlineStr"/>
       <c r="BR39" t="inlineStr"/>
+      <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -8708,6 +8942,8 @@
       <c r="BP40" t="inlineStr"/>
       <c r="BQ40" t="inlineStr"/>
       <c r="BR40" t="inlineStr"/>
+      <c r="BS40" t="inlineStr"/>
+      <c r="BT40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -8888,6 +9124,8 @@
       <c r="BP41" t="inlineStr"/>
       <c r="BQ41" t="inlineStr"/>
       <c r="BR41" t="inlineStr"/>
+      <c r="BS41" t="inlineStr"/>
+      <c r="BT41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -9068,6 +9306,8 @@
       <c r="BP42" t="inlineStr"/>
       <c r="BQ42" t="inlineStr"/>
       <c r="BR42" t="inlineStr"/>
+      <c r="BS42" t="inlineStr"/>
+      <c r="BT42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -9248,6 +9488,8 @@
       <c r="BP43" t="inlineStr"/>
       <c r="BQ43" t="inlineStr"/>
       <c r="BR43" t="inlineStr"/>
+      <c r="BS43" t="inlineStr"/>
+      <c r="BT43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -9428,6 +9670,8 @@
       <c r="BP44" t="inlineStr"/>
       <c r="BQ44" t="inlineStr"/>
       <c r="BR44" t="inlineStr"/>
+      <c r="BS44" t="inlineStr"/>
+      <c r="BT44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -9608,6 +9852,8 @@
       <c r="BP45" t="inlineStr"/>
       <c r="BQ45" t="inlineStr"/>
       <c r="BR45" t="inlineStr"/>
+      <c r="BS45" t="inlineStr"/>
+      <c r="BT45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -9788,6 +10034,8 @@
       <c r="BP46" t="inlineStr"/>
       <c r="BQ46" t="inlineStr"/>
       <c r="BR46" t="inlineStr"/>
+      <c r="BS46" t="inlineStr"/>
+      <c r="BT46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -9968,6 +10216,8 @@
       <c r="BP47" t="inlineStr"/>
       <c r="BQ47" t="inlineStr"/>
       <c r="BR47" t="inlineStr"/>
+      <c r="BS47" t="inlineStr"/>
+      <c r="BT47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -10148,6 +10398,8 @@
       <c r="BP48" t="inlineStr"/>
       <c r="BQ48" t="inlineStr"/>
       <c r="BR48" t="inlineStr"/>
+      <c r="BS48" t="inlineStr"/>
+      <c r="BT48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -10328,6 +10580,8 @@
       <c r="BP49" t="inlineStr"/>
       <c r="BQ49" t="inlineStr"/>
       <c r="BR49" t="inlineStr"/>
+      <c r="BS49" t="inlineStr"/>
+      <c r="BT49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -10508,6 +10762,8 @@
       <c r="BP50" t="inlineStr"/>
       <c r="BQ50" t="inlineStr"/>
       <c r="BR50" t="inlineStr"/>
+      <c r="BS50" t="inlineStr"/>
+      <c r="BT50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -10709,15 +10965,21 @@
         <v>0.3770923473733533</v>
       </c>
       <c r="BO51" t="n">
+        <v>4.255905306156526</v>
+      </c>
+      <c r="BP51" t="n">
         <v>0.3446524787257563</v>
       </c>
-      <c r="BP51" t="n">
+      <c r="BQ51" t="n">
         <v>-0.4169377319634293</v>
       </c>
-      <c r="BQ51" t="n">
+      <c r="BR51" t="n">
         <v>-0.3770923473733533</v>
       </c>
-      <c r="BR51" t="n">
+      <c r="BS51" t="n">
+        <v>4.255905306156526</v>
+      </c>
+      <c r="BT51" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -10921,15 +11183,21 @@
         <v>0.4095282426425036</v>
       </c>
       <c r="BO52" t="n">
+        <v>4.140084406993556</v>
+      </c>
+      <c r="BP52" t="n">
         <v>0.2241600151695922</v>
       </c>
-      <c r="BP52" t="n">
+      <c r="BQ52" t="n">
         <v>-0.4455238771533112</v>
       </c>
-      <c r="BQ52" t="n">
+      <c r="BR52" t="n">
         <v>-0.4095282426425036</v>
       </c>
-      <c r="BR52" t="n">
+      <c r="BS52" t="n">
+        <v>4.140084406993556</v>
+      </c>
+      <c r="BT52" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -11133,15 +11401,21 @@
         <v>0.4107818036861364</v>
       </c>
       <c r="BO53" t="n">
+        <v>4.024263507830585</v>
+      </c>
+      <c r="BP53" t="n">
         <v>0.246199092164533</v>
       </c>
-      <c r="BP53" t="n">
+      <c r="BQ53" t="n">
         <v>-0.4491535456173941</v>
       </c>
-      <c r="BQ53" t="n">
+      <c r="BR53" t="n">
         <v>-0.4107818036861364</v>
       </c>
-      <c r="BR53" t="n">
+      <c r="BS53" t="n">
+        <v>4.024263507830585</v>
+      </c>
+      <c r="BT53" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -11345,15 +11619,21 @@
         <v>0.4547850709309104</v>
       </c>
       <c r="BO54" t="n">
+        <v>3.883442608667615</v>
+      </c>
+      <c r="BP54" t="n">
         <v>0.1790304378825975</v>
       </c>
-      <c r="BP54" t="n">
+      <c r="BQ54" t="n">
         <v>-0.4952833373846508</v>
       </c>
-      <c r="BQ54" t="n">
+      <c r="BR54" t="n">
         <v>-0.4547850709309104</v>
       </c>
-      <c r="BR54" t="n">
+      <c r="BS54" t="n">
+        <v>3.883442608667615</v>
+      </c>
+      <c r="BT54" t="n">
         <v>1.325</v>
       </c>
     </row>
@@ -11557,15 +11837,21 @@
         <v>0.3508216033820859</v>
       </c>
       <c r="BO55" t="n">
+        <v>3.88192190489343</v>
+      </c>
+      <c r="BP55" t="n">
         <v>0.249468146514777</v>
       </c>
-      <c r="BP55" t="n">
+      <c r="BQ55" t="n">
         <v>-0.3878201013744501</v>
       </c>
-      <c r="BQ55" t="n">
+      <c r="BR55" t="n">
         <v>-0.3508216033820859</v>
       </c>
-      <c r="BR55" t="n">
+      <c r="BS55" t="n">
+        <v>3.88192190489343</v>
+      </c>
+      <c r="BT55" t="n">
         <v>1.325</v>
       </c>
     </row>
@@ -11769,15 +12055,21 @@
         <v>0.3773214464686657</v>
       </c>
       <c r="BO56" t="n">
+        <v>3.880401201119244</v>
+      </c>
+      <c r="BP56" t="n">
         <v>0.2605181324856738</v>
       </c>
-      <c r="BP56" t="n">
+      <c r="BQ56" t="n">
         <v>-0.4088265228927437</v>
       </c>
-      <c r="BQ56" t="n">
+      <c r="BR56" t="n">
         <v>-0.3773214464686657</v>
       </c>
-      <c r="BR56" t="n">
+      <c r="BS56" t="n">
+        <v>3.880401201119244</v>
+      </c>
+      <c r="BT56" t="n">
         <v>1.325</v>
       </c>
     </row>
@@ -11981,15 +12273,21 @@
         <v>0.6584849187156864</v>
       </c>
       <c r="BO57" t="n">
+        <v>3.653880497345059</v>
+      </c>
+      <c r="BP57" t="n">
         <v>0.02859534742525027</v>
       </c>
-      <c r="BP57" t="n">
+      <c r="BQ57" t="n">
         <v>-0.685652727094416</v>
       </c>
-      <c r="BQ57" t="n">
+      <c r="BR57" t="n">
         <v>-0.6584849187156864</v>
       </c>
-      <c r="BR57" t="n">
+      <c r="BS57" t="n">
+        <v>3.653880497345059</v>
+      </c>
+      <c r="BT57" t="n">
         <v>1.55</v>
       </c>
     </row>
@@ -12193,15 +12491,21 @@
         <v>0.5931215520374084</v>
       </c>
       <c r="BO58" t="n">
+        <v>3.573533553893907</v>
+      </c>
+      <c r="BP58" t="n">
         <v>-0.06578377562058724</v>
       </c>
-      <c r="BP58" t="n">
+      <c r="BQ58" t="n">
         <v>-0.6181453846839184</v>
       </c>
-      <c r="BQ58" t="n">
+      <c r="BR58" t="n">
         <v>-0.5931215520374084</v>
       </c>
-      <c r="BR58" t="n">
+      <c r="BS58" t="n">
+        <v>3.573533553893907</v>
+      </c>
+      <c r="BT58" t="n">
         <v>1.55</v>
       </c>
     </row>
@@ -12405,15 +12709,21 @@
         <v>0.5792246370129338</v>
       </c>
       <c r="BO59" t="n">
+        <v>3.493186610442754</v>
+      </c>
+      <c r="BP59" t="n">
         <v>-0.07198863562926672</v>
       </c>
-      <c r="BP59" t="n">
+      <c r="BQ59" t="n">
         <v>-0.6027466982847024</v>
       </c>
-      <c r="BQ59" t="n">
+      <c r="BR59" t="n">
         <v>-0.5792246370129338</v>
       </c>
-      <c r="BR59" t="n">
+      <c r="BS59" t="n">
+        <v>3.493186610442754</v>
+      </c>
+      <c r="BT59" t="n">
         <v>1.55</v>
       </c>
     </row>
@@ -12617,15 +12927,21 @@
         <v>0.5833896367017983</v>
       </c>
       <c r="BO60" t="n">
+        <v>3.412839666991601</v>
+      </c>
+      <c r="BP60" t="n">
         <v>-0.1067088766283444</v>
       </c>
-      <c r="BP60" t="n">
+      <c r="BQ60" t="n">
         <v>-0.6037624501821079</v>
       </c>
-      <c r="BQ60" t="n">
+      <c r="BR60" t="n">
         <v>-0.5833896367017983</v>
       </c>
-      <c r="BR60" t="n">
+      <c r="BS60" t="n">
+        <v>3.412839666991601</v>
+      </c>
+      <c r="BT60" t="n">
         <v>1.55</v>
       </c>
     </row>
@@ -12829,15 +13145,21 @@
         <v>0.6315283872379557</v>
       </c>
       <c r="BO61" t="n">
+        <v>3.389677019918727</v>
+      </c>
+      <c r="BP61" t="n">
         <v>-0.1058933912126552</v>
       </c>
-      <c r="BP61" t="n">
+      <c r="BQ61" t="n">
         <v>-0.6524115398205497</v>
       </c>
-      <c r="BQ61" t="n">
+      <c r="BR61" t="n">
         <v>-0.6315283872379557</v>
       </c>
-      <c r="BR61" t="n">
+      <c r="BS61" t="n">
+        <v>3.389677019918727</v>
+      </c>
+      <c r="BT61" t="n">
         <v>1.55</v>
       </c>
     </row>
@@ -13041,15 +13363,21 @@
         <v>0.6494531740005961</v>
       </c>
       <c r="BO62" t="n">
+        <v>3.366514372845852</v>
+      </c>
+      <c r="BP62" t="n">
         <v>-0.1508550888811402</v>
       </c>
-      <c r="BP62" t="n">
+      <c r="BQ62" t="n">
         <v>-0.6627004385779245</v>
       </c>
-      <c r="BQ62" t="n">
+      <c r="BR62" t="n">
         <v>-0.6494531740005961</v>
       </c>
-      <c r="BR62" t="n">
+      <c r="BS62" t="n">
+        <v>3.366514372845852</v>
+      </c>
+      <c r="BT62" t="n">
         <v>1.55</v>
       </c>
     </row>
@@ -13253,15 +13581,21 @@
         <v>0.5643908373517482</v>
       </c>
       <c r="BO63" t="n">
+        <v>3.393351725772978</v>
+      </c>
+      <c r="BP63" t="n">
         <v>-0.1750875796522053</v>
       </c>
-      <c r="BP63" t="n">
+      <c r="BQ63" t="n">
         <v>-0.5816416875625493</v>
       </c>
-      <c r="BQ63" t="n">
+      <c r="BR63" t="n">
         <v>-0.5643908373517482</v>
       </c>
-      <c r="BR63" t="n">
+      <c r="BS63" t="n">
+        <v>3.393351725772978</v>
+      </c>
+      <c r="BT63" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -13465,15 +13799,21 @@
         <v>0.5783069909406958</v>
       </c>
       <c r="BO64" t="n">
+        <v>3.258786607247368</v>
+      </c>
+      <c r="BP64" t="n">
         <v>-0.102050420716667</v>
       </c>
-      <c r="BP64" t="n">
+      <c r="BQ64" t="n">
         <v>-0.5974333969807331</v>
       </c>
-      <c r="BQ64" t="n">
+      <c r="BR64" t="n">
         <v>-0.5783069909406958</v>
       </c>
-      <c r="BR64" t="n">
+      <c r="BS64" t="n">
+        <v>3.258786607247368</v>
+      </c>
+      <c r="BT64" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -13677,15 +14017,21 @@
         <v>0.5836028367590628</v>
       </c>
       <c r="BO65" t="n">
+        <v>3.124221488721758</v>
+      </c>
+      <c r="BP65" t="n">
         <v>-0.1413950098474557</v>
       </c>
-      <c r="BP65" t="n">
+      <c r="BQ65" t="n">
         <v>-0.5988547591342954</v>
       </c>
-      <c r="BQ65" t="n">
+      <c r="BR65" t="n">
         <v>-0.5836028367590628</v>
       </c>
-      <c r="BR65" t="n">
+      <c r="BS65" t="n">
+        <v>3.124221488721758</v>
+      </c>
+      <c r="BT65" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -13889,15 +14235,21 @@
         <v>0.5327562900579607</v>
       </c>
       <c r="BO66" t="n">
+        <v>3.014656370196148</v>
+      </c>
+      <c r="BP66" t="n">
         <v>-0.06229952838490282</v>
       </c>
-      <c r="BP66" t="n">
+      <c r="BQ66" t="n">
         <v>-0.5454062991640288</v>
       </c>
-      <c r="BQ66" t="n">
+      <c r="BR66" t="n">
         <v>-0.5327562900579607</v>
       </c>
-      <c r="BR66" t="n">
+      <c r="BS66" t="n">
+        <v>3.014656370196148</v>
+      </c>
+      <c r="BT66" t="n">
         <v>1.475</v>
       </c>
     </row>
@@ -14101,15 +14453,21 @@
         <v>0.5880410585600029</v>
       </c>
       <c r="BO67" t="n">
+        <v>3.075005407258888</v>
+      </c>
+      <c r="BP67" t="n">
         <v>-0.1616721835763277</v>
       </c>
-      <c r="BP67" t="n">
+      <c r="BQ67" t="n">
         <v>-0.5979129687034905</v>
       </c>
-      <c r="BQ67" t="n">
+      <c r="BR67" t="n">
         <v>-0.5880410585600029</v>
       </c>
-      <c r="BR67" t="n">
+      <c r="BS67" t="n">
+        <v>3.075005407258888</v>
+      </c>
+      <c r="BT67" t="n">
         <v>1.475</v>
       </c>
     </row>
@@ -14313,15 +14671,21 @@
         <v>0.5107857292536346</v>
       </c>
       <c r="BO68" t="n">
+        <v>3.13535444432163</v>
+      </c>
+      <c r="BP68" t="n">
         <v>-0.1079568380401006</v>
       </c>
-      <c r="BP68" t="n">
+      <c r="BQ68" t="n">
         <v>-0.5226930871018853</v>
       </c>
-      <c r="BQ68" t="n">
+      <c r="BR68" t="n">
         <v>-0.5107857292536346</v>
       </c>
-      <c r="BR68" t="n">
+      <c r="BS68" t="n">
+        <v>3.13535444432163</v>
+      </c>
+      <c r="BT68" t="n">
         <v>1.475</v>
       </c>
     </row>
@@ -14525,15 +14889,21 @@
         <v>0.5163723661517148</v>
       </c>
       <c r="BO69" t="n">
+        <v>3.070703481384371</v>
+      </c>
+      <c r="BP69" t="n">
         <v>-0.179417498050978</v>
       </c>
-      <c r="BP69" t="n">
+      <c r="BQ69" t="n">
         <v>-0.5281938919903724</v>
       </c>
-      <c r="BQ69" t="n">
+      <c r="BR69" t="n">
         <v>-0.5163723661517148</v>
       </c>
-      <c r="BR69" t="n">
+      <c r="BS69" t="n">
+        <v>3.070703481384371</v>
+      </c>
+      <c r="BT69" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -14737,15 +15107,21 @@
         <v>0.54899814249687</v>
       </c>
       <c r="BO70" t="n">
+        <v>3.086173627937446</v>
+      </c>
+      <c r="BP70" t="n">
         <v>-0.1877195905614411</v>
       </c>
-      <c r="BP70" t="n">
+      <c r="BQ70" t="n">
         <v>-0.5620570225677231</v>
       </c>
-      <c r="BQ70" t="n">
+      <c r="BR70" t="n">
         <v>-0.54899814249687</v>
       </c>
-      <c r="BR70" t="n">
+      <c r="BS70" t="n">
+        <v>3.086173627937446</v>
+      </c>
+      <c r="BT70" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -14949,15 +15325,21 @@
         <v>0.4808742025269566</v>
       </c>
       <c r="BO71" t="n">
+        <v>3.101643774490522</v>
+      </c>
+      <c r="BP71" t="n">
         <v>-0.07602723989737536</v>
       </c>
-      <c r="BP71" t="n">
+      <c r="BQ71" t="n">
         <v>-0.4972896244781546</v>
       </c>
-      <c r="BQ71" t="n">
+      <c r="BR71" t="n">
         <v>-0.4808742025269566</v>
       </c>
-      <c r="BR71" t="n">
+      <c r="BS71" t="n">
+        <v>3.101643774490522</v>
+      </c>
+      <c r="BT71" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -15161,15 +15543,21 @@
         <v>0.6690837127323856</v>
       </c>
       <c r="BO72" t="n">
+        <v>2.942113921043597</v>
+      </c>
+      <c r="BP72" t="n">
         <v>-0.2732170979425037</v>
       </c>
-      <c r="BP72" t="n">
+      <c r="BQ72" t="n">
         <v>-0.6865007152206319</v>
       </c>
-      <c r="BQ72" t="n">
+      <c r="BR72" t="n">
         <v>-0.6690837127323856</v>
       </c>
-      <c r="BR72" t="n">
+      <c r="BS72" t="n">
+        <v>2.942113921043597</v>
+      </c>
+      <c r="BT72" t="n">
         <v>1.775</v>
       </c>
     </row>
@@ -15373,15 +15761,21 @@
         <v>0.5427161048012368</v>
       </c>
       <c r="BO73" t="n">
+        <v>2.840720570477049</v>
+      </c>
+      <c r="BP73" t="n">
         <v>-0.312843906370188</v>
       </c>
-      <c r="BP73" t="n">
+      <c r="BQ73" t="n">
         <v>-0.5589471841518456</v>
       </c>
-      <c r="BQ73" t="n">
+      <c r="BR73" t="n">
         <v>-0.5427161048012368</v>
       </c>
-      <c r="BR73" t="n">
+      <c r="BS73" t="n">
+        <v>2.840720570477049</v>
+      </c>
+      <c r="BT73" t="n">
         <v>1.775</v>
       </c>
     </row>
@@ -15585,15 +15979,21 @@
         <v>0.5974899988296645</v>
       </c>
       <c r="BO74" t="n">
+        <v>2.7393272199105</v>
+      </c>
+      <c r="BP74" t="n">
         <v>-0.3479634452025528</v>
       </c>
-      <c r="BP74" t="n">
+      <c r="BQ74" t="n">
         <v>-0.6234560262427544</v>
       </c>
-      <c r="BQ74" t="n">
+      <c r="BR74" t="n">
         <v>-0.5974899988296645</v>
       </c>
-      <c r="BR74" t="n">
+      <c r="BS74" t="n">
+        <v>2.7393272199105</v>
+      </c>
+      <c r="BT74" t="n">
         <v>1.775</v>
       </c>
     </row>
@@ -15797,15 +16197,21 @@
         <v>0.6241265268555223</v>
       </c>
       <c r="BO75" t="n">
+        <v>2.712933869343952</v>
+      </c>
+      <c r="BP75" t="n">
         <v>-0.3087568891647343</v>
       </c>
-      <c r="BP75" t="n">
+      <c r="BQ75" t="n">
         <v>-0.6465432643353011</v>
       </c>
-      <c r="BQ75" t="n">
+      <c r="BR75" t="n">
         <v>-0.6241265268555223</v>
       </c>
-      <c r="BR75" t="n">
+      <c r="BS75" t="n">
+        <v>2.712933869343952</v>
+      </c>
+      <c r="BT75" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -16009,15 +16415,21 @@
         <v>0.5698678618859667</v>
       </c>
       <c r="BO76" t="n">
+        <v>2.82454045001022</v>
+      </c>
+      <c r="BP76" t="n">
         <v>-0.2844066097630416</v>
       </c>
-      <c r="BP76" t="n">
+      <c r="BQ76" t="n">
         <v>-0.5928528836825515</v>
       </c>
-      <c r="BQ76" t="n">
+      <c r="BR76" t="n">
         <v>-0.5698678618859667</v>
       </c>
-      <c r="BR76" t="n">
+      <c r="BS76" t="n">
+        <v>2.82454045001022</v>
+      </c>
+      <c r="BT76" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -16221,15 +16633,21 @@
         <v>0.5178208566512783</v>
       </c>
       <c r="BO77" t="n">
+        <v>2.936147030676489</v>
+      </c>
+      <c r="BP77" t="n">
         <v>-0.3249427992502649</v>
       </c>
-      <c r="BP77" t="n">
+      <c r="BQ77" t="n">
         <v>-0.5516892995767193</v>
       </c>
-      <c r="BQ77" t="n">
+      <c r="BR77" t="n">
         <v>-0.5178208566512783</v>
       </c>
-      <c r="BR77" t="n">
+      <c r="BS77" t="n">
+        <v>2.936147030676489</v>
+      </c>
+      <c r="BT77" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -16433,15 +16851,21 @@
         <v>0.6120934657457393</v>
       </c>
       <c r="BO78" t="n">
+        <v>2.872753611342757</v>
+      </c>
+      <c r="BP78" t="n">
         <v>-0.4695126028006187</v>
       </c>
-      <c r="BP78" t="n">
+      <c r="BQ78" t="n">
         <v>-0.6550197473571542</v>
       </c>
-      <c r="BQ78" t="n">
+      <c r="BR78" t="n">
         <v>-0.6120934657457393</v>
       </c>
-      <c r="BR78" t="n">
+      <c r="BS78" t="n">
+        <v>2.872753611342757</v>
+      </c>
+      <c r="BT78" t="n">
         <v>1.875</v>
       </c>
     </row>
@@ -16645,15 +17069,21 @@
         <v>0.4720321118507584</v>
       </c>
       <c r="BO79" t="n">
+        <v>2.938341229061536</v>
+      </c>
+      <c r="BP79" t="n">
         <v>-0.4498691038113263</v>
       </c>
-      <c r="BP79" t="n">
+      <c r="BQ79" t="n">
         <v>-0.5373254700808057</v>
       </c>
-      <c r="BQ79" t="n">
+      <c r="BR79" t="n">
         <v>-0.4720321118507584</v>
       </c>
-      <c r="BR79" t="n">
+      <c r="BS79" t="n">
+        <v>2.938341229061536</v>
+      </c>
+      <c r="BT79" t="n">
         <v>1.875</v>
       </c>
     </row>
@@ -16857,15 +17287,21 @@
         <v>0.3263951783918129</v>
       </c>
       <c r="BO80" t="n">
+        <v>3.003928846780315</v>
+      </c>
+      <c r="BP80" t="n">
         <v>-0.4448270867309885</v>
       </c>
-      <c r="BP80" t="n">
+      <c r="BQ80" t="n">
         <v>-0.4104433875257618</v>
       </c>
-      <c r="BQ80" t="n">
+      <c r="BR80" t="n">
         <v>-0.3263951783918129</v>
       </c>
-      <c r="BR80" t="n">
+      <c r="BS80" t="n">
+        <v>3.003928846780315</v>
+      </c>
+      <c r="BT80" t="n">
         <v>1.875</v>
       </c>
     </row>
@@ -17069,15 +17505,21 @@
         <v>0.5236595888839861</v>
       </c>
       <c r="BO81" t="n">
+        <v>2.844516464499094</v>
+      </c>
+      <c r="BP81" t="n">
         <v>-0.6499643146948617</v>
       </c>
-      <c r="BP81" t="n">
+      <c r="BQ81" t="n">
         <v>-0.6111259845451051</v>
       </c>
-      <c r="BQ81" t="n">
+      <c r="BR81" t="n">
         <v>-0.5236595888839861</v>
       </c>
-      <c r="BR81" t="n">
+      <c r="BS81" t="n">
+        <v>2.844516464499094</v>
+      </c>
+      <c r="BT81" t="n">
         <v>2.1</v>
       </c>
     </row>
@@ -17281,15 +17723,21 @@
         <v>0.5857728641402833</v>
       </c>
       <c r="BO82" t="n">
+        <v>2.929948848217006</v>
+      </c>
+      <c r="BP82" t="n">
         <v>-0.6716957427553563</v>
       </c>
-      <c r="BP82" t="n">
+      <c r="BQ82" t="n">
         <v>-0.6713652509662755</v>
       </c>
-      <c r="BQ82" t="n">
+      <c r="BR82" t="n">
         <v>-0.5857728641402833</v>
       </c>
-      <c r="BR82" t="n">
+      <c r="BS82" t="n">
+        <v>2.929948848217006</v>
+      </c>
+      <c r="BT82" t="n">
         <v>2.1</v>
       </c>
     </row>
@@ -17493,15 +17941,21 @@
         <v>0.3749187667538079</v>
       </c>
       <c r="BO83" t="n">
+        <v>3.015381231934917</v>
+      </c>
+      <c r="BP83" t="n">
         <v>-0.637538172831958</v>
       </c>
-      <c r="BP83" t="n">
+      <c r="BQ83" t="n">
         <v>-0.4769933552732193</v>
       </c>
-      <c r="BQ83" t="n">
+      <c r="BR83" t="n">
         <v>-0.3749187667538079</v>
       </c>
-      <c r="BR83" t="n">
+      <c r="BS83" t="n">
+        <v>3.015381231934917</v>
+      </c>
+      <c r="BT83" t="n">
         <v>2.1</v>
       </c>
     </row>
@@ -17705,15 +18159,21 @@
         <v>0.3652490865259099</v>
       </c>
       <c r="BO84" t="n">
+        <v>3.050813615652828</v>
+      </c>
+      <c r="BP84" t="n">
         <v>-0.6833064589755717</v>
       </c>
-      <c r="BP84" t="n">
+      <c r="BQ84" t="n">
         <v>-0.4819880882572714</v>
       </c>
-      <c r="BQ84" t="n">
+      <c r="BR84" t="n">
         <v>-0.3652490865259099</v>
       </c>
-      <c r="BR84" t="n">
+      <c r="BS84" t="n">
+        <v>3.050813615652828</v>
+      </c>
+      <c r="BT84" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -17917,15 +18377,21 @@
         <v>0.3454390114405148</v>
       </c>
       <c r="BO85" t="n">
+        <v>2.824161283789361</v>
+      </c>
+      <c r="BP85" t="n">
         <v>-0.7147053866540101</v>
       </c>
-      <c r="BP85" t="n">
+      <c r="BQ85" t="n">
         <v>-0.4626385583175381</v>
       </c>
-      <c r="BQ85" t="n">
+      <c r="BR85" t="n">
         <v>-0.3454390114405148</v>
       </c>
-      <c r="BR85" t="n">
+      <c r="BS85" t="n">
+        <v>2.824161283789361</v>
+      </c>
+      <c r="BT85" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -18129,15 +18595,21 @@
         <v>0.4286663296874695</v>
       </c>
       <c r="BO86" t="n">
+        <v>2.597508951925894</v>
+      </c>
+      <c r="BP86" t="n">
         <v>-0.6541240296901865</v>
       </c>
-      <c r="BP86" t="n">
+      <c r="BQ86" t="n">
         <v>-0.5457798775285962</v>
       </c>
-      <c r="BQ86" t="n">
+      <c r="BR86" t="n">
         <v>-0.4286663296874695</v>
       </c>
-      <c r="BR86" t="n">
+      <c r="BS86" t="n">
+        <v>2.597508951925894</v>
+      </c>
+      <c r="BT86" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -18341,15 +18813,21 @@
         <v>0.7543237955234237</v>
       </c>
       <c r="BO87" t="n">
+        <v>2.320856620062427</v>
+      </c>
+      <c r="BP87" t="n">
         <v>-0.6531059077624077</v>
       </c>
-      <c r="BP87" t="n">
+      <c r="BQ87" t="n">
         <v>-0.8597024655646215</v>
       </c>
-      <c r="BQ87" t="n">
+      <c r="BR87" t="n">
         <v>-0.7543237955234237</v>
       </c>
-      <c r="BR87" t="n">
+      <c r="BS87" t="n">
+        <v>2.320856620062427</v>
+      </c>
+      <c r="BT87" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -18553,15 +19031,21 @@
         <v>0.9782258603229266</v>
       </c>
       <c r="BO88" t="n">
+        <v>2.402666088497967</v>
+      </c>
+      <c r="BP88" t="n">
         <v>-0.626357790395961</v>
       </c>
-      <c r="BP88" t="n">
+      <c r="BQ88" t="n">
         <v>-1.070378693616266</v>
       </c>
-      <c r="BQ88" t="n">
+      <c r="BR88" t="n">
         <v>-0.9782258603229266</v>
       </c>
-      <c r="BR88" t="n">
+      <c r="BS88" t="n">
+        <v>2.402666088497967</v>
+      </c>
+      <c r="BT88" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -18765,15 +19249,21 @@
         <v>1.054943769786292</v>
       </c>
       <c r="BO89" t="n">
+        <v>2.484475556933508</v>
+      </c>
+      <c r="BP89" t="n">
         <v>-0.6525079105374216</v>
       </c>
-      <c r="BP89" t="n">
+      <c r="BQ89" t="n">
         <v>-1.143966323657378</v>
       </c>
-      <c r="BQ89" t="n">
+      <c r="BR89" t="n">
         <v>-1.054943769786292</v>
       </c>
-      <c r="BR89" t="n">
+      <c r="BS89" t="n">
+        <v>2.484475556933508</v>
+      </c>
+      <c r="BT89" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -18977,15 +19467,21 @@
         <v>0.6441552324308717</v>
       </c>
       <c r="BO90" t="n">
+        <v>3.041285025369048</v>
+      </c>
+      <c r="BP90" t="n">
         <v>-0.1228668783702915</v>
       </c>
-      <c r="BP90" t="n">
+      <c r="BQ90" t="n">
         <v>-0.7190775702824512</v>
       </c>
-      <c r="BQ90" t="n">
+      <c r="BR90" t="n">
         <v>-0.6441552324308717</v>
       </c>
-      <c r="BR90" t="n">
+      <c r="BS90" t="n">
+        <v>3.041285025369048</v>
+      </c>
+      <c r="BT90" t="n">
         <v>1.725</v>
       </c>
     </row>
@@ -19189,15 +19685,21 @@
         <v>0.5802319120630901</v>
       </c>
       <c r="BO91" t="n">
+        <v>3.325612742533471</v>
+      </c>
+      <c r="BP91" t="n">
         <v>-0.07555039191765567</v>
       </c>
-      <c r="BP91" t="n">
+      <c r="BQ91" t="n">
         <v>-0.6414786546839584</v>
       </c>
-      <c r="BQ91" t="n">
+      <c r="BR91" t="n">
         <v>-0.5802319120630901</v>
       </c>
-      <c r="BR91" t="n">
+      <c r="BS91" t="n">
+        <v>3.325612742533471</v>
+      </c>
+      <c r="BT91" t="n">
         <v>1.725</v>
       </c>
     </row>
@@ -19401,15 +19903,21 @@
         <v>0.5845594595491836</v>
       </c>
       <c r="BO92" t="n">
+        <v>3.609940459697894</v>
+      </c>
+      <c r="BP92" t="n">
         <v>-0.09459997239929741</v>
       </c>
-      <c r="BP92" t="n">
+      <c r="BQ92" t="n">
         <v>-0.6261990526313177</v>
       </c>
-      <c r="BQ92" t="n">
+      <c r="BR92" t="n">
         <v>-0.5845594595491836</v>
       </c>
-      <c r="BR92" t="n">
+      <c r="BS92" t="n">
+        <v>3.609940459697894</v>
+      </c>
+      <c r="BT92" t="n">
         <v>1.725</v>
       </c>
     </row>
@@ -19613,15 +20121,21 @@
         <v>0.7000272085033838</v>
       </c>
       <c r="BO93" t="n">
+        <v>3.819268176862318</v>
+      </c>
+      <c r="BP93" t="n">
         <v>-0.1722231685725684</v>
       </c>
-      <c r="BP93" t="n">
+      <c r="BQ93" t="n">
         <v>-0.7144972970053722</v>
       </c>
-      <c r="BQ93" t="n">
+      <c r="BR93" t="n">
         <v>-0.7000272085033838</v>
       </c>
-      <c r="BR93" t="n">
+      <c r="BS93" t="n">
+        <v>3.819268176862318</v>
+      </c>
+      <c r="BT93" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -19825,15 +20339,21 @@
         <v>0.2473613965151125</v>
       </c>
       <c r="BO94" t="n">
+        <v>4.260136841857606</v>
+      </c>
+      <c r="BP94" t="n">
         <v>0.04940485349585821</v>
       </c>
-      <c r="BP94" t="n">
+      <c r="BQ94" t="n">
         <v>-0.2617331755690679</v>
       </c>
-      <c r="BQ94" t="n">
+      <c r="BR94" t="n">
         <v>-0.2473613965151125</v>
       </c>
-      <c r="BR94" t="n">
+      <c r="BS94" t="n">
+        <v>4.260136841857606</v>
+      </c>
+      <c r="BT94" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -20037,15 +20557,21 @@
         <v>0.2600099330294321</v>
       </c>
       <c r="BO95" t="n">
+        <v>4.701005506852893</v>
+      </c>
+      <c r="BP95" t="n">
         <v>0.235890861119664</v>
       </c>
-      <c r="BP95" t="n">
+      <c r="BQ95" t="n">
         <v>-0.2422402147406673</v>
       </c>
-      <c r="BQ95" t="n">
+      <c r="BR95" t="n">
         <v>-0.2600099330294321</v>
       </c>
-      <c r="BR95" t="n">
+      <c r="BS95" t="n">
+        <v>4.701005506852893</v>
+      </c>
+      <c r="BT95" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -20249,15 +20775,21 @@
         <v>0.2893077598603906</v>
       </c>
       <c r="BO96" t="n">
+        <v>5.166874171848182</v>
+      </c>
+      <c r="BP96" t="n">
         <v>0.09870872282092225</v>
       </c>
-      <c r="BP96" t="n">
+      <c r="BQ96" t="n">
         <v>-0.2482506036643681</v>
       </c>
-      <c r="BQ96" t="n">
+      <c r="BR96" t="n">
         <v>-0.2893077598603906</v>
       </c>
-      <c r="BR96" t="n">
+      <c r="BS96" t="n">
+        <v>5.166874171848182</v>
+      </c>
+      <c r="BT96" t="n">
         <v>1.775</v>
       </c>
     </row>
@@ -20461,15 +20993,21 @@
         <v>0.16993620712216</v>
       </c>
       <c r="BO97" t="n">
+        <v>5.244846646904973</v>
+      </c>
+      <c r="BP97" t="n">
         <v>0.1066573776479491</v>
       </c>
-      <c r="BP97" t="n">
+      <c r="BQ97" t="n">
         <v>-0.08450440345808707</v>
       </c>
-      <c r="BQ97" t="n">
+      <c r="BR97" t="n">
         <v>-0.16993620712216</v>
       </c>
-      <c r="BR97" t="n">
+      <c r="BS97" t="n">
+        <v>5.244846646904973</v>
+      </c>
+      <c r="BT97" t="n">
         <v>1.775</v>
       </c>
     </row>
@@ -20673,15 +21211,21 @@
         <v>0.4180562222999278</v>
       </c>
       <c r="BO98" t="n">
+        <v>5.322819121961764</v>
+      </c>
+      <c r="BP98" t="n">
         <v>0.7202279291567311</v>
       </c>
-      <c r="BP98" t="n">
+      <c r="BQ98" t="n">
         <v>-0.3102878652874712</v>
       </c>
-      <c r="BQ98" t="n">
+      <c r="BR98" t="n">
         <v>-0.4180562222999278</v>
       </c>
-      <c r="BR98" t="n">
+      <c r="BS98" t="n">
+        <v>5.322819121961764</v>
+      </c>
+      <c r="BT98" t="n">
         <v>1.775</v>
       </c>
     </row>
@@ -20885,15 +21429,21 @@
         <v>0.7927658245582458</v>
       </c>
       <c r="BO99" t="n">
+        <v>4.975791597018555</v>
+      </c>
+      <c r="BP99" t="n">
         <v>0.2151097333138958</v>
       </c>
-      <c r="BP99" t="n">
+      <c r="BQ99" t="n">
         <v>-0.6520471643929193</v>
       </c>
-      <c r="BQ99" t="n">
+      <c r="BR99" t="n">
         <v>-0.7927658245582458</v>
       </c>
-      <c r="BR99" t="n">
+      <c r="BS99" t="n">
+        <v>4.975791597018555</v>
+      </c>
+      <c r="BT99" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -21097,15 +21647,21 @@
         <v>0.8317074360447991</v>
       </c>
       <c r="BO100" t="n">
+        <v>5.385840946123894</v>
+      </c>
+      <c r="BP100" t="n">
         <v>0.1326077100639216</v>
       </c>
-      <c r="BP100" t="n">
+      <c r="BQ100" t="n">
         <v>-0.6755496641022631</v>
       </c>
-      <c r="BQ100" t="n">
+      <c r="BR100" t="n">
         <v>-0.8317074360447991</v>
       </c>
-      <c r="BR100" t="n">
+      <c r="BS100" t="n">
+        <v>5.385840946123894</v>
+      </c>
+      <c r="BT100" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -21309,15 +21865,21 @@
         <v>0.7929188133382694</v>
       </c>
       <c r="BO101" t="n">
+        <v>5.795890295229232</v>
+      </c>
+      <c r="BP101" t="n">
         <v>-0.3069645664649063</v>
       </c>
-      <c r="BP101" t="n">
+      <c r="BQ101" t="n">
         <v>-0.6004211708093328</v>
       </c>
-      <c r="BQ101" t="n">
+      <c r="BR101" t="n">
         <v>-0.7929188133382694</v>
       </c>
-      <c r="BR101" t="n">
+      <c r="BS101" t="n">
+        <v>5.795890295229232</v>
+      </c>
+      <c r="BT101" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -21521,15 +22083,21 @@
         <v>0.9396014410524818</v>
       </c>
       <c r="BO102" t="n">
+        <v>6.080939644334571</v>
+      </c>
+      <c r="BP102" t="n">
         <v>-0.4313380035908503</v>
       </c>
-      <c r="BP102" t="n">
+      <c r="BQ102" t="n">
         <v>-0.7295897640796825</v>
       </c>
-      <c r="BQ102" t="n">
+      <c r="BR102" t="n">
         <v>-0.9396014410524818</v>
       </c>
-      <c r="BR102" t="n">
+      <c r="BS102" t="n">
+        <v>6.080939644334571</v>
+      </c>
+      <c r="BT102" t="n">
         <v>2.325</v>
       </c>
     </row>
@@ -21733,15 +22301,21 @@
         <v>0.8299078378078069</v>
       </c>
       <c r="BO103" t="n">
+        <v>6.103649263916878</v>
+      </c>
+      <c r="BP103" t="n">
         <v>-0.4305553458740301</v>
       </c>
-      <c r="BP103" t="n">
+      <c r="BQ103" t="n">
         <v>-0.5673390910592766</v>
       </c>
-      <c r="BQ103" t="n">
+      <c r="BR103" t="n">
         <v>-0.8299078378078069</v>
       </c>
-      <c r="BR103" t="n">
+      <c r="BS103" t="n">
+        <v>6.103649263916878</v>
+      </c>
+      <c r="BT103" t="n">
         <v>2.325</v>
       </c>
     </row>
@@ -21945,15 +22519,21 @@
         <v>0.649268716288252</v>
       </c>
       <c r="BO104" t="n">
+        <v>6.126358883499182</v>
+      </c>
+      <c r="BP104" t="n">
         <v>-0.4299580287399716</v>
       </c>
-      <c r="BP104" t="n">
+      <c r="BQ104" t="n">
         <v>-0.3235788487098654</v>
       </c>
-      <c r="BQ104" t="n">
+      <c r="BR104" t="n">
         <v>-0.649268716288252</v>
       </c>
-      <c r="BR104" t="n">
+      <c r="BS104" t="n">
+        <v>6.126358883499182</v>
+      </c>
+      <c r="BT104" t="n">
         <v>2.325</v>
       </c>
     </row>
@@ -22157,15 +22737,21 @@
         <v>0.897704640200468</v>
       </c>
       <c r="BO105" t="n">
+        <v>5.924068503081489</v>
+      </c>
+      <c r="BP105" t="n">
         <v>0.1494100054544121</v>
       </c>
-      <c r="BP105" t="n">
+      <c r="BQ105" t="n">
         <v>-0.5473281559976395</v>
       </c>
-      <c r="BQ105" t="n">
+      <c r="BR105" t="n">
         <v>-0.897704640200468</v>
       </c>
-      <c r="BR105" t="n">
+      <c r="BS105" t="n">
+        <v>5.924068503081489</v>
+      </c>
+      <c r="BT105" t="n">
         <v>2.55</v>
       </c>
     </row>
@@ -22369,15 +22955,21 @@
         <v>1.029792648533052</v>
       </c>
       <c r="BO106" t="n">
+        <v>5.356151975728307</v>
+      </c>
+      <c r="BP106" t="n">
         <v>0.1125167273004055</v>
       </c>
-      <c r="BP106" t="n">
+      <c r="BQ106" t="n">
         <v>-0.6988126078182479</v>
       </c>
-      <c r="BQ106" t="n">
+      <c r="BR106" t="n">
         <v>-1.029792648533052</v>
       </c>
-      <c r="BR106" t="n">
+      <c r="BS106" t="n">
+        <v>5.356151975728307</v>
+      </c>
+      <c r="BT106" t="n">
         <v>2.55</v>
       </c>
     </row>
@@ -22581,15 +23173,21 @@
         <v>1.092680297755599</v>
       </c>
       <c r="BO107" t="n">
+        <v>4.788235448375124</v>
+      </c>
+      <c r="BP107" t="n">
         <v>-0.08849377273253056</v>
       </c>
-      <c r="BP107" t="n">
+      <c r="BQ107" t="n">
         <v>-0.7667715770265648</v>
       </c>
-      <c r="BQ107" t="n">
+      <c r="BR107" t="n">
         <v>-1.092680297755599</v>
       </c>
-      <c r="BR107" t="n">
+      <c r="BS107" t="n">
+        <v>4.788235448375124</v>
+      </c>
+      <c r="BT107" t="n">
         <v>2.55</v>
       </c>
     </row>
@@ -22793,15 +23391,21 @@
         <v>0.6088838816673401</v>
       </c>
       <c r="BO108" t="n">
+        <v>4.645318921021942</v>
+      </c>
+      <c r="BP108" t="n">
         <v>0.2835831421703183</v>
       </c>
-      <c r="BP108" t="n">
+      <c r="BQ108" t="n">
         <v>-0.2602548194008265</v>
       </c>
-      <c r="BQ108" t="n">
+      <c r="BR108" t="n">
         <v>-0.6088838816673401</v>
       </c>
-      <c r="BR108" t="n">
+      <c r="BS108" t="n">
+        <v>4.645318921021942</v>
+      </c>
+      <c r="BT108" t="n">
         <v>2.125</v>
       </c>
     </row>
@@ -23005,15 +23609,21 @@
         <v>0.9098876139779313</v>
       </c>
       <c r="BO109" t="n">
+        <v>3.884276789046202</v>
+      </c>
+      <c r="BP109" t="n">
         <v>0.1065514719342593</v>
       </c>
-      <c r="BP109" t="n">
+      <c r="BQ109" t="n">
         <v>-0.6379341439440587</v>
       </c>
-      <c r="BQ109" t="n">
+      <c r="BR109" t="n">
         <v>-0.9098876139779313</v>
       </c>
-      <c r="BR109" t="n">
+      <c r="BS109" t="n">
+        <v>3.884276789046202</v>
+      </c>
+      <c r="BT109" t="n">
         <v>2.125</v>
       </c>
     </row>
@@ -23217,15 +23827,21 @@
         <v>1.040655901745803</v>
       </c>
       <c r="BO110" t="n">
+        <v>3.123234657070464</v>
+      </c>
+      <c r="BP110" t="n">
         <v>-0.2152182761912893</v>
       </c>
-      <c r="BP110" t="n">
+      <c r="BQ110" t="n">
         <v>-0.8020789608863717</v>
       </c>
-      <c r="BQ110" t="n">
+      <c r="BR110" t="n">
         <v>-1.040655901745803</v>
       </c>
-      <c r="BR110" t="n">
+      <c r="BS110" t="n">
+        <v>3.123234657070464</v>
+      </c>
+      <c r="BT110" t="n">
         <v>2.125</v>
       </c>
     </row>
@@ -23429,15 +24045,21 @@
         <v>0.3317794386270241</v>
       </c>
       <c r="BO111" t="n">
+        <v>3.687192525094725</v>
+      </c>
+      <c r="BP111" t="n">
         <v>1.047778748638951</v>
       </c>
-      <c r="BP111" t="n">
+      <c r="BQ111" t="n">
         <v>0.5796142810416407</v>
       </c>
-      <c r="BQ111" t="n">
+      <c r="BR111" t="n">
         <v>0.3317794386270241</v>
       </c>
-      <c r="BR111" t="n">
+      <c r="BS111" t="n">
+        <v>3.687192525094725</v>
+      </c>
+      <c r="BT111" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -23641,15 +24263,21 @@
         <v>0.1126386067979185</v>
       </c>
       <c r="BO112" t="n">
+        <v>3.309421218883931</v>
+      </c>
+      <c r="BP112" t="n">
         <v>0.8309973430678808</v>
       </c>
-      <c r="BP112" t="n">
+      <c r="BQ112" t="n">
         <v>0.3229161409421817</v>
       </c>
-      <c r="BQ112" t="n">
+      <c r="BR112" t="n">
         <v>0.1126386067979185</v>
       </c>
-      <c r="BR112" t="n">
+      <c r="BS112" t="n">
+        <v>3.309421218883931</v>
+      </c>
+      <c r="BT112" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -23853,15 +24481,21 @@
         <v>0.1269849129107302</v>
       </c>
       <c r="BO113" t="n">
+        <v>2.931649912673136</v>
+      </c>
+      <c r="BP113" t="n">
         <v>0.6441854010532626</v>
       </c>
-      <c r="BP113" t="n">
+      <c r="BQ113" t="n">
         <v>0.3420397326592799</v>
       </c>
-      <c r="BQ113" t="n">
+      <c r="BR113" t="n">
         <v>0.1269849129107302</v>
       </c>
-      <c r="BR113" t="n">
+      <c r="BS113" t="n">
+        <v>2.931649912673136</v>
+      </c>
+      <c r="BT113" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -24065,15 +24699,21 @@
         <v>0.3864800292424573</v>
       </c>
       <c r="BO114" t="n">
+        <v>2.803878606462343</v>
+      </c>
+      <c r="BP114" t="n">
         <v>0.722944334268564</v>
       </c>
-      <c r="BP114" t="n">
+      <c r="BQ114" t="n">
         <v>0.6088831242256783</v>
       </c>
-      <c r="BQ114" t="n">
+      <c r="BR114" t="n">
         <v>0.3864800292424573</v>
       </c>
-      <c r="BR114" t="n">
+      <c r="BS114" t="n">
+        <v>2.803878606462343</v>
+      </c>
+      <c r="BT114" t="n">
         <v>0.55</v>
       </c>
     </row>
@@ -24277,15 +24917,21 @@
         <v>0.2606334030967925</v>
       </c>
       <c r="BO115" t="n">
+        <v>2.675517011195956</v>
+      </c>
+      <c r="BP115" t="n">
         <v>0.622254588134338</v>
       </c>
-      <c r="BP115" t="n">
+      <c r="BQ115" t="n">
         <v>0.4502227387266875</v>
       </c>
-      <c r="BQ115" t="n">
+      <c r="BR115" t="n">
         <v>0.2606334030967925</v>
       </c>
-      <c r="BR115" t="n">
+      <c r="BS115" t="n">
+        <v>2.675517011195956</v>
+      </c>
+      <c r="BT115" t="n">
         <v>0.55</v>
       </c>
     </row>
@@ -24489,15 +25135,21 @@
         <v>0.3024534848085052</v>
       </c>
       <c r="BO116" t="n">
+        <v>2.54715541592957</v>
+      </c>
+      <c r="BP116" t="n">
         <v>0.566274437540689</v>
       </c>
-      <c r="BP116" t="n">
+      <c r="BQ116" t="n">
         <v>0.5073051431126181</v>
       </c>
-      <c r="BQ116" t="n">
+      <c r="BR116" t="n">
         <v>0.3024534848085052</v>
       </c>
-      <c r="BR116" t="n">
+      <c r="BS116" t="n">
+        <v>2.54715541592957</v>
+      </c>
+      <c r="BT116" t="n">
         <v>0.55</v>
       </c>
     </row>
@@ -24701,15 +25353,21 @@
         <v>0.05570934161483787</v>
       </c>
       <c r="BO117" t="n">
+        <v>2.218793820663183</v>
+      </c>
+      <c r="BP117" t="n">
         <v>0.169940158325296</v>
       </c>
-      <c r="BP117" t="n">
+      <c r="BQ117" t="n">
         <v>0.2489962847057179</v>
       </c>
-      <c r="BQ117" t="n">
+      <c r="BR117" t="n">
         <v>0.05570934161483787</v>
       </c>
-      <c r="BR117" t="n">
+      <c r="BS117" t="n">
+        <v>2.218793820663183</v>
+      </c>
+      <c r="BT117" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -24913,15 +25571,21 @@
         <v>0.1019100697473245</v>
       </c>
       <c r="BO118" t="n">
+        <v>2.238590050786532</v>
+      </c>
+      <c r="BP118" t="n">
         <v>-0.1184772839061273</v>
       </c>
-      <c r="BP118" t="n">
+      <c r="BQ118" t="n">
         <v>0.05702173352854478</v>
       </c>
-      <c r="BQ118" t="n">
+      <c r="BR118" t="n">
         <v>-0.1019100697473245</v>
       </c>
-      <c r="BR118" t="n">
+      <c r="BS118" t="n">
+        <v>2.238590050786532</v>
+      </c>
+      <c r="BT118" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -25125,15 +25789,21 @@
         <v>0.04900060066864909</v>
       </c>
       <c r="BO119" t="n">
+        <v>2.258386280909882</v>
+      </c>
+      <c r="BP119" t="n">
         <v>-0.09365363254396231</v>
       </c>
-      <c r="BP119" t="n">
+      <c r="BQ119" t="n">
         <v>0.1271405260245888</v>
       </c>
-      <c r="BQ119" t="n">
+      <c r="BR119" t="n">
         <v>-0.04900060066864909</v>
       </c>
-      <c r="BR119" t="n">
+      <c r="BS119" t="n">
+        <v>2.258386280909882</v>
+      </c>
+      <c r="BT119" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -25337,15 +26007,21 @@
         <v>0.1036241909008236</v>
       </c>
       <c r="BO120" t="n">
+        <v>2.203182511033231</v>
+      </c>
+      <c r="BP120" t="n">
         <v>-0.2566200535836649</v>
       </c>
-      <c r="BP120" t="n">
+      <c r="BQ120" t="n">
         <v>0.07942636193457264</v>
       </c>
-      <c r="BQ120" t="n">
+      <c r="BR120" t="n">
         <v>-0.1036241909008236</v>
       </c>
-      <c r="BR120" t="n">
+      <c r="BS120" t="n">
+        <v>2.203182511033231</v>
+      </c>
+      <c r="BT120" t="n">
         <v>0.825</v>
       </c>
     </row>
@@ -25549,15 +26225,21 @@
         <v>0.004723898188808473</v>
       </c>
       <c r="BO121" t="n">
+        <v>2.228224140470069</v>
+      </c>
+      <c r="BP121" t="n">
         <v>-0.1385739058227677</v>
       </c>
-      <c r="BP121" t="n">
+      <c r="BQ121" t="n">
         <v>0.2164823042146353</v>
       </c>
-      <c r="BQ121" t="n">
+      <c r="BR121" t="n">
         <v>0.004723898188808473</v>
       </c>
-      <c r="BR121" t="n">
+      <c r="BS121" t="n">
+        <v>2.228224140470069</v>
+      </c>
+      <c r="BT121" t="n">
         <v>0.825</v>
       </c>
     </row>
@@ -25761,15 +26443,21 @@
         <v>0.07745131922660298</v>
       </c>
       <c r="BO122" t="n">
+        <v>2.253265769906909</v>
+      </c>
+      <c r="BP122" t="n">
         <v>-0.01047861287929541</v>
       </c>
-      <c r="BP122" t="n">
+      <c r="BQ122" t="n">
         <v>0.3075553733946677</v>
       </c>
-      <c r="BQ122" t="n">
+      <c r="BR122" t="n">
         <v>0.07745131922660298</v>
       </c>
-      <c r="BR122" t="n">
+      <c r="BS122" t="n">
+        <v>2.253265769906909</v>
+      </c>
+      <c r="BT122" t="n">
         <v>0.825</v>
       </c>
     </row>
@@ -25973,15 +26661,21 @@
         <v>0.04762159738228922</v>
       </c>
       <c r="BO123" t="n">
+        <v>2.103307399343747</v>
+      </c>
+      <c r="BP123" t="n">
         <v>-0.1882562290648451</v>
       </c>
-      <c r="BP123" t="n">
+      <c r="BQ123" t="n">
         <v>0.2021583558030162</v>
       </c>
-      <c r="BQ123" t="n">
+      <c r="BR123" t="n">
         <v>-0.04762159738228922</v>
       </c>
-      <c r="BR123" t="n">
+      <c r="BS123" t="n">
+        <v>2.103307399343747</v>
+      </c>
+      <c r="BT123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26185,15 +26879,21 @@
         <v>0.06805768557000891</v>
       </c>
       <c r="BO124" t="n">
+        <v>2.216110357560003</v>
+      </c>
+      <c r="BP124" t="n">
         <v>-0.1615013821669484</v>
       </c>
-      <c r="BP124" t="n">
+      <c r="BQ124" t="n">
         <v>0.1748478273896794</v>
       </c>
-      <c r="BQ124" t="n">
+      <c r="BR124" t="n">
         <v>-0.06805768557000891</v>
       </c>
-      <c r="BR124" t="n">
+      <c r="BS124" t="n">
+        <v>2.216110357560003</v>
+      </c>
+      <c r="BT124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26397,15 +27097,21 @@
         <v>0.06114120730546679</v>
       </c>
       <c r="BO125" t="n">
+        <v>2.328913315776258</v>
+      </c>
+      <c r="BP125" t="n">
         <v>-0.03282151483747631</v>
       </c>
-      <c r="BP125" t="n">
+      <c r="BQ125" t="n">
         <v>0.1854122613787603</v>
       </c>
-      <c r="BQ125" t="n">
+      <c r="BR125" t="n">
         <v>-0.06114120730546679</v>
       </c>
-      <c r="BR125" t="n">
+      <c r="BS125" t="n">
+        <v>2.328913315776258</v>
+      </c>
+      <c r="BT125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26609,15 +27315,21 @@
         <v>0.1194809512570816</v>
       </c>
       <c r="BO126" t="n">
+        <v>2.341716273992513</v>
+      </c>
+      <c r="BP126" t="n">
         <v>-0.01442673121511762</v>
       </c>
-      <c r="BP126" t="n">
+      <c r="BQ126" t="n">
         <v>0.1446194807676053</v>
       </c>
-      <c r="BQ126" t="n">
+      <c r="BR126" t="n">
         <v>-0.1194809512570816</v>
       </c>
-      <c r="BR126" t="n">
+      <c r="BS126" t="n">
+        <v>2.341716273992513</v>
+      </c>
+      <c r="BT126" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -26821,15 +27533,21 @@
         <v>0.001268909224958925</v>
       </c>
       <c r="BO127" t="n">
+        <v>2.364496391732909</v>
+      </c>
+      <c r="BP127" t="n">
         <v>0.006026933325793404</v>
       </c>
-      <c r="BP127" t="n">
+      <c r="BQ127" t="n">
         <v>0.3045966431268536</v>
       </c>
-      <c r="BQ127" t="n">
+      <c r="BR127" t="n">
         <v>-0.001268909224958925</v>
       </c>
-      <c r="BR127" t="n">
+      <c r="BS127" t="n">
+        <v>2.364496391732909</v>
+      </c>
+      <c r="BT127" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -27033,15 +27751,21 @@
         <v>0.100897213856791</v>
       </c>
       <c r="BO128" t="n">
+        <v>2.387276509473304</v>
+      </c>
+      <c r="BP128" t="n">
         <v>0.01163442614375487</v>
       </c>
-      <c r="BP128" t="n">
+      <c r="BQ128" t="n">
         <v>0.4382369741332766</v>
       </c>
-      <c r="BQ128" t="n">
+      <c r="BR128" t="n">
         <v>0.100897213856791</v>
       </c>
-      <c r="BR128" t="n">
+      <c r="BS128" t="n">
+        <v>2.387276509473304</v>
+      </c>
+      <c r="BT128" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -27245,15 +27969,21 @@
         <v>0.1877597470144752</v>
       </c>
       <c r="BO129" t="n">
+        <v>2.2600566272137</v>
+      </c>
+      <c r="BP129" t="n">
         <v>-0.09346311810311847</v>
       </c>
-      <c r="BP129" t="n">
+      <c r="BQ129" t="n">
         <v>0.1140335016102454</v>
       </c>
-      <c r="BQ129" t="n">
+      <c r="BR129" t="n">
         <v>-0.1877597470144752</v>
       </c>
-      <c r="BR129" t="n">
+      <c r="BS129" t="n">
+        <v>2.2600566272137</v>
+      </c>
+      <c r="BT129" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -27457,15 +28187,21 @@
         <v>0.1974454780893271</v>
       </c>
       <c r="BO130" t="n">
+        <v>2.331161701607535</v>
+      </c>
+      <c r="BP130" t="n">
         <v>-0.1564604973755266</v>
       </c>
-      <c r="BP130" t="n">
+      <c r="BQ130" t="n">
         <v>0.1029084424448168</v>
       </c>
-      <c r="BQ130" t="n">
+      <c r="BR130" t="n">
         <v>-0.1974454780893271</v>
       </c>
-      <c r="BR130" t="n">
+      <c r="BS130" t="n">
+        <v>2.331161701607535</v>
+      </c>
+      <c r="BT130" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -27669,15 +28405,21 @@
         <v>0.1810072256326949</v>
       </c>
       <c r="BO131" t="n">
+        <v>2.402266776001369</v>
+      </c>
+      <c r="BP131" t="n">
         <v>-0.1429772447957309</v>
       </c>
-      <c r="BP131" t="n">
+      <c r="BQ131" t="n">
         <v>0.1230048037904172</v>
       </c>
-      <c r="BQ131" t="n">
+      <c r="BR131" t="n">
         <v>-0.1810072256326949</v>
       </c>
-      <c r="BR131" t="n">
+      <c r="BS131" t="n">
+        <v>2.402266776001369</v>
+      </c>
+      <c r="BT131" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -27881,15 +28623,21 @@
         <v>0.3564052604501249</v>
       </c>
       <c r="BO132" t="n">
+        <v>2.323371850395203</v>
+      </c>
+      <c r="BP132" t="n">
         <v>-0.2540439549882825</v>
       </c>
-      <c r="BP132" t="n">
+      <c r="BQ132" t="n">
         <v>-0.0597380950084565</v>
       </c>
-      <c r="BQ132" t="n">
+      <c r="BR132" t="n">
         <v>-0.3564052604501249</v>
       </c>
-      <c r="BR132" t="n">
+      <c r="BS132" t="n">
+        <v>2.323371850395203</v>
+      </c>
+      <c r="BT132" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -28093,15 +28841,21 @@
         <v>0.3330235500940661</v>
       </c>
       <c r="BO133" t="n">
+        <v>2.555087053286398</v>
+      </c>
+      <c r="BP133" t="n">
         <v>-0.2688586522137568</v>
       </c>
-      <c r="BP133" t="n">
+      <c r="BQ133" t="n">
         <v>-0.02576358034596415</v>
       </c>
-      <c r="BQ133" t="n">
+      <c r="BR133" t="n">
         <v>-0.3330235500940661</v>
       </c>
-      <c r="BR133" t="n">
+      <c r="BS133" t="n">
+        <v>2.555087053286398</v>
+      </c>
+      <c r="BT133" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -28305,15 +29059,21 @@
         <v>0.2851572006693479</v>
       </c>
       <c r="BO134" t="n">
+        <v>2.786802256177593</v>
+      </c>
+      <c r="BP134" t="n">
         <v>-0.1113075403294577</v>
       </c>
-      <c r="BP134" t="n">
+      <c r="BQ134" t="n">
         <v>0.03926511870978011</v>
       </c>
-      <c r="BQ134" t="n">
+      <c r="BR134" t="n">
         <v>-0.2851572006693479</v>
       </c>
-      <c r="BR134" t="n">
+      <c r="BS134" t="n">
+        <v>2.786802256177593</v>
+      </c>
+      <c r="BT134" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -28517,15 +29277,21 @@
         <v>0.5324072189173705</v>
       </c>
       <c r="BO135" t="n">
+        <v>2.618517459068788</v>
+      </c>
+      <c r="BP135" t="n">
         <v>-0.4464370120913321</v>
       </c>
-      <c r="BP135" t="n">
+      <c r="BQ135" t="n">
         <v>-0.1654880289887981</v>
       </c>
-      <c r="BQ135" t="n">
+      <c r="BR135" t="n">
         <v>-0.5324072189173705</v>
       </c>
-      <c r="BR135" t="n">
+      <c r="BS135" t="n">
+        <v>2.618517459068788</v>
+      </c>
+      <c r="BT135" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -28729,15 +29495,21 @@
         <v>0.4759003749149771</v>
       </c>
       <c r="BO136" t="n">
+        <v>2.869701499853197</v>
+      </c>
+      <c r="BP136" t="n">
         <v>-0.3524054175479425</v>
       </c>
-      <c r="BP136" t="n">
+      <c r="BQ136" t="n">
         <v>-0.09381751609693945</v>
       </c>
-      <c r="BQ136" t="n">
+      <c r="BR136" t="n">
         <v>-0.4759003749149771</v>
       </c>
-      <c r="BR136" t="n">
+      <c r="BS136" t="n">
+        <v>2.869701499853197</v>
+      </c>
+      <c r="BT136" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -28941,15 +29713,21 @@
         <v>0.4556545135849475</v>
       </c>
       <c r="BO137" t="n">
+        <v>3.120885540637605</v>
+      </c>
+      <c r="BP137" t="n">
         <v>-0.1648951475275178</v>
       </c>
-      <c r="BP137" t="n">
+      <c r="BQ137" t="n">
         <v>-0.06015989566481883</v>
       </c>
-      <c r="BQ137" t="n">
+      <c r="BR137" t="n">
         <v>-0.4556545135849475</v>
       </c>
-      <c r="BR137" t="n">
+      <c r="BS137" t="n">
+        <v>3.120885540637605</v>
+      </c>
+      <c r="BT137" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -29153,15 +29931,21 @@
         <v>0.8177394220463223</v>
       </c>
       <c r="BO138" t="n">
+        <v>2.947069581422014</v>
+      </c>
+      <c r="BP138" t="n">
         <v>-0.5650707113117668</v>
       </c>
-      <c r="BP138" t="n">
+      <c r="BQ138" t="n">
         <v>-0.411333364244916</v>
       </c>
-      <c r="BQ138" t="n">
+      <c r="BR138" t="n">
         <v>-0.8177394220463223</v>
       </c>
-      <c r="BR138" t="n">
+      <c r="BS138" t="n">
+        <v>2.947069581422014</v>
+      </c>
+      <c r="BT138" t="n">
         <v>2.225</v>
       </c>
     </row>
@@ -29365,15 +30149,21 @@
         <v>0.8142275551052931</v>
       </c>
       <c r="BO139" t="n">
+        <v>2.8997051030833</v>
+      </c>
+      <c r="BP139" t="n">
         <v>-0.4080249362946133</v>
       </c>
-      <c r="BP139" t="n">
+      <c r="BQ139" t="n">
         <v>-0.409740157525796</v>
       </c>
-      <c r="BQ139" t="n">
+      <c r="BR139" t="n">
         <v>-0.8142275551052931</v>
       </c>
-      <c r="BR139" t="n">
+      <c r="BS139" t="n">
+        <v>2.8997051030833</v>
+      </c>
+      <c r="BT139" t="n">
         <v>2.225</v>
       </c>
     </row>
@@ -29577,15 +30367,21 @@
         <v>0.8675906880609117</v>
       </c>
       <c r="BO140" t="n">
+        <v>2.852340624744586</v>
+      </c>
+      <c r="BP140" t="n">
         <v>-0.4516599927973428</v>
       </c>
-      <c r="BP140" t="n">
+      <c r="BQ140" t="n">
         <v>-0.4836535145862386</v>
       </c>
-      <c r="BQ140" t="n">
+      <c r="BR140" t="n">
         <v>-0.8675906880609117</v>
       </c>
-      <c r="BR140" t="n">
+      <c r="BS140" t="n">
+        <v>2.852340624744586</v>
+      </c>
+      <c r="BT140" t="n">
         <v>2.225</v>
       </c>
     </row>
@@ -29789,15 +30585,21 @@
         <v>0.7858210733345989</v>
       </c>
       <c r="BO141" t="n">
+        <v>2.879976146405871</v>
+      </c>
+      <c r="BP141" t="n">
         <v>-0.435773665243246</v>
       </c>
-      <c r="BP141" t="n">
+      <c r="BQ141" t="n">
         <v>-0.4042590186328083</v>
       </c>
-      <c r="BQ141" t="n">
+      <c r="BR141" t="n">
         <v>-0.7858210733345989</v>
       </c>
-      <c r="BR141" t="n">
+      <c r="BS141" t="n">
+        <v>2.879976146405871</v>
+      </c>
+      <c r="BT141" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -30001,15 +30803,21 @@
         <v>0.7852278273605193</v>
       </c>
       <c r="BO142" t="n">
+        <v>2.895541013737514</v>
+      </c>
+      <c r="BP142" t="n">
         <v>-0.4519656759070934</v>
       </c>
-      <c r="BP142" t="n">
+      <c r="BQ142" t="n">
         <v>-0.4036274097488532</v>
       </c>
-      <c r="BQ142" t="n">
+      <c r="BR142" t="n">
         <v>-0.7852278273605193</v>
       </c>
-      <c r="BR142" t="n">
+      <c r="BS142" t="n">
+        <v>2.895541013737514</v>
+      </c>
+      <c r="BT142" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -30213,15 +31021,21 @@
         <v>0.8001375205887784</v>
       </c>
       <c r="BO143" t="n">
+        <v>2.911105881069157</v>
+      </c>
+      <c r="BP143" t="n">
         <v>-0.4930146856420363</v>
       </c>
-      <c r="BP143" t="n">
+      <c r="BQ143" t="n">
         <v>-0.4102939484931858</v>
       </c>
-      <c r="BQ143" t="n">
+      <c r="BR143" t="n">
         <v>-0.8001375205887784</v>
       </c>
-      <c r="BR143" t="n">
+      <c r="BS143" t="n">
+        <v>2.911105881069157</v>
+      </c>
+      <c r="BT143" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -30425,15 +31239,21 @@
         <v>0.3472654145796628</v>
       </c>
       <c r="BO144" t="n">
+        <v>3.1516707484008</v>
+      </c>
+      <c r="BP144" t="n">
         <v>-0.1291099948210981</v>
       </c>
-      <c r="BP144" t="n">
+      <c r="BQ144" t="n">
         <v>0.1215006514689898</v>
       </c>
-      <c r="BQ144" t="n">
+      <c r="BR144" t="n">
         <v>-0.3472654145796628</v>
       </c>
-      <c r="BR144" t="n">
+      <c r="BS144" t="n">
+        <v>3.1516707484008</v>
+      </c>
+      <c r="BT144" t="n">
         <v>1.925</v>
       </c>
     </row>
@@ -30637,15 +31457,21 @@
         <v>0.5228337009104218</v>
       </c>
       <c r="BO145" t="n">
+        <v>3.171648821759993</v>
+      </c>
+      <c r="BP145" t="n">
         <v>-0.2854683899752604</v>
       </c>
-      <c r="BP145" t="n">
+      <c r="BQ145" t="n">
         <v>-0.09740237110345262</v>
       </c>
-      <c r="BQ145" t="n">
+      <c r="BR145" t="n">
         <v>-0.5228337009104218</v>
       </c>
-      <c r="BR145" t="n">
+      <c r="BS145" t="n">
+        <v>3.171648821759993</v>
+      </c>
+      <c r="BT145" t="n">
         <v>1.925</v>
       </c>
     </row>
@@ -30849,15 +31675,21 @@
         <v>0.5449836979017044</v>
       </c>
       <c r="BO146" t="n">
+        <v>3.191626895119184</v>
+      </c>
+      <c r="BP146" t="n">
         <v>-0.2747513485179733</v>
       </c>
-      <c r="BP146" t="n">
+      <c r="BQ146" t="n">
         <v>-0.1238451845964523</v>
       </c>
-      <c r="BQ146" t="n">
+      <c r="BR146" t="n">
         <v>-0.5449836979017044</v>
       </c>
-      <c r="BR146" t="n">
+      <c r="BS146" t="n">
+        <v>3.191626895119184</v>
+      </c>
+      <c r="BT146" t="n">
         <v>1.925</v>
       </c>
     </row>
@@ -31061,15 +31893,21 @@
         <v>0.4625689333558616</v>
       </c>
       <c r="BO147" t="n">
+        <v>3.336604968478377</v>
+      </c>
+      <c r="BP147" t="n">
         <v>-0.2694338232752869</v>
       </c>
-      <c r="BP147" t="n">
+      <c r="BQ147" t="n">
         <v>-0.05528973143884319</v>
       </c>
-      <c r="BQ147" t="n">
+      <c r="BR147" t="n">
         <v>-0.4625689333558616</v>
       </c>
-      <c r="BR147" t="n">
+      <c r="BS147" t="n">
+        <v>3.336604968478377</v>
+      </c>
+      <c r="BT147" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -31273,15 +32111,21 @@
         <v>0.4239447869577497</v>
       </c>
       <c r="BO148" t="n">
+        <v>3.390146692841244</v>
+      </c>
+      <c r="BP148" t="n">
         <v>-0.05688922660713214</v>
       </c>
-      <c r="BP148" t="n">
+      <c r="BQ148" t="n">
         <v>-0.00131289818439706</v>
       </c>
-      <c r="BQ148" t="n">
+      <c r="BR148" t="n">
         <v>-0.4239447869577497</v>
       </c>
-      <c r="BR148" t="n">
+      <c r="BS148" t="n">
+        <v>3.390146692841244</v>
+      </c>
+      <c r="BT148" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -31485,15 +32329,21 @@
         <v>0.4059595854375235</v>
       </c>
       <c r="BO149" t="n">
+        <v>3.443688417204111</v>
+      </c>
+      <c r="BP149" t="n">
         <v>-0.1636363879556428</v>
       </c>
-      <c r="BP149" t="n">
+      <c r="BQ149" t="n">
         <v>0.01980358912172897</v>
       </c>
-      <c r="BQ149" t="n">
+      <c r="BR149" t="n">
         <v>-0.4059595854375235</v>
       </c>
-      <c r="BR149" t="n">
+      <c r="BS149" t="n">
+        <v>3.443688417204111</v>
+      </c>
+      <c r="BT149" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -31697,15 +32547,21 @@
         <v>0.6222183159863433</v>
       </c>
       <c r="BO150" t="n">
+        <v>3.247230141566977</v>
+      </c>
+      <c r="BP150" t="n">
         <v>-0.3278052892543084</v>
       </c>
-      <c r="BP150" t="n">
+      <c r="BQ150" t="n">
         <v>-0.1942035703352234</v>
       </c>
-      <c r="BQ150" t="n">
+      <c r="BR150" t="n">
         <v>-0.6222183159863433</v>
       </c>
-      <c r="BR150" t="n">
+      <c r="BS150" t="n">
+        <v>3.247230141566977</v>
+      </c>
+      <c r="BT150" t="n">
         <v>2.05</v>
       </c>
     </row>
@@ -31909,15 +32765,21 @@
         <v>0.7679629009474711</v>
       </c>
       <c r="BO151" t="n">
+        <v>3.10580184094265</v>
+      </c>
+      <c r="BP151" t="n">
         <v>-0.4292678602682831</v>
       </c>
-      <c r="BP151" t="n">
+      <c r="BQ151" t="n">
         <v>-0.3902510743761161</v>
       </c>
-      <c r="BQ151" t="n">
+      <c r="BR151" t="n">
         <v>-0.7679629009474711</v>
       </c>
-      <c r="BR151" t="n">
+      <c r="BS151" t="n">
+        <v>3.10580184094265</v>
+      </c>
+      <c r="BT151" t="n">
         <v>2.05</v>
       </c>
     </row>
@@ -32121,15 +32983,21 @@
         <v>0.7430973265951271</v>
       </c>
       <c r="BO152" t="n">
+        <v>2.964373540318321</v>
+      </c>
+      <c r="BP152" t="n">
         <v>-0.5362500958074337</v>
       </c>
-      <c r="BP152" t="n">
+      <c r="BQ152" t="n">
         <v>-0.3652887431296621</v>
       </c>
-      <c r="BQ152" t="n">
+      <c r="BR152" t="n">
         <v>-0.7430973265951271</v>
       </c>
-      <c r="BR152" t="n">
+      <c r="BS152" t="n">
+        <v>2.964373540318321</v>
+      </c>
+      <c r="BT152" t="n">
         <v>2.05</v>
       </c>
     </row>
@@ -32333,15 +33201,21 @@
         <v>0.5529768508892028</v>
       </c>
       <c r="BO153" t="n">
+        <v>2.972945239693994</v>
+      </c>
+      <c r="BP153" t="n">
         <v>-0.4415533521534871</v>
       </c>
-      <c r="BP153" t="n">
+      <c r="BQ153" t="n">
         <v>-0.1700027485504925</v>
       </c>
-      <c r="BQ153" t="n">
+      <c r="BR153" t="n">
         <v>-0.5529768508892028</v>
       </c>
-      <c r="BR153" t="n">
+      <c r="BS153" t="n">
+        <v>2.972945239693994</v>
+      </c>
+      <c r="BT153" t="n">
         <v>1.9</v>
       </c>
     </row>
@@ -32545,15 +33419,21 @@
         <v>0.5416151789041772</v>
       </c>
       <c r="BO154" t="n">
+        <v>3.007944509416097</v>
+      </c>
+      <c r="BP154" t="n">
         <v>-0.433442902618004</v>
       </c>
-      <c r="BP154" t="n">
+      <c r="BQ154" t="n">
         <v>-0.157652163131131</v>
       </c>
-      <c r="BQ154" t="n">
+      <c r="BR154" t="n">
         <v>-0.5416151789041772</v>
       </c>
-      <c r="BR154" t="n">
+      <c r="BS154" t="n">
+        <v>3.007944509416097</v>
+      </c>
+      <c r="BT154" t="n">
         <v>1.9</v>
       </c>
     </row>
@@ -32757,15 +33637,21 @@
         <v>0.4816365581882973</v>
       </c>
       <c r="BO155" t="n">
+        <v>3.042943779138199</v>
+      </c>
+      <c r="BP155" t="n">
         <v>-0.3429601439633387</v>
       </c>
-      <c r="BP155" t="n">
+      <c r="BQ155" t="n">
         <v>-0.09123899071352071</v>
       </c>
-      <c r="BQ155" t="n">
+      <c r="BR155" t="n">
         <v>-0.4816365581882973</v>
       </c>
-      <c r="BR155" t="n">
+      <c r="BS155" t="n">
+        <v>3.042943779138199</v>
+      </c>
+      <c r="BT155" t="n">
         <v>1.9</v>
       </c>
     </row>
@@ -32969,15 +33855,21 @@
         <v>0.4658545500537912</v>
       </c>
       <c r="BO156" t="n">
+        <v>3.052943048860302</v>
+      </c>
+      <c r="BP156" t="n">
         <v>-0.3581843738819008</v>
       </c>
-      <c r="BP156" t="n">
+      <c r="BQ156" t="n">
         <v>-0.07533253043249633</v>
       </c>
-      <c r="BQ156" t="n">
+      <c r="BR156" t="n">
         <v>-0.4658545500537912</v>
       </c>
-      <c r="BR156" t="n">
+      <c r="BS156" t="n">
+        <v>3.052943048860302</v>
+      </c>
+      <c r="BT156" t="n">
         <v>1.925</v>
       </c>
     </row>
@@ -33181,15 +34073,21 @@
         <v>0.4951504346026536</v>
       </c>
       <c r="BO157" t="n">
+        <v>2.822984536606173</v>
+      </c>
+      <c r="BP157" t="n">
         <v>-0.4017250670158026</v>
       </c>
-      <c r="BP157" t="n">
+      <c r="BQ157" t="n">
         <v>-0.1386517117627359</v>
       </c>
-      <c r="BQ157" t="n">
+      <c r="BR157" t="n">
         <v>-0.4951504346026536</v>
       </c>
-      <c r="BR157" t="n">
+      <c r="BS157" t="n">
+        <v>2.822984536606173</v>
+      </c>
+      <c r="BT157" t="n">
         <v>1.925</v>
       </c>
     </row>
@@ -33393,15 +34291,21 @@
         <v>0.4700837741979687</v>
       </c>
       <c r="BO158" t="n">
+        <v>2.593026024352043</v>
+      </c>
+      <c r="BP158" t="n">
         <v>-0.2358912078214805</v>
       </c>
-      <c r="BP158" t="n">
+      <c r="BQ158" t="n">
         <v>-0.1260952543823326</v>
       </c>
-      <c r="BQ158" t="n">
+      <c r="BR158" t="n">
         <v>-0.4700837741979687</v>
       </c>
-      <c r="BR158" t="n">
+      <c r="BS158" t="n">
+        <v>2.593026024352043</v>
+      </c>
+      <c r="BT158" t="n">
         <v>1.925</v>
       </c>
     </row>
@@ -33605,15 +34509,21 @@
         <v>0.5808349581640149</v>
       </c>
       <c r="BO159" t="n">
+        <v>2.288067512097914</v>
+      </c>
+      <c r="BP159" t="n">
         <v>-0.4808072139092745</v>
       </c>
-      <c r="BP159" t="n">
+      <c r="BQ159" t="n">
         <v>-0.2567291785037926</v>
       </c>
-      <c r="BQ159" t="n">
+      <c r="BR159" t="n">
         <v>-0.5808349581640149</v>
       </c>
-      <c r="BR159" t="n">
+      <c r="BS159" t="n">
+        <v>2.288067512097914</v>
+      </c>
+      <c r="BT159" t="n">
         <v>2</v>
       </c>
     </row>
@@ -33817,15 +34727,21 @@
         <v>0.6243759399779463</v>
       </c>
       <c r="BO160" t="n">
+        <v>2.137950606281272</v>
+      </c>
+      <c r="BP160" t="n">
         <v>-0.4603894480371906</v>
       </c>
-      <c r="BP160" t="n">
+      <c r="BQ160" t="n">
         <v>-0.3204221430257057</v>
       </c>
-      <c r="BQ160" t="n">
+      <c r="BR160" t="n">
         <v>-0.6243759399779463</v>
       </c>
-      <c r="BR160" t="n">
+      <c r="BS160" t="n">
+        <v>2.137950606281272</v>
+      </c>
+      <c r="BT160" t="n">
         <v>2</v>
       </c>
     </row>
@@ -34029,15 +34945,21 @@
         <v>0.6256637222604373</v>
       </c>
       <c r="BO161" t="n">
+        <v>1.987833700464631</v>
+      </c>
+      <c r="BP161" t="n">
         <v>-0.4900724698079115</v>
       </c>
-      <c r="BP161" t="n">
+      <c r="BQ161" t="n">
         <v>-0.3419555438174537</v>
       </c>
-      <c r="BQ161" t="n">
+      <c r="BR161" t="n">
         <v>-0.6256637222604373</v>
       </c>
-      <c r="BR161" t="n">
+      <c r="BS161" t="n">
+        <v>1.987833700464631</v>
+      </c>
+      <c r="BT161" t="n">
         <v>2</v>
       </c>
     </row>
@@ -34241,15 +35163,21 @@
         <v>0.2589206270511089</v>
       </c>
       <c r="BO162" t="n">
+        <v>2.18771679464799</v>
+      </c>
+      <c r="BP162" t="n">
         <v>-0.09133130744987228</v>
       </c>
-      <c r="BP162" t="n">
+      <c r="BQ162" t="n">
         <v>0.01005555628775978</v>
       </c>
-      <c r="BQ162" t="n">
+      <c r="BR162" t="n">
         <v>-0.2589206270511089</v>
       </c>
-      <c r="BR162" t="n">
+      <c r="BS162" t="n">
+        <v>2.18771679464799</v>
+      </c>
+      <c r="BT162" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -34453,15 +35381,21 @@
         <v>0.3727255348944871</v>
       </c>
       <c r="BO163" t="n">
+        <v>2.182378769202019</v>
+      </c>
+      <c r="BP163" t="n">
         <v>-0.1509160431017593</v>
       </c>
-      <c r="BP163" t="n">
+      <c r="BQ163" t="n">
         <v>-0.1500842555845665</v>
       </c>
-      <c r="BQ163" t="n">
+      <c r="BR163" t="n">
         <v>-0.3727255348944871</v>
       </c>
-      <c r="BR163" t="n">
+      <c r="BS163" t="n">
+        <v>2.182378769202019</v>
+      </c>
+      <c r="BT163" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -34665,15 +35599,21 @@
         <v>0.331465953606203</v>
       </c>
       <c r="BO164" t="n">
+        <v>2.177040743756049</v>
+      </c>
+      <c r="BP164" t="n">
         <v>-0.1499165113942731</v>
       </c>
-      <c r="BP164" t="n">
+      <c r="BQ164" t="n">
         <v>-0.1251380750654536</v>
       </c>
-      <c r="BQ164" t="n">
+      <c r="BR164" t="n">
         <v>-0.331465953606203</v>
       </c>
-      <c r="BR164" t="n">
+      <c r="BS164" t="n">
+        <v>2.177040743756049</v>
+      </c>
+      <c r="BT164" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -34877,15 +35817,21 @@
         <v>0.3053605914188806</v>
       </c>
       <c r="BO165" t="n">
+        <v>2.171702718310078</v>
+      </c>
+      <c r="BP165" t="n">
         <v>-0.1291394826863517</v>
       </c>
-      <c r="BP165" t="n">
+      <c r="BQ165" t="n">
         <v>-0.1166918063633311</v>
       </c>
-      <c r="BQ165" t="n">
+      <c r="BR165" t="n">
         <v>-0.3053605914188806</v>
       </c>
-      <c r="BR165" t="n">
+      <c r="BS165" t="n">
+        <v>2.171702718310078</v>
+      </c>
+      <c r="BT165" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -35089,15 +36035,21 @@
         <v>0.2468819560303273</v>
       </c>
       <c r="BO166" t="n">
+        <v>2.163912415109418</v>
+      </c>
+      <c r="BP166" t="n">
         <v>0.08110042347740265</v>
       </c>
-      <c r="BP166" t="n">
+      <c r="BQ166" t="n">
         <v>-0.06389529494149704</v>
       </c>
-      <c r="BQ166" t="n">
+      <c r="BR166" t="n">
         <v>-0.2468819560303273</v>
       </c>
-      <c r="BR166" t="n">
+      <c r="BS166" t="n">
+        <v>2.163912415109418</v>
+      </c>
+      <c r="BT166" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -35301,15 +36253,21 @@
         <v>0.2449876829421613</v>
       </c>
       <c r="BO167" t="n">
+        <v>2.156122111908759</v>
+      </c>
+      <c r="BP167" t="n">
         <v>0.06767925518424356</v>
       </c>
-      <c r="BP167" t="n">
+      <c r="BQ167" t="n">
         <v>-0.07261503660286572</v>
       </c>
-      <c r="BQ167" t="n">
+      <c r="BR167" t="n">
         <v>-0.2449876829421613</v>
       </c>
-      <c r="BR167" t="n">
+      <c r="BS167" t="n">
+        <v>2.156122111908759</v>
+      </c>
+      <c r="BT167" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -35513,15 +36471,21 @@
         <v>0.3696369911022335</v>
       </c>
       <c r="BO168" t="n">
+        <v>2.048331808708099</v>
+      </c>
+      <c r="BP168" t="n">
         <v>-0.07667812702410393</v>
       </c>
-      <c r="BP168" t="n">
+      <c r="BQ168" t="n">
         <v>-0.2084576843122039</v>
       </c>
-      <c r="BQ168" t="n">
+      <c r="BR168" t="n">
         <v>-0.3696369911022335</v>
       </c>
-      <c r="BR168" t="n">
+      <c r="BS168" t="n">
+        <v>2.048331808708099</v>
+      </c>
+      <c r="BT168" t="n">
         <v>1.75</v>
       </c>
     </row>
@@ -35725,15 +36689,21 @@
         <v>0.4065228311993694</v>
       </c>
       <c r="BO169" t="n">
+        <v>1.949222235361149</v>
+      </c>
+      <c r="BP169" t="n">
         <v>-0.09579113784434856</v>
       </c>
-      <c r="BP169" t="n">
+      <c r="BQ169" t="n">
         <v>-0.2287212204359916</v>
       </c>
-      <c r="BQ169" t="n">
+      <c r="BR169" t="n">
         <v>-0.4065228311993694</v>
       </c>
-      <c r="BR169" t="n">
+      <c r="BS169" t="n">
+        <v>1.949222235361149</v>
+      </c>
+      <c r="BT169" t="n">
         <v>1.75</v>
       </c>
     </row>
@@ -35937,15 +36907,21 @@
         <v>0.1458335792923049</v>
       </c>
       <c r="BO170" t="n">
+        <v>1.850112662014198</v>
+      </c>
+      <c r="BP170" t="n">
         <v>-0.05282413100526195</v>
       </c>
-      <c r="BP170" t="n">
+      <c r="BQ170" t="n">
         <v>0.09464284346760299</v>
       </c>
-      <c r="BQ170" t="n">
+      <c r="BR170" t="n">
         <v>-0.1458335792923049</v>
       </c>
-      <c r="BR170" t="n">
+      <c r="BS170" t="n">
+        <v>1.850112662014198</v>
+      </c>
+      <c r="BT170" t="n">
         <v>1.75</v>
       </c>
     </row>
@@ -36149,15 +37125,21 @@
         <v>0.2710706298916881</v>
       </c>
       <c r="BO171" t="n">
+        <v>1.901003088667248</v>
+      </c>
+      <c r="BP171" t="n">
         <v>-0.019790255494196</v>
       </c>
-      <c r="BP171" t="n">
+      <c r="BQ171" t="n">
         <v>-0.05626318906582517</v>
       </c>
-      <c r="BQ171" t="n">
+      <c r="BR171" t="n">
         <v>-0.2710706298916881</v>
       </c>
-      <c r="BR171" t="n">
+      <c r="BS171" t="n">
+        <v>1.901003088667248</v>
+      </c>
+      <c r="BT171" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -36361,15 +37343,21 @@
         <v>0.3235605754510651</v>
       </c>
       <c r="BO172" t="n">
+        <v>1.720756102486301</v>
+      </c>
+      <c r="BP172" t="n">
         <v>0.01277632167074727</v>
       </c>
-      <c r="BP172" t="n">
+      <c r="BQ172" t="n">
         <v>-0.1061776210408851</v>
       </c>
-      <c r="BQ172" t="n">
+      <c r="BR172" t="n">
         <v>-0.3235605754510651</v>
       </c>
-      <c r="BR172" t="n">
+      <c r="BS172" t="n">
+        <v>1.720756102486301</v>
+      </c>
+      <c r="BT172" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -36573,15 +37561,21 @@
         <v>0.3234727479210406</v>
       </c>
       <c r="BO173" t="n">
+        <v>1.540509116305353</v>
+      </c>
+      <c r="BP173" t="n">
         <v>-0.05069385065260157</v>
       </c>
-      <c r="BP173" t="n">
+      <c r="BQ173" t="n">
         <v>-0.09342411498035763</v>
       </c>
-      <c r="BQ173" t="n">
+      <c r="BR173" t="n">
         <v>-0.3234727479210406</v>
       </c>
-      <c r="BR173" t="n">
+      <c r="BS173" t="n">
+        <v>1.540509116305353</v>
+      </c>
+      <c r="BT173" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -36785,15 +37779,21 @@
         <v>0.2577672627194576</v>
       </c>
       <c r="BO174" t="n">
+        <v>1.460262130124406</v>
+      </c>
+      <c r="BP174" t="n">
         <v>0.004679578994246647</v>
       </c>
-      <c r="BP174" t="n">
+      <c r="BQ174" t="n">
         <v>-0.0226886375960198</v>
       </c>
-      <c r="BQ174" t="n">
+      <c r="BR174" t="n">
         <v>-0.2577672627194576</v>
       </c>
-      <c r="BR174" t="n">
+      <c r="BS174" t="n">
+        <v>1.460262130124406</v>
+      </c>
+      <c r="BT174" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -36997,15 +37997,21 @@
         <v>0.2928444980007905</v>
       </c>
       <c r="BO175" t="n">
+        <v>1.433367673508153</v>
+      </c>
+      <c r="BP175" t="n">
         <v>-9.597363330993147e-05</v>
       </c>
-      <c r="BP175" t="n">
+      <c r="BQ175" t="n">
         <v>-0.05546143192248287</v>
       </c>
-      <c r="BQ175" t="n">
+      <c r="BR175" t="n">
         <v>-0.2928444980007905</v>
       </c>
-      <c r="BR175" t="n">
+      <c r="BS175" t="n">
+        <v>1.433367673508153</v>
+      </c>
+      <c r="BT175" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -37209,15 +38215,21 @@
         <v>0.3361903204179879</v>
       </c>
       <c r="BO176" t="n">
+        <v>1.406473216891899</v>
+      </c>
+      <c r="BP176" t="n">
         <v>-0.07213675227362892</v>
       </c>
-      <c r="BP176" t="n">
+      <c r="BQ176" t="n">
         <v>-0.0984476372720835</v>
       </c>
-      <c r="BQ176" t="n">
+      <c r="BR176" t="n">
         <v>-0.3361903204179879</v>
       </c>
-      <c r="BR176" t="n">
+      <c r="BS176" t="n">
+        <v>1.406473216891899</v>
+      </c>
+      <c r="BT176" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -37421,15 +38433,21 @@
         <v>0.3107605994106288</v>
       </c>
       <c r="BO177" t="n">
+        <v>1.429578760275646</v>
+      </c>
+      <c r="BP177" t="n">
         <v>-0.06515872208688545</v>
       </c>
-      <c r="BP177" t="n">
+      <c r="BQ177" t="n">
         <v>-0.06538779511686155</v>
       </c>
-      <c r="BQ177" t="n">
+      <c r="BR177" t="n">
         <v>-0.3107605994106288</v>
       </c>
-      <c r="BR177" t="n">
+      <c r="BS177" t="n">
+        <v>1.429578760275646</v>
+      </c>
+      <c r="BT177" t="n">
         <v>1.45</v>
       </c>
     </row>
@@ -37633,15 +38651,21 @@
         <v>0.3205229553234876</v>
       </c>
       <c r="BO178" t="n">
+        <v>1.404719555142249</v>
+      </c>
+      <c r="BP178" t="n">
         <v>-0.07933610586595696</v>
       </c>
-      <c r="BP178" t="n">
+      <c r="BQ178" t="n">
         <v>-0.07321351414106925</v>
       </c>
-      <c r="BQ178" t="n">
+      <c r="BR178" t="n">
         <v>-0.3205229553234876</v>
       </c>
-      <c r="BR178" t="n">
+      <c r="BS178" t="n">
+        <v>1.404719555142249</v>
+      </c>
+      <c r="BT178" t="n">
         <v>1.45</v>
       </c>
     </row>
@@ -37845,15 +38869,21 @@
         <v>0.4054703564673712</v>
       </c>
       <c r="BO179" t="n">
+        <v>1.379860350008852</v>
+      </c>
+      <c r="BP179" t="n">
         <v>-0.1409033436083755</v>
       </c>
-      <c r="BP179" t="n">
+      <c r="BQ179" t="n">
         <v>-0.1752747865408804</v>
       </c>
-      <c r="BQ179" t="n">
+      <c r="BR179" t="n">
         <v>-0.4054703564673712</v>
       </c>
-      <c r="BR179" t="n">
+      <c r="BS179" t="n">
+        <v>1.379860350008852</v>
+      </c>
+      <c r="BT179" t="n">
         <v>1.45</v>
       </c>
     </row>
@@ -38057,15 +39087,21 @@
         <v>0.2950908453406891</v>
       </c>
       <c r="BO180" t="n">
+        <v>1.430001144875455</v>
+      </c>
+      <c r="BP180" t="n">
         <v>-0.1236991267869718</v>
       </c>
-      <c r="BP180" t="n">
+      <c r="BQ180" t="n">
         <v>-0.05557451930096202</v>
       </c>
-      <c r="BQ180" t="n">
+      <c r="BR180" t="n">
         <v>-0.2950908453406891</v>
       </c>
-      <c r="BR180" t="n">
+      <c r="BS180" t="n">
+        <v>1.430001144875455</v>
+      </c>
+      <c r="BT180" t="n">
         <v>1.375</v>
       </c>
     </row>
@@ -38269,15 +39305,21 @@
         <v>0.3505394570464713</v>
       </c>
       <c r="BO181" t="n">
+        <v>1.218957274921113</v>
+      </c>
+      <c r="BP181" t="n">
         <v>-0.2026974954084473</v>
       </c>
-      <c r="BP181" t="n">
+      <c r="BQ181" t="n">
         <v>-0.1243052679005718</v>
       </c>
-      <c r="BQ181" t="n">
+      <c r="BR181" t="n">
         <v>-0.3505394570464713</v>
       </c>
-      <c r="BR181" t="n">
+      <c r="BS181" t="n">
+        <v>1.218957274921113</v>
+      </c>
+      <c r="BT181" t="n">
         <v>1.375</v>
       </c>
     </row>
@@ -38481,15 +39523,21 @@
         <v>0.4049032001126134</v>
       </c>
       <c r="BO182" t="n">
+        <v>1.007913404966771</v>
+      </c>
+      <c r="BP182" t="n">
         <v>-0.2802420725690491</v>
       </c>
-      <c r="BP182" t="n">
+      <c r="BQ182" t="n">
         <v>-0.1935290957325986</v>
       </c>
-      <c r="BQ182" t="n">
+      <c r="BR182" t="n">
         <v>-0.4049032001126134</v>
       </c>
-      <c r="BR182" t="n">
+      <c r="BS182" t="n">
+        <v>1.007913404966771</v>
+      </c>
+      <c r="BT182" t="n">
         <v>1.375</v>
       </c>
     </row>
@@ -38693,15 +39741,21 @@
         <v>0.6542181077978271</v>
       </c>
       <c r="BO183" t="n">
+        <v>0.6718695350124282</v>
+      </c>
+      <c r="BP183" t="n">
         <v>-0.5962354997911868</v>
       </c>
-      <c r="BP183" t="n">
+      <c r="BQ183" t="n">
         <v>-0.4748603930201492</v>
       </c>
-      <c r="BQ183" t="n">
+      <c r="BR183" t="n">
         <v>-0.6542181077978271</v>
       </c>
-      <c r="BR183" t="n">
+      <c r="BS183" t="n">
+        <v>0.6718695350124282</v>
+      </c>
+      <c r="BT183" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -38905,15 +39959,21 @@
         <v>0.6637126773789699</v>
       </c>
       <c r="BO184" t="n">
+        <v>0.7108417287144455</v>
+      </c>
+      <c r="BP184" t="n">
         <v>-0.7602770166136325</v>
       </c>
-      <c r="BP184" t="n">
+      <c r="BQ184" t="n">
         <v>-0.4862505042855172</v>
       </c>
-      <c r="BQ184" t="n">
+      <c r="BR184" t="n">
         <v>-0.6637126773789699</v>
       </c>
-      <c r="BR184" t="n">
+      <c r="BS184" t="n">
+        <v>0.7108417287144455</v>
+      </c>
+      <c r="BT184" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -39117,15 +40177,21 @@
         <v>0.553721841854956</v>
       </c>
       <c r="BO185" t="n">
+        <v>0.7498139224164628</v>
+      </c>
+      <c r="BP185" t="n">
         <v>-0.6729153109277941</v>
       </c>
-      <c r="BP185" t="n">
+      <c r="BQ185" t="n">
         <v>-0.3565730196208787</v>
       </c>
-      <c r="BQ185" t="n">
+      <c r="BR185" t="n">
         <v>-0.553721841854956</v>
       </c>
-      <c r="BR185" t="n">
+      <c r="BS185" t="n">
+        <v>0.7498139224164628</v>
+      </c>
+      <c r="BT185" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -39329,15 +40395,21 @@
         <v>0.4163376638951375</v>
       </c>
       <c r="BO186" t="n">
+        <v>0.9137861161184802</v>
+      </c>
+      <c r="BP186" t="n">
         <v>-0.4106864729184813</v>
       </c>
-      <c r="BP186" t="n">
+      <c r="BQ186" t="n">
         <v>-0.2171336499792891</v>
       </c>
-      <c r="BQ186" t="n">
+      <c r="BR186" t="n">
         <v>-0.4163376638951375</v>
       </c>
-      <c r="BR186" t="n">
+      <c r="BS186" t="n">
+        <v>0.9137861161184802</v>
+      </c>
+      <c r="BT186" t="n">
         <v>1.375</v>
       </c>
     </row>
@@ -39541,15 +40613,21 @@
         <v>0.2823726661393353</v>
       </c>
       <c r="BO187" t="n">
+        <v>0.9861842051951193</v>
+      </c>
+      <c r="BP187" t="n">
         <v>-0.3393186946408193</v>
       </c>
-      <c r="BP187" t="n">
+      <c r="BQ187" t="n">
         <v>-0.05228395116910622</v>
       </c>
-      <c r="BQ187" t="n">
+      <c r="BR187" t="n">
         <v>-0.2823726661393353</v>
       </c>
-      <c r="BR187" t="n">
+      <c r="BS187" t="n">
+        <v>0.9861842051951193</v>
+      </c>
+      <c r="BT187" t="n">
         <v>1.375</v>
       </c>
     </row>
@@ -39753,15 +40831,21 @@
         <v>0.3545260195467825</v>
       </c>
       <c r="BO188" t="n">
+        <v>1.058582294271759</v>
+      </c>
+      <c r="BP188" t="n">
         <v>-0.3983217015794563</v>
       </c>
-      <c r="BP188" t="n">
+      <c r="BQ188" t="n">
         <v>-0.1367264417523741</v>
       </c>
-      <c r="BQ188" t="n">
+      <c r="BR188" t="n">
         <v>-0.3545260195467825</v>
       </c>
-      <c r="BR188" t="n">
+      <c r="BS188" t="n">
+        <v>1.058582294271759</v>
+      </c>
+      <c r="BT188" t="n">
         <v>1.375</v>
       </c>
     </row>
@@ -39965,15 +41049,21 @@
         <v>0.06576139031299211</v>
       </c>
       <c r="BO189" t="n">
+        <v>1.405980383348398</v>
+      </c>
+      <c r="BP189" t="n">
         <v>-0.1203727793105765</v>
       </c>
-      <c r="BP189" t="n">
+      <c r="BQ189" t="n">
         <v>0.1558208938095424</v>
       </c>
-      <c r="BQ189" t="n">
+      <c r="BR189" t="n">
         <v>-0.06576139031299211</v>
       </c>
-      <c r="BR189" t="n">
+      <c r="BS189" t="n">
+        <v>1.405980383348398</v>
+      </c>
+      <c r="BT189" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -40177,15 +41267,21 @@
         <v>0.1564966849930171</v>
       </c>
       <c r="BO190" t="n">
+        <v>1.330693700825238</v>
+      </c>
+      <c r="BP190" t="n">
         <v>-0.1527743983651569</v>
       </c>
-      <c r="BP190" t="n">
+      <c r="BQ190" t="n">
         <v>0.04855080552659641</v>
       </c>
-      <c r="BQ190" t="n">
+      <c r="BR190" t="n">
         <v>-0.1564966849930171</v>
       </c>
-      <c r="BR190" t="n">
+      <c r="BS190" t="n">
+        <v>1.330693700825238</v>
+      </c>
+      <c r="BT190" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -40389,15 +41485,21 @@
         <v>0.07171561433865059</v>
       </c>
       <c r="BO191" t="n">
+        <v>1.255407018302078</v>
+      </c>
+      <c r="BP191" t="n">
         <v>-0.1643675422574621</v>
       </c>
-      <c r="BP191" t="n">
+      <c r="BQ191" t="n">
         <v>0.1492617525294579</v>
       </c>
-      <c r="BQ191" t="n">
+      <c r="BR191" t="n">
         <v>-0.07171561433865059</v>
       </c>
-      <c r="BR191" t="n">
+      <c r="BS191" t="n">
+        <v>1.255407018302078</v>
+      </c>
+      <c r="BT191" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -40601,15 +41703,21 @@
         <v>0.3836326412724682</v>
       </c>
       <c r="BO192" t="n">
+        <v>1.705120335778918</v>
+      </c>
+      <c r="BP192" t="n">
         <v>0.2654950683400648</v>
       </c>
-      <c r="BP192" t="n">
+      <c r="BQ192" t="n">
         <v>0.5918312446548855</v>
       </c>
-      <c r="BQ192" t="n">
+      <c r="BR192" t="n">
         <v>0.3836326412724682</v>
       </c>
-      <c r="BR192" t="n">
+      <c r="BS192" t="n">
+        <v>1.705120335778918</v>
+      </c>
+      <c r="BT192" t="n">
         <v>0.575</v>
       </c>
     </row>
@@ -40813,15 +41921,21 @@
         <v>0.4549438549946512</v>
       </c>
       <c r="BO193" t="n">
+        <v>1.693694420863204</v>
+      </c>
+      <c r="BP193" t="n">
         <v>0.2679326801196444</v>
       </c>
-      <c r="BP193" t="n">
+      <c r="BQ193" t="n">
         <v>0.6740218892277126</v>
       </c>
-      <c r="BQ193" t="n">
+      <c r="BR193" t="n">
         <v>0.4549438549946512</v>
       </c>
-      <c r="BR193" t="n">
+      <c r="BS193" t="n">
+        <v>1.693694420863204</v>
+      </c>
+      <c r="BT193" t="n">
         <v>0.575</v>
       </c>
     </row>
@@ -41025,15 +42139,21 @@
         <v>0.460759773519023</v>
       </c>
       <c r="BO194" t="n">
+        <v>1.68226850594749</v>
+      </c>
+      <c r="BP194" t="n">
         <v>0.3141122053986659</v>
       </c>
-      <c r="BP194" t="n">
+      <c r="BQ194" t="n">
         <v>0.6768972928997228</v>
       </c>
-      <c r="BQ194" t="n">
+      <c r="BR194" t="n">
         <v>0.460759773519023</v>
       </c>
-      <c r="BR194" t="n">
+      <c r="BS194" t="n">
+        <v>1.68226850594749</v>
+      </c>
+      <c r="BT194" t="n">
         <v>0.575</v>
       </c>
     </row>
@@ -41237,15 +42357,21 @@
         <v>0.137699333819602</v>
       </c>
       <c r="BO195" t="n">
+        <v>1.145842591031776</v>
+      </c>
+      <c r="BP195" t="n">
         <v>-0.2622421036754672</v>
       </c>
-      <c r="BP195" t="n">
+      <c r="BQ195" t="n">
         <v>0.05964749004360037</v>
       </c>
-      <c r="BQ195" t="n">
+      <c r="BR195" t="n">
         <v>-0.137699333819602</v>
       </c>
-      <c r="BR195" t="n">
+      <c r="BS195" t="n">
+        <v>1.145842591031776</v>
+      </c>
+      <c r="BT195" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -41449,15 +42575,21 @@
         <v>0.1597975797683733</v>
       </c>
       <c r="BO196" t="n">
+        <v>1.153875278538965</v>
+      </c>
+      <c r="BP196" t="n">
         <v>-0.2582174746352668</v>
       </c>
-      <c r="BP196" t="n">
+      <c r="BQ196" t="n">
         <v>0.02419446637214984</v>
       </c>
-      <c r="BQ196" t="n">
+      <c r="BR196" t="n">
         <v>-0.1597975797683733</v>
       </c>
-      <c r="BR196" t="n">
+      <c r="BS196" t="n">
+        <v>1.153875278538965</v>
+      </c>
+      <c r="BT196" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -41661,15 +42793,21 @@
         <v>0.1623030720235764</v>
       </c>
       <c r="BO197" t="n">
+        <v>1.161907966046154</v>
+      </c>
+      <c r="BP197" t="n">
         <v>-0.2532723037133061</v>
       </c>
-      <c r="BP197" t="n">
+      <c r="BQ197" t="n">
         <v>0.01468128772854671</v>
       </c>
-      <c r="BQ197" t="n">
+      <c r="BR197" t="n">
         <v>-0.1623030720235764</v>
       </c>
-      <c r="BR197" t="n">
+      <c r="BS197" t="n">
+        <v>1.161907966046154</v>
+      </c>
+      <c r="BT197" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -41873,15 +43011,21 @@
         <v>0.2262259282265151</v>
       </c>
       <c r="BO198" t="n">
+        <v>1.569940653553343</v>
+      </c>
+      <c r="BP198" t="n">
         <v>0.1574292594523626</v>
       </c>
-      <c r="BP198" t="n">
+      <c r="BQ198" t="n">
         <v>0.3927105523664657</v>
       </c>
-      <c r="BQ198" t="n">
+      <c r="BR198" t="n">
         <v>0.2262259282265151</v>
       </c>
-      <c r="BR198" t="n">
+      <c r="BS198" t="n">
+        <v>1.569940653553343</v>
+      </c>
+      <c r="BT198" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -42085,15 +43229,21 @@
         <v>0.215489862989179</v>
       </c>
       <c r="BO199" t="n">
+        <v>1.573656422847295</v>
+      </c>
+      <c r="BP199" t="n">
         <v>0.1402366561894469</v>
       </c>
-      <c r="BP199" t="n">
+      <c r="BQ199" t="n">
         <v>0.3720556470764954</v>
       </c>
-      <c r="BQ199" t="n">
+      <c r="BR199" t="n">
         <v>0.215489862989179</v>
       </c>
-      <c r="BR199" t="n">
+      <c r="BS199" t="n">
+        <v>1.573656422847295</v>
+      </c>
+      <c r="BT199" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -42297,15 +43447,21 @@
         <v>0.2383883881609974</v>
       </c>
       <c r="BO200" t="n">
+        <v>1.577372192141248</v>
+      </c>
+      <c r="BP200" t="n">
         <v>0.100563392248693</v>
       </c>
-      <c r="BP200" t="n">
+      <c r="BQ200" t="n">
         <v>0.3906652003162586</v>
       </c>
-      <c r="BQ200" t="n">
+      <c r="BR200" t="n">
         <v>0.2383883881609974</v>
       </c>
-      <c r="BR200" t="n">
+      <c r="BS200" t="n">
+        <v>1.577372192141248</v>
+      </c>
+      <c r="BT200" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -42509,15 +43665,21 @@
         <v>0.02260696598046441</v>
       </c>
       <c r="BO201" t="n">
+        <v>1.3310879614352</v>
+      </c>
+      <c r="BP201" t="n">
         <v>-0.06865059929202477</v>
       </c>
-      <c r="BP201" t="n">
+      <c r="BQ201" t="n">
         <v>0.1736385532602385</v>
       </c>
-      <c r="BQ201" t="n">
+      <c r="BR201" t="n">
         <v>0.02260696598046441</v>
       </c>
-      <c r="BR201" t="n">
+      <c r="BS201" t="n">
+        <v>1.3310879614352</v>
+      </c>
+      <c r="BT201" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -42721,15 +43883,21 @@
         <v>0.007939691246941383</v>
       </c>
       <c r="BO202" t="n">
+        <v>1.441520143335559</v>
+      </c>
+      <c r="BP202" t="n">
         <v>-0.01990317663423702</v>
       </c>
-      <c r="BP202" t="n">
+      <c r="BQ202" t="n">
         <v>0.1460785581358945</v>
       </c>
-      <c r="BQ202" t="n">
+      <c r="BR202" t="n">
         <v>0.007939691246941383</v>
       </c>
-      <c r="BR202" t="n">
+      <c r="BS202" t="n">
+        <v>1.441520143335559</v>
+      </c>
+      <c r="BT202" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -42933,15 +44101,21 @@
         <v>0.06165096583175744</v>
       </c>
       <c r="BO203" t="n">
+        <v>1.551952325235918</v>
+      </c>
+      <c r="BP203" t="n">
         <v>-0.05690445918198317</v>
       </c>
-      <c r="BP203" t="n">
+      <c r="BQ203" t="n">
         <v>0.1907075284551412</v>
       </c>
-      <c r="BQ203" t="n">
+      <c r="BR203" t="n">
         <v>0.06165096583175744</v>
       </c>
-      <c r="BR203" t="n">
+      <c r="BS203" t="n">
+        <v>1.551952325235918</v>
+      </c>
+      <c r="BT203" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -43145,15 +44319,21 @@
         <v>0.1776221724782892</v>
       </c>
       <c r="BO204" t="n">
+        <v>1.462384507136277</v>
+      </c>
+      <c r="BP204" t="n">
         <v>-0.2180159308484668</v>
       </c>
-      <c r="BP204" t="n">
+      <c r="BQ204" t="n">
         <v>-0.06627863575622728</v>
       </c>
-      <c r="BQ204" t="n">
+      <c r="BR204" t="n">
         <v>-0.1776221724782892</v>
       </c>
-      <c r="BR204" t="n">
+      <c r="BS204" t="n">
+        <v>1.462384507136277</v>
+      </c>
+      <c r="BT204" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -43357,15 +44537,21 @@
         <v>0.05828619659377399</v>
       </c>
       <c r="BO205" t="n">
+        <v>1.575446540805553</v>
+      </c>
+      <c r="BP205" t="n">
         <v>-0.1392596493942673</v>
       </c>
-      <c r="BP205" t="n">
+      <c r="BQ205" t="n">
         <v>0.04772900061614083</v>
       </c>
-      <c r="BQ205" t="n">
+      <c r="BR205" t="n">
         <v>-0.05828619659377399</v>
       </c>
-      <c r="BR205" t="n">
+      <c r="BS205" t="n">
+        <v>1.575446540805553</v>
+      </c>
+      <c r="BT205" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -43569,15 +44755,21 @@
         <v>0.1013115379683345</v>
       </c>
       <c r="BO206" t="n">
+        <v>1.688508574474829</v>
+      </c>
+      <c r="BP206" t="n">
         <v>-0.128147713505457</v>
       </c>
-      <c r="BP206" t="n">
+      <c r="BQ206" t="n">
         <v>-0.003610662565298961</v>
       </c>
-      <c r="BQ206" t="n">
+      <c r="BR206" t="n">
         <v>-0.1013115379683345</v>
       </c>
-      <c r="BR206" t="n">
+      <c r="BS206" t="n">
+        <v>1.688508574474829</v>
+      </c>
+      <c r="BT206" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -43781,15 +44973,21 @@
         <v>0.471138115803764</v>
       </c>
       <c r="BO207" t="n">
+        <v>1.351570608144105</v>
+      </c>
+      <c r="BP207" t="n">
         <v>-0.5849176121194295</v>
       </c>
-      <c r="BP207" t="n">
+      <c r="BQ207" t="n">
         <v>-0.3721717557703592</v>
       </c>
-      <c r="BQ207" t="n">
+      <c r="BR207" t="n">
         <v>-0.471138115803764</v>
       </c>
-      <c r="BR207" t="n">
+      <c r="BS207" t="n">
+        <v>1.351570608144105</v>
+      </c>
+      <c r="BT207" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -43993,15 +45191,21 @@
         <v>0.4541673142999318</v>
       </c>
       <c r="BO208" t="n">
+        <v>1.285478667906608</v>
+      </c>
+      <c r="BP208" t="n">
         <v>-0.462820428929841</v>
       </c>
-      <c r="BP208" t="n">
+      <c r="BQ208" t="n">
         <v>-0.356406324356783</v>
       </c>
-      <c r="BQ208" t="n">
+      <c r="BR208" t="n">
         <v>-0.4541673142999318</v>
       </c>
-      <c r="BR208" t="n">
+      <c r="BS208" t="n">
+        <v>1.285478667906608</v>
+      </c>
+      <c r="BT208" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -44205,15 +45409,21 @@
         <v>0.4215964209657885</v>
       </c>
       <c r="BO209" t="n">
+        <v>1.219386727669112</v>
+      </c>
+      <c r="BP209" t="n">
         <v>-0.3794804130001836</v>
       </c>
-      <c r="BP209" t="n">
+      <c r="BQ209" t="n">
         <v>-0.3315952760298433</v>
       </c>
-      <c r="BQ209" t="n">
+      <c r="BR209" t="n">
         <v>-0.4215964209657885</v>
       </c>
-      <c r="BR209" t="n">
+      <c r="BS209" t="n">
+        <v>1.219386727669112</v>
+      </c>
+      <c r="BT209" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -44417,15 +45627,21 @@
         <v>0.6462888397628535</v>
       </c>
       <c r="BO210" t="n">
+        <v>0.9782947874316148</v>
+      </c>
+      <c r="BP210" t="n">
         <v>-0.5617255870057787</v>
       </c>
-      <c r="BP210" t="n">
+      <c r="BQ210" t="n">
         <v>-0.5607676788637181</v>
       </c>
-      <c r="BQ210" t="n">
+      <c r="BR210" t="n">
         <v>-0.6462888397628535</v>
       </c>
-      <c r="BR210" t="n">
+      <c r="BS210" t="n">
+        <v>0.9782947874316148</v>
+      </c>
+      <c r="BT210" t="n">
         <v>1.775</v>
       </c>
     </row>
@@ -44629,15 +45845,21 @@
         <v>0.6737781695544836</v>
       </c>
       <c r="BO211" t="n">
+        <v>1.002995620102843</v>
+      </c>
+      <c r="BP211" t="n">
         <v>-0.6205700165049421</v>
       </c>
-      <c r="BP211" t="n">
+      <c r="BQ211" t="n">
         <v>-0.599256724038844</v>
       </c>
-      <c r="BQ211" t="n">
+      <c r="BR211" t="n">
         <v>-0.6737781695544836</v>
       </c>
-      <c r="BR211" t="n">
+      <c r="BS211" t="n">
+        <v>1.002995620102843</v>
+      </c>
+      <c r="BT211" t="n">
         <v>1.775</v>
       </c>
     </row>
@@ -44841,15 +46063,21 @@
         <v>0.6724072167809088</v>
       </c>
       <c r="BO212" t="n">
+        <v>1.027696452774072</v>
+      </c>
+      <c r="BP212" t="n">
         <v>-0.6559550034435528</v>
       </c>
-      <c r="BP212" t="n">
+      <c r="BQ212" t="n">
         <v>-0.5970985857000841</v>
       </c>
-      <c r="BQ212" t="n">
+      <c r="BR212" t="n">
         <v>-0.6724072167809088</v>
       </c>
-      <c r="BR212" t="n">
+      <c r="BS212" t="n">
+        <v>1.027696452774072</v>
+      </c>
+      <c r="BT212" t="n">
         <v>1.775</v>
       </c>
     </row>
@@ -45053,15 +46281,21 @@
         <v>0.6017497395843738</v>
       </c>
       <c r="BO213" t="n">
+        <v>1.1773972854453</v>
+      </c>
+      <c r="BP213" t="n">
         <v>-0.5224917555910211</v>
       </c>
-      <c r="BP213" t="n">
+      <c r="BQ213" t="n">
         <v>-0.5354086288098412</v>
       </c>
-      <c r="BQ213" t="n">
+      <c r="BR213" t="n">
         <v>-0.6017497395843738</v>
       </c>
-      <c r="BR213" t="n">
+      <c r="BS213" t="n">
+        <v>1.1773972854453</v>
+      </c>
+      <c r="BT213" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -45265,15 +46499,21 @@
         <v>0.5590893537421384</v>
       </c>
       <c r="BO214" t="n">
+        <v>1.293936041028341</v>
+      </c>
+      <c r="BP214" t="n">
         <v>-0.4541149628285905</v>
       </c>
-      <c r="BP214" t="n">
+      <c r="BQ214" t="n">
         <v>-0.4994527168421081</v>
       </c>
-      <c r="BQ214" t="n">
+      <c r="BR214" t="n">
         <v>-0.5590893537421384</v>
       </c>
-      <c r="BR214" t="n">
+      <c r="BS214" t="n">
+        <v>1.293936041028341</v>
+      </c>
+      <c r="BT214" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -45477,15 +46717,21 @@
         <v>0.4954956313824381</v>
       </c>
       <c r="BO215" t="n">
+        <v>1.410474796611381</v>
+      </c>
+      <c r="BP215" t="n">
         <v>-0.4272685232464</v>
       </c>
-      <c r="BP215" t="n">
+      <c r="BQ215" t="n">
         <v>-0.4372262412617345</v>
       </c>
-      <c r="BQ215" t="n">
+      <c r="BR215" t="n">
         <v>-0.4954956313824381</v>
       </c>
-      <c r="BR215" t="n">
+      <c r="BS215" t="n">
+        <v>1.410474796611381</v>
+      </c>
+      <c r="BT215" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -45689,15 +46935,21 @@
         <v>0.5438214025122066</v>
       </c>
       <c r="BO216" t="n">
+        <v>1.552013552194422</v>
+      </c>
+      <c r="BP216" t="n">
         <v>-0.4281650916111785</v>
       </c>
-      <c r="BP216" t="n">
+      <c r="BQ216" t="n">
         <v>-0.5016118960820091</v>
       </c>
-      <c r="BQ216" t="n">
+      <c r="BR216" t="n">
         <v>-0.5438214025122066</v>
       </c>
-      <c r="BR216" t="n">
+      <c r="BS216" t="n">
+        <v>1.552013552194422</v>
+      </c>
+      <c r="BT216" t="n">
         <v>1.625</v>
       </c>
     </row>
@@ -45901,15 +47153,21 @@
         <v>0.484321508020866</v>
       </c>
       <c r="BO217" t="n">
+        <v>1.597324132545203</v>
+      </c>
+      <c r="BP217" t="n">
         <v>-0.4058090478001535</v>
       </c>
-      <c r="BP217" t="n">
+      <c r="BQ217" t="n">
         <v>-0.4434739157906442</v>
       </c>
-      <c r="BQ217" t="n">
+      <c r="BR217" t="n">
         <v>-0.484321508020866</v>
       </c>
-      <c r="BR217" t="n">
+      <c r="BS217" t="n">
+        <v>1.597324132545203</v>
+      </c>
+      <c r="BT217" t="n">
         <v>1.625</v>
       </c>
     </row>
@@ -46113,15 +47371,21 @@
         <v>0.5290957744753064</v>
       </c>
       <c r="BO218" t="n">
+        <v>1.642634712895984</v>
+      </c>
+      <c r="BP218" t="n">
         <v>-0.4652042859220258</v>
       </c>
-      <c r="BP218" t="n">
+      <c r="BQ218" t="n">
         <v>-0.5004079351105537</v>
       </c>
-      <c r="BQ218" t="n">
+      <c r="BR218" t="n">
         <v>-0.5290957744753064</v>
       </c>
-      <c r="BR218" t="n">
+      <c r="BS218" t="n">
+        <v>1.642634712895984</v>
+      </c>
+      <c r="BT218" t="n">
         <v>1.625</v>
       </c>
     </row>
@@ -46325,15 +47589,21 @@
         <v>0.6208313332824336</v>
       </c>
       <c r="BO219" t="n">
+        <v>1.612945293246765</v>
+      </c>
+      <c r="BP219" t="n">
         <v>-0.06652509985815036</v>
       </c>
-      <c r="BP219" t="n">
+      <c r="BQ219" t="n">
         <v>-0.589646450948939</v>
       </c>
-      <c r="BQ219" t="n">
+      <c r="BR219" t="n">
         <v>-0.6208313332824336</v>
       </c>
-      <c r="BR219" t="n">
+      <c r="BS219" t="n">
+        <v>1.612945293246765</v>
+      </c>
+      <c r="BT219" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -46537,15 +47807,21 @@
         <v>0.6153315403389723</v>
       </c>
       <c r="BO220" t="n">
+        <v>1.586408211871063</v>
+      </c>
+      <c r="BP220" t="n">
         <v>-0.4666037253347159</v>
       </c>
-      <c r="BP220" t="n">
+      <c r="BQ220" t="n">
         <v>-0.5990546260881409</v>
       </c>
-      <c r="BQ220" t="n">
+      <c r="BR220" t="n">
         <v>-0.6153315403389723</v>
       </c>
-      <c r="BR220" t="n">
+      <c r="BS220" t="n">
+        <v>1.586408211871063</v>
+      </c>
+      <c r="BT220" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -46749,15 +48025,21 @@
         <v>0.6650702088225828</v>
       </c>
       <c r="BO221" t="n">
+        <v>1.559871130495361</v>
+      </c>
+      <c r="BP221" t="n">
         <v>-0.5638260392851997</v>
       </c>
-      <c r="BP221" t="n">
+      <c r="BQ221" t="n">
         <v>-0.6447668803832014</v>
       </c>
-      <c r="BQ221" t="n">
+      <c r="BR221" t="n">
         <v>-0.6650702088225828</v>
       </c>
-      <c r="BR221" t="n">
+      <c r="BS221" t="n">
+        <v>1.559871130495361</v>
+      </c>
+      <c r="BT221" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -46961,15 +48243,21 @@
         <v>0.5384674871818271</v>
       </c>
       <c r="BO222" t="n">
+        <v>1.608334049119659</v>
+      </c>
+      <c r="BP222" t="n">
         <v>-0.4553024544057804</v>
       </c>
-      <c r="BP222" t="n">
+      <c r="BQ222" t="n">
         <v>-0.5115403194352648</v>
       </c>
-      <c r="BQ222" t="n">
+      <c r="BR222" t="n">
         <v>-0.5384674871818271</v>
       </c>
-      <c r="BR222" t="n">
+      <c r="BS222" t="n">
+        <v>1.608334049119659</v>
+      </c>
+      <c r="BT222" t="n">
         <v>1.625</v>
       </c>
     </row>
@@ -47173,15 +48461,21 @@
         <v>0.5115419905632155</v>
       </c>
       <c r="BO223" t="n">
+        <v>1.603356386141287</v>
+      </c>
+      <c r="BP223" t="n">
         <v>-0.4109413429320086</v>
       </c>
-      <c r="BP223" t="n">
+      <c r="BQ223" t="n">
         <v>-0.4712822586155154</v>
       </c>
-      <c r="BQ223" t="n">
+      <c r="BR223" t="n">
         <v>-0.5115419905632155</v>
       </c>
-      <c r="BR223" t="n">
+      <c r="BS223" t="n">
+        <v>1.603356386141287</v>
+      </c>
+      <c r="BT223" t="n">
         <v>1.625</v>
       </c>
     </row>
@@ -47385,15 +48679,21 @@
         <v>0.4528117859777443</v>
       </c>
       <c r="BO224" t="n">
+        <v>1.598378723162915</v>
+      </c>
+      <c r="BP224" t="n">
         <v>-0.3557147030141909</v>
       </c>
-      <c r="BP224" t="n">
+      <c r="BQ224" t="n">
         <v>-0.4096478831189192</v>
       </c>
-      <c r="BQ224" t="n">
+      <c r="BR224" t="n">
         <v>-0.4528117859777443</v>
       </c>
-      <c r="BR224" t="n">
+      <c r="BS224" t="n">
+        <v>1.598378723162915</v>
+      </c>
+      <c r="BT224" t="n">
         <v>1.625</v>
       </c>
     </row>
@@ -47597,15 +48897,21 @@
         <v>0.6178179070386021</v>
       </c>
       <c r="BO225" t="n">
+        <v>1.418401060184543</v>
+      </c>
+      <c r="BP225" t="n">
         <v>-0.4906799456036641</v>
       </c>
-      <c r="BP225" t="n">
+      <c r="BQ225" t="n">
         <v>-0.5764741687765527</v>
       </c>
-      <c r="BQ225" t="n">
+      <c r="BR225" t="n">
         <v>-0.6178179070386021</v>
       </c>
-      <c r="BR225" t="n">
+      <c r="BS225" t="n">
+        <v>1.418401060184543</v>
+      </c>
+      <c r="BT225" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -47809,15 +49115,21 @@
         <v>0.5806867518163434</v>
       </c>
       <c r="BO226" t="n">
+        <v>1.602981665919722</v>
+      </c>
+      <c r="BP226" t="n">
         <v>-0.5141339997089553</v>
       </c>
-      <c r="BP226" t="n">
+      <c r="BQ226" t="n">
         <v>-0.5313827971726446</v>
       </c>
-      <c r="BQ226" t="n">
+      <c r="BR226" t="n">
         <v>-0.5806867518163434</v>
       </c>
-      <c r="BR226" t="n">
+      <c r="BS226" t="n">
+        <v>1.602981665919722</v>
+      </c>
+      <c r="BT226" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -48021,15 +49333,21 @@
         <v>0.5760086818812842</v>
       </c>
       <c r="BO227" t="n">
+        <v>1.7875622716549</v>
+      </c>
+      <c r="BP227" t="n">
         <v>-0.4898562477694972</v>
       </c>
-      <c r="BP227" t="n">
+      <c r="BQ227" t="n">
         <v>-0.5124199382741523</v>
       </c>
-      <c r="BQ227" t="n">
+      <c r="BR227" t="n">
         <v>-0.5760086818812842</v>
       </c>
-      <c r="BR227" t="n">
+      <c r="BS227" t="n">
+        <v>1.7875622716549</v>
+      </c>
+      <c r="BT227" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -48233,15 +49551,21 @@
         <v>0.5927138473076281</v>
       </c>
       <c r="BO228" t="n">
+        <v>1.972142877390079</v>
+      </c>
+      <c r="BP228" t="n">
         <v>-0.1652713781396542</v>
       </c>
-      <c r="BP228" t="n">
+      <c r="BQ228" t="n">
         <v>-0.5009115557777717</v>
       </c>
-      <c r="BQ228" t="n">
+      <c r="BR228" t="n">
         <v>-0.5927138473076281</v>
       </c>
-      <c r="BR228" t="n">
+      <c r="BS228" t="n">
+        <v>1.972142877390079</v>
+      </c>
+      <c r="BT228" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -48445,15 +49769,21 @@
         <v>0.5637083390125592</v>
       </c>
       <c r="BO229" t="n">
+        <v>1.856467061742256</v>
+      </c>
+      <c r="BP229" t="n">
         <v>-0.1647438235437944</v>
       </c>
-      <c r="BP229" t="n">
+      <c r="BQ229" t="n">
         <v>-0.4532605445124289</v>
       </c>
-      <c r="BQ229" t="n">
+      <c r="BR229" t="n">
         <v>-0.5637083390125592</v>
       </c>
-      <c r="BR229" t="n">
+      <c r="BS229" t="n">
+        <v>1.856467061742256</v>
+      </c>
+      <c r="BT229" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -48657,15 +49987,21 @@
         <v>0.5861376274233649</v>
       </c>
       <c r="BO230" t="n">
+        <v>1.740791246094433</v>
+      </c>
+      <c r="BP230" t="n">
         <v>-0.1638508964848706</v>
       </c>
-      <c r="BP230" t="n">
+      <c r="BQ230" t="n">
         <v>-0.4785559404765598</v>
       </c>
-      <c r="BQ230" t="n">
+      <c r="BR230" t="n">
         <v>-0.5861376274233649</v>
       </c>
-      <c r="BR230" t="n">
+      <c r="BS230" t="n">
+        <v>1.740791246094433</v>
+      </c>
+      <c r="BT230" t="n">
         <v>1.8</v>
       </c>
     </row>
